--- a/Doc/design/软件框图.xlsx
+++ b/Doc/design/软件框图.xlsx
@@ -4,20 +4,463 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="795" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="EnvMonitor整体功能拆分" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="目录" sheetId="4" r:id="rId1"/>
+    <sheet name="EnvMonitor整体功能拆分" sheetId="1" r:id="rId2"/>
+    <sheet name="Sequence Diagram" sheetId="27" r:id="rId3"/>
+    <sheet name="Bootloader模块详细设计" sheetId="2" r:id="rId4"/>
+    <sheet name="Main模块详细设计" sheetId="5" r:id="rId5"/>
+    <sheet name="Initializer模块详细设计" sheetId="6" r:id="rId6"/>
+    <sheet name="Scheduler模块详细设计" sheetId="7" r:id="rId7"/>
+    <sheet name="SensorManager模块详细设计" sheetId="8" r:id="rId8"/>
+    <sheet name="SensorCapture模块详细设计" sheetId="9" r:id="rId9"/>
+    <sheet name="SensorUpload模块详细设计" sheetId="11" r:id="rId10"/>
+    <sheet name="SensorQuery模块详细设计" sheetId="12" r:id="rId11"/>
+    <sheet name="ConfigParser模块详细设计" sheetId="13" r:id="rId12"/>
+    <sheet name="BoardManager模块详细设计" sheetId="14" r:id="rId13"/>
+    <sheet name="OneWire Driver模块设计" sheetId="15" r:id="rId14"/>
+    <sheet name="I2C Driver模块设计" sheetId="16" r:id="rId15"/>
+    <sheet name="ADC Driver模块设计" sheetId="17" r:id="rId16"/>
+    <sheet name="DataCapture模块设计" sheetId="18" r:id="rId17"/>
+    <sheet name="DataStorage模块详细设计" sheetId="19" r:id="rId18"/>
+    <sheet name="SPI FlashDriver模块详细设计" sheetId="20" r:id="rId19"/>
+    <sheet name="SPI Driver模块详细设计" sheetId="21" r:id="rId20"/>
+    <sheet name="GPIO Driver模块详细设计" sheetId="22" r:id="rId21"/>
+    <sheet name="UART Driver模块详细设计" sheetId="23" r:id="rId22"/>
+    <sheet name="SystemDebug模块详细设计" sheetId="24" r:id="rId23"/>
+    <sheet name="PinMuxCfg模块详细设计" sheetId="25" r:id="rId24"/>
+    <sheet name="BLE Service说 Driver模块详细设计" sheetId="26" r:id="rId25"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>一、EnvMonitor系统功能划分简图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上图中的方块表示系统中的一个功能模块，负责处理某些特定的事情。各模块之间的虚线表示模块之间的依赖关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据项目情况，将系统拆分为22个子模块，每个模块的介绍及功能如下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnvMonitor System Overview</t>
+  </si>
+  <si>
+    <t>二、各模块功能简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各模块功能简介</t>
+  </si>
+  <si>
+    <t>●判断系统有效性，并启动系统主模块Main。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●升级系统固件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果在启动Main模块之前，用户押按Boot按键，则进入升级模式。支持蓝牙和串口升级。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算固件的校验码，并跟Flash中保存的校验码比较。若一致，则启动Main模块。如果不一致，则尝试启动保存在SPI Flash中的固件。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>若两个固件都无效，则调用SystemDebug模块提示用户启动失败。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固件在NRF51822 Internal Flash和外部SPI Flash中各保存一份。这样做为了防止升级失败后，系统无法正常启动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.Bootloader模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.PinMuxCfg模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责记录每个管脚的功能，比如串口的TX使用哪个管脚。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论：是否提供动态切换的功能？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.SystemDebug模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统调试模块，负责系统调试信息输出。输出方式有三种：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●串口输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●彩色LED灯：通过两个彩色LED灯的不同颜色和不同频率，来提示系统运行情况。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●蓝牙输出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.Main模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●调用Initializer模块，初始化系统所有子模块；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>●启动Scheduler模块，开始所有系统服务。系统有四个服务：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ 负责SensorBoard拔插检测；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ SensorBoard配置信息读取解析，并将SensorBoard的状态写入到SPI Flash中；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ 向数据采集服务注册或注销传感器采集请求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ 将采集来的数据转换为实际物理量，并保存到SPI Flash中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ 根据数据采集请求队列中的请求，向相应传感器发送采集命令采集数据；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>＊</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传感器状态监测服务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：由SensorManager模块提供。主要提供如下功能：</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>＊</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据采集服务</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：从传感器采集数据，并保存到SPI Flash中。由SensorCapture模块提供。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.Scheduler模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论：如何在Nordic SDK的基础上实现scheudler</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责任务调度。时分复用，优先级排序。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.Initializer模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责系统所有子模块的初始化任务（除了Main模块和Bootloader模块）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论：如何简单且统一得初始化所有模块？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>＊</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据上传服务</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将保存在SPI Flash中的数据上传给server，由SensorUpload模块提供。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>＊</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>数据查询服务</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>分析用户从蓝牙或者串口发送过来的查询命令，并将结果返回。由SensorQuery模块提供</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.I2C Driver模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提供访问I2C总线的函数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.SPI Driver模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作SPI总线的函数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.ADC Driver模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从ADC总线上读取传感器数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10.GPIO Driver模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作GPIO的函数的总和</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.UART Driver模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作串口的模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.BLE Services Driver模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象Nordic BLE Stack提供的服务，提供统一简单的接口给其他模块使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13.oneWire Driver模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单总线驱动模块。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>14.SPI FlashDriver模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管理SPI Flash设备，抽象出统一的Flash读写函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.DataCapture模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据采集模块。抽象隔离I2C总线和ADC总线的差异，为其他模块提供统一接口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16.DataStorage模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据管理模块，管理和组织所有SPI Flash上的数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>讨论：FATFS的可行性。主要限制是Internal Flash 和 SRAM的大小，寻找对内存和Flash要求都比较低的库。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.BoardManager模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SensorBoard管理模块，负责读取和解析SensorBoard的配置信息，并写入到SPI Flash中备份。同时，为SensorManager提供设备状态查询接口。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18.ConfigParser模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SensorBoard配置信息解析模块，对其他模块隐藏板子的配置信息存储方式及每个字节的含义。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.SensorManager模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时查询SensorBoard的连接情况，实时更新存储在Flash中的SensorBoard的状态信息。并向SensorCapture服务注册数据采集请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.SensorCapture模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据采集模块。按照指定的频率从指定的传感器采集指定的数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21.SensorUpload模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定时向Server发送采集到的传感器数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.SensorQuery模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收从串口或蓝牙发送的数据查询命令，执行并将结果返回给server。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、用户升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,13 +475,100 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -50,14 +580,34 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -74,25 +624,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>57981</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>41415</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>559604</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533403</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>162776</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="14" name="图片 13"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -105,8 +655,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76200" y="609600"/>
-          <a:ext cx="11456204" cy="6191250"/>
+          <a:off x="57981" y="223632"/>
+          <a:ext cx="10058400" cy="7252687"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -405,14 +955,587 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+  <dimension ref="A1:Q3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="3" width="2.875" customWidth="1"/>
+    <col min="4" max="4" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="B3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:Q1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" location="EnvMonitor整体功能拆分!A1" display="EnvMonitor System Overview"/>
+    <hyperlink ref="B3" location="EnvMonitor整体功能拆分!A47" display="各模块功能简介"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N129"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B130" sqref="B130"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.375" customWidth="1"/>
+    <col min="2" max="2" width="2.125" customWidth="1"/>
+    <col min="3" max="4" width="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" s="6" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B48" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D53" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B56" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C58" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="B60" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="C64" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B66" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D69" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E70" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E71" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E72" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D74" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D78" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D80" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B82" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C83" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C84" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="11"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B86" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C87" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C88" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B90" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C91" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B92" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C93" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B94" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="C95" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B96" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C97" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B98" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C99" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B100" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C101" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B102" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C103" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B104" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C105" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B106" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C107" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B109" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C110" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="C111" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D111" s="11"/>
+      <c r="E111" s="11"/>
+      <c r="F111" s="11"/>
+      <c r="G111" s="11"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="11"/>
+      <c r="L111" s="11"/>
+      <c r="M111" s="11"/>
+      <c r="N111" s="11"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B113" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C114" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B116" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C117" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B119" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C120" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B122" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B125" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C126" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B128" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C129" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -420,11 +1543,78 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
@@ -437,6 +1627,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/Doc/design/软件框图.xlsx
+++ b/Doc/design/软件框图.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>一、EnvMonitor系统功能划分简图</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -453,6 +453,10 @@
   </si>
   <si>
     <t>一、用户升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二、系统启动</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -592,17 +596,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -657,6 +661,55 @@
         <a:xfrm>
           <a:off x="57981" y="223632"/>
           <a:ext cx="10058400" cy="7252687"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>278802</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="219075"/>
+          <a:ext cx="7765452" cy="10058400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -969,33 +1022,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1223,7 +1276,7 @@
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D58" s="2"/>
@@ -1328,18 +1381,18 @@
       </c>
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="B86" s="12" t="s">
+      <c r="B86" s="10" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1349,7 +1402,7 @@
       </c>
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.15">
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D88" s="2"/>
@@ -1460,20 +1513,20 @@
       </c>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="C111" s="10" t="s">
+      <c r="C111" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D111" s="11"/>
-      <c r="E111" s="11"/>
-      <c r="F111" s="11"/>
-      <c r="G111" s="11"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="11"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="11"/>
-      <c r="L111" s="11"/>
-      <c r="M111" s="11"/>
-      <c r="N111" s="11"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="9"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="9"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B113" s="1" t="s">
@@ -1625,10 +1678,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+  <dimension ref="A1:A63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1638,9 +1691,15 @@
         <v>73</v>
       </c>
     </row>
+    <row r="63" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Doc/design/软件框图.xlsx
+++ b/Doc/design/软件框图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="795" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>一、EnvMonitor系统功能划分简图</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,7 +456,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>二、系统启动</t>
+    <t>二、固件启动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三、</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -669,33 +673,28 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>278802</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>540219</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>119269</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="2" name="图片 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -708,8 +707,155 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="219075"/>
-          <a:ext cx="7765452" cy="10058400"/>
+          <a:off x="10270435" y="182217"/>
+          <a:ext cx="8789697" cy="7772400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>48815</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="200024"/>
+          <a:ext cx="11907440" cy="10715625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>96245</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>122885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>273653</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>161869</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="下箭头 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3258711">
+          <a:off x="2699107" y="7854648"/>
+          <a:ext cx="210434" cy="4978008"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>36233</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="219075" y="12001500"/>
+          <a:ext cx="7772400" cy="9980333"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1199,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B130" sqref="B130"/>
+    <sheetView tabSelected="1" topLeftCell="I22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1678,24 +1824,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A63"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+  <dimension ref="A1:A140"/>
+  <sheetViews>
+    <sheetView topLeftCell="A115" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="63" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="4" t="s">
+    <row r="70" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="4" t="s">
         <v>74</v>
       </c>
     </row>
+    <row r="140" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Doc/design/软件框图.xlsx
+++ b/Doc/design/软件框图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="795" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="795" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
   <si>
     <t>一、EnvMonitor系统功能划分简图</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,6 +461,98 @@
   </si>
   <si>
     <t>三、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预设的四个系统服务：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SensorManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SensorCapture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SensorUploader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SensorQuery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒响应一次用户查询命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于有本地数据备份，运行周期可以相对长一些，但是当存储空间不足时，应该缩减运行周期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行周期(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采样频率尽量快，为了能较好的还原数据动态曲线，每秒采集10次数据，先假设采集10个SensorBoard的时间为50ms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑到实际应用时，用户动态插入采集板的概率很低，2分钟运行一次多有点多。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、需求分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tsm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tsc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tsu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tsq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周期(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2*60*1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1*60*1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5*60*1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tsq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,7 +651,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,8 +670,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -587,12 +685,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -612,6 +787,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -862,6 +1067,462 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形标注 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5781674" y="361950"/>
+          <a:ext cx="1933576" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -102083"/>
+            <a:gd name="adj2" fmla="val 40734"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>如何动态检查设备的拔插呢？</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>427627</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>139697</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>675277</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>37727</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="右箭头 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3231265">
+          <a:off x="5403037" y="1850837"/>
+          <a:ext cx="1612530" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="275717"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6219825" y="1819275"/>
+          <a:ext cx="1172116" cy="275717"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>运行周期示意图</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>203386</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>82365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1815916</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>158565</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="右箭头 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="3851461" y="3854265"/>
+          <a:ext cx="1612530" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="椭圆 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982200" y="2895600"/>
+          <a:ext cx="2152650" cy="942976"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50673</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="矩形标注 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8810625" y="1838325"/>
+          <a:ext cx="2609850" cy="955548"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -937"/>
+            <a:gd name="adj2" fmla="val 85427"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SensorCapture</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>和</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SensorUpload</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>运行时间有冲突，两个</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>handler</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>可以同时运行吗？</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>共用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SPI</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Flash</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>资源，一个写一个读，如何避免竞争？</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1345,7 +2006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="I22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="R50" sqref="R50"/>
     </sheetView>
   </sheetViews>
@@ -1898,14 +2559,732 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:DA18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="6.25" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="6" max="6" width="26.375" customWidth="1"/>
+    <col min="7" max="7" width="10.875" customWidth="1"/>
+    <col min="8" max="100" width="1.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:105" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:105" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:105" x14ac:dyDescent="0.15">
+      <c r="C3" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="1:105" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C4" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="16">
+        <v>2</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="22"/>
+    </row>
+    <row r="5" spans="1:105" ht="54" x14ac:dyDescent="0.15">
+      <c r="C5" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="16">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:105" ht="54" x14ac:dyDescent="0.15">
+      <c r="C6" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="16">
+        <v>3</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" s="22"/>
+    </row>
+    <row r="7" spans="1:105" x14ac:dyDescent="0.15">
+      <c r="C7" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="16">
+        <v>4</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="AY7" s="13"/>
+      <c r="AZ7" s="24"/>
+      <c r="BA7" s="24"/>
+      <c r="CN7" s="24"/>
+      <c r="CO7" s="24"/>
+      <c r="CP7" s="24"/>
+      <c r="CQ7" s="24"/>
+    </row>
+    <row r="8" spans="1:105" x14ac:dyDescent="0.15">
+      <c r="C8" s="20"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13"/>
+      <c r="AI8" s="13"/>
+      <c r="AJ8" s="13"/>
+      <c r="AK8" s="13"/>
+      <c r="AL8" s="13"/>
+      <c r="AM8" s="13"/>
+      <c r="AN8" s="13"/>
+      <c r="AO8" s="13"/>
+      <c r="AP8" s="13"/>
+      <c r="AQ8" s="13"/>
+      <c r="AR8" s="13"/>
+      <c r="AS8" s="13"/>
+      <c r="AT8" s="13"/>
+      <c r="AU8" s="13"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="26"/>
+      <c r="AZ8" s="13"/>
+      <c r="BA8" s="28"/>
+      <c r="BB8" s="13"/>
+      <c r="BC8" s="13"/>
+      <c r="BD8" s="13"/>
+      <c r="BE8" s="13"/>
+      <c r="BF8" s="13"/>
+      <c r="BG8" s="13"/>
+      <c r="BH8" s="13"/>
+      <c r="BI8" s="13"/>
+      <c r="BJ8" s="13"/>
+      <c r="BK8" s="13"/>
+      <c r="BL8" s="13"/>
+      <c r="BM8" s="13"/>
+      <c r="BN8" s="13"/>
+      <c r="BO8" s="13"/>
+      <c r="BP8" s="13"/>
+      <c r="BQ8" s="13"/>
+      <c r="BR8" s="13"/>
+      <c r="BS8" s="13"/>
+      <c r="BT8" s="13"/>
+      <c r="BU8" s="13"/>
+      <c r="BV8" s="13"/>
+      <c r="BW8" s="13"/>
+      <c r="BX8" s="13"/>
+      <c r="BY8" s="13"/>
+      <c r="BZ8" s="13"/>
+      <c r="CA8" s="13"/>
+      <c r="CB8" s="13"/>
+      <c r="CC8" s="13"/>
+      <c r="CD8" s="13"/>
+      <c r="CE8" s="13"/>
+      <c r="CF8" s="13"/>
+      <c r="CG8" s="13"/>
+      <c r="CH8" s="13"/>
+      <c r="CI8" s="13"/>
+      <c r="CJ8" s="13"/>
+      <c r="CK8" s="13"/>
+      <c r="CL8" s="13"/>
+      <c r="CM8" s="26"/>
+      <c r="CN8" s="13"/>
+      <c r="CO8" s="13"/>
+      <c r="CP8" s="13"/>
+      <c r="CQ8" s="28"/>
+      <c r="CR8" s="13"/>
+      <c r="CS8" s="13"/>
+      <c r="CT8" s="13"/>
+      <c r="CU8" s="13"/>
+      <c r="CV8" s="13"/>
+    </row>
+    <row r="9" spans="1:105" x14ac:dyDescent="0.15">
+      <c r="G9" t="s">
+        <v>90</v>
+      </c>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="24"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="Z9" s="24"/>
+      <c r="AA9" s="24"/>
+      <c r="AB9" s="24"/>
+      <c r="AC9" s="24"/>
+      <c r="AD9" s="24"/>
+      <c r="AE9" s="24"/>
+      <c r="AF9" s="24"/>
+      <c r="AG9" s="24"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="24"/>
+      <c r="AK9" s="24"/>
+      <c r="AL9" s="24"/>
+      <c r="AM9" s="24"/>
+      <c r="AN9" s="24"/>
+      <c r="AO9" s="24"/>
+      <c r="AP9" s="24"/>
+      <c r="AQ9" s="24"/>
+      <c r="AR9" s="24"/>
+      <c r="AS9" s="24"/>
+      <c r="AT9" s="24"/>
+      <c r="AU9" s="24"/>
+      <c r="AV9" s="24"/>
+      <c r="AW9" s="24"/>
+      <c r="AX9" s="24"/>
+      <c r="AY9" s="25"/>
+      <c r="AZ9" s="13"/>
+      <c r="BA9" s="26"/>
+      <c r="BB9" s="29"/>
+      <c r="BC9" s="24"/>
+      <c r="BD9" s="24"/>
+      <c r="BE9" s="24"/>
+      <c r="BF9" s="24"/>
+      <c r="BG9" s="24"/>
+      <c r="BH9" s="24"/>
+      <c r="BI9" s="24"/>
+      <c r="BJ9" s="24"/>
+      <c r="BK9" s="24"/>
+      <c r="BL9" s="24"/>
+      <c r="BM9" s="24"/>
+      <c r="BN9" s="24"/>
+      <c r="BO9" s="24"/>
+      <c r="BP9" s="24"/>
+      <c r="BQ9" s="24"/>
+      <c r="BR9" s="24"/>
+      <c r="BS9" s="24"/>
+      <c r="BT9" s="24"/>
+      <c r="BU9" s="24"/>
+      <c r="BV9" s="24"/>
+      <c r="BW9" s="24"/>
+      <c r="BX9" s="24"/>
+      <c r="BY9" s="24"/>
+      <c r="BZ9" s="24"/>
+      <c r="CA9" s="24"/>
+      <c r="CB9" s="24"/>
+      <c r="CC9" s="24"/>
+      <c r="CD9" s="24"/>
+      <c r="CE9" s="24"/>
+      <c r="CF9" s="24"/>
+      <c r="CG9" s="24"/>
+      <c r="CH9" s="24"/>
+      <c r="CI9" s="24"/>
+      <c r="CJ9" s="24"/>
+      <c r="CK9" s="24"/>
+      <c r="CL9" s="24"/>
+      <c r="CM9" s="25"/>
+      <c r="CN9" s="13"/>
+      <c r="CO9" s="13"/>
+      <c r="CP9" s="13"/>
+      <c r="CQ9" s="26"/>
+      <c r="CR9" s="29"/>
+      <c r="CS9" s="24"/>
+      <c r="CT9" s="24"/>
+      <c r="CU9" s="24"/>
+      <c r="CV9" s="24"/>
+    </row>
+    <row r="10" spans="1:105" x14ac:dyDescent="0.15">
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="V10" s="27"/>
+      <c r="Z10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AH10" s="27"/>
+      <c r="AL10" s="27"/>
+      <c r="AP10" s="27"/>
+      <c r="AT10" s="27"/>
+      <c r="AX10" s="27"/>
+      <c r="BB10" s="24"/>
+      <c r="BF10" s="24"/>
+      <c r="BJ10" s="24"/>
+      <c r="BN10" s="24"/>
+      <c r="BR10" s="24"/>
+      <c r="BV10" s="24"/>
+      <c r="BZ10" s="24"/>
+      <c r="CD10" s="24"/>
+      <c r="CH10" s="24"/>
+      <c r="CL10" s="24"/>
+      <c r="CP10" s="24"/>
+      <c r="CT10" s="24"/>
+      <c r="CY10" s="13"/>
+    </row>
+    <row r="11" spans="1:105" x14ac:dyDescent="0.15">
+      <c r="I11" s="26"/>
+      <c r="K11" s="28"/>
+      <c r="M11" s="26"/>
+      <c r="O11" s="28"/>
+      <c r="Q11" s="26"/>
+      <c r="S11" s="28"/>
+      <c r="U11" s="26"/>
+      <c r="W11" s="28"/>
+      <c r="Y11" s="26"/>
+      <c r="AA11" s="28"/>
+      <c r="AC11" s="26"/>
+      <c r="AE11" s="28"/>
+      <c r="AG11" s="26"/>
+      <c r="AI11" s="28"/>
+      <c r="AK11" s="26"/>
+      <c r="AM11" s="28"/>
+      <c r="AO11" s="26"/>
+      <c r="AQ11" s="28"/>
+      <c r="AS11" s="26"/>
+      <c r="AU11" s="28"/>
+      <c r="AW11" s="26"/>
+      <c r="AY11" s="28"/>
+      <c r="BA11" s="26"/>
+      <c r="BC11" s="28"/>
+      <c r="BE11" s="26"/>
+      <c r="BG11" s="28"/>
+      <c r="BI11" s="26"/>
+      <c r="BK11" s="28"/>
+      <c r="BM11" s="26"/>
+      <c r="BO11" s="28"/>
+      <c r="BQ11" s="26"/>
+      <c r="BS11" s="28"/>
+      <c r="BU11" s="26"/>
+      <c r="BW11" s="28"/>
+      <c r="BY11" s="26"/>
+      <c r="CA11" s="28"/>
+      <c r="CC11" s="26"/>
+      <c r="CE11" s="28"/>
+      <c r="CG11" s="26"/>
+      <c r="CI11" s="28"/>
+      <c r="CK11" s="26"/>
+      <c r="CM11" s="28"/>
+      <c r="CO11" s="26"/>
+      <c r="CQ11" s="28"/>
+      <c r="CS11" s="26"/>
+      <c r="CU11" s="28"/>
+      <c r="CW11" s="13"/>
+      <c r="CY11" s="13"/>
+      <c r="DA11" s="13"/>
+    </row>
+    <row r="12" spans="1:105" x14ac:dyDescent="0.15">
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" s="24"/>
+      <c r="I12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="25"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="25"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="29"/>
+      <c r="U12" s="25"/>
+      <c r="W12" s="26"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="25"/>
+      <c r="AA12" s="26"/>
+      <c r="AB12" s="29"/>
+      <c r="AC12" s="25"/>
+      <c r="AE12" s="26"/>
+      <c r="AF12" s="24"/>
+      <c r="AG12" s="25"/>
+      <c r="AI12" s="26"/>
+      <c r="AJ12" s="29"/>
+      <c r="AK12" s="25"/>
+      <c r="AM12" s="26"/>
+      <c r="AN12" s="24"/>
+      <c r="AO12" s="25"/>
+      <c r="AQ12" s="26"/>
+      <c r="AR12" s="29"/>
+      <c r="AS12" s="25"/>
+      <c r="AU12" s="26"/>
+      <c r="AV12" s="24"/>
+      <c r="AW12" s="25"/>
+      <c r="AY12" s="26"/>
+      <c r="AZ12" s="29"/>
+      <c r="BA12" s="25"/>
+      <c r="BC12" s="26"/>
+      <c r="BD12" s="24"/>
+      <c r="BE12" s="25"/>
+      <c r="BG12" s="26"/>
+      <c r="BH12" s="29"/>
+      <c r="BI12" s="25"/>
+      <c r="BK12" s="26"/>
+      <c r="BL12" s="24"/>
+      <c r="BM12" s="25"/>
+      <c r="BO12" s="26"/>
+      <c r="BP12" s="29"/>
+      <c r="BQ12" s="25"/>
+      <c r="BS12" s="26"/>
+      <c r="BT12" s="24"/>
+      <c r="BU12" s="25"/>
+      <c r="BW12" s="26"/>
+      <c r="BX12" s="29"/>
+      <c r="BY12" s="25"/>
+      <c r="CA12" s="26"/>
+      <c r="CB12" s="24"/>
+      <c r="CC12" s="25"/>
+      <c r="CE12" s="26"/>
+      <c r="CF12" s="29"/>
+      <c r="CG12" s="25"/>
+      <c r="CI12" s="26"/>
+      <c r="CJ12" s="24"/>
+      <c r="CK12" s="25"/>
+      <c r="CM12" s="26"/>
+      <c r="CN12" s="29"/>
+      <c r="CO12" s="25"/>
+      <c r="CQ12" s="26"/>
+      <c r="CR12" s="24"/>
+      <c r="CS12" s="25"/>
+      <c r="CU12" s="26"/>
+      <c r="CV12" s="29"/>
+      <c r="CW12" s="13"/>
+      <c r="CY12" s="13"/>
+      <c r="CZ12" s="13"/>
+      <c r="DA12" s="13"/>
+    </row>
+    <row r="13" spans="1:105" x14ac:dyDescent="0.15">
+      <c r="AJ13" s="24"/>
+      <c r="AK13" s="24"/>
+      <c r="AL13" s="24"/>
+      <c r="AM13" s="24"/>
+      <c r="AN13" s="24"/>
+      <c r="AO13" s="24"/>
+      <c r="AP13" s="24"/>
+      <c r="AQ13" s="24"/>
+      <c r="AR13" s="24"/>
+      <c r="AS13" s="24"/>
+      <c r="AT13" s="24"/>
+      <c r="AU13" s="24"/>
+      <c r="AV13" s="24"/>
+      <c r="AW13" s="24"/>
+      <c r="AX13" s="24"/>
+      <c r="AY13" s="24"/>
+      <c r="CB13" s="24"/>
+      <c r="CC13" s="24"/>
+      <c r="CD13" s="24"/>
+      <c r="CE13" s="24"/>
+      <c r="CF13" s="24"/>
+      <c r="CG13" s="24"/>
+      <c r="CH13" s="24"/>
+      <c r="CI13" s="24"/>
+      <c r="CJ13" s="24"/>
+      <c r="CK13" s="24"/>
+      <c r="CL13" s="24"/>
+      <c r="CM13" s="24"/>
+      <c r="CN13" s="24"/>
+      <c r="CO13" s="24"/>
+    </row>
+    <row r="14" spans="1:105" x14ac:dyDescent="0.15">
+      <c r="D14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AI14" s="26"/>
+      <c r="AY14" s="28"/>
+      <c r="CA14" s="26"/>
+      <c r="CO14" s="28"/>
+    </row>
+    <row r="15" spans="1:105" x14ac:dyDescent="0.15">
+      <c r="D15" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="G15" t="s">
+        <v>92</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
+      <c r="U15" s="24"/>
+      <c r="V15" s="24"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="24"/>
+      <c r="AC15" s="24"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="24"/>
+      <c r="AF15" s="24"/>
+      <c r="AG15" s="24"/>
+      <c r="AH15" s="24"/>
+      <c r="AI15" s="25"/>
+      <c r="AY15" s="26"/>
+      <c r="AZ15" s="29"/>
+      <c r="BA15" s="24"/>
+      <c r="BB15" s="24"/>
+      <c r="BC15" s="24"/>
+      <c r="BD15" s="24"/>
+      <c r="BE15" s="24"/>
+      <c r="BF15" s="24"/>
+      <c r="BG15" s="24"/>
+      <c r="BH15" s="24"/>
+      <c r="BI15" s="24"/>
+      <c r="BJ15" s="24"/>
+      <c r="BK15" s="24"/>
+      <c r="BL15" s="24"/>
+      <c r="BM15" s="24"/>
+      <c r="BN15" s="24"/>
+      <c r="BO15" s="24"/>
+      <c r="BP15" s="24"/>
+      <c r="BQ15" s="24"/>
+      <c r="BR15" s="24"/>
+      <c r="BS15" s="24"/>
+      <c r="BT15" s="24"/>
+      <c r="BU15" s="24"/>
+      <c r="BV15" s="24"/>
+      <c r="BW15" s="24"/>
+      <c r="BX15" s="24"/>
+      <c r="BY15" s="24"/>
+      <c r="BZ15" s="24"/>
+      <c r="CA15" s="25"/>
+      <c r="CB15" s="13"/>
+      <c r="CC15" s="13"/>
+      <c r="CD15" s="13"/>
+      <c r="CE15" s="13"/>
+      <c r="CF15" s="13"/>
+      <c r="CO15" s="26"/>
+      <c r="CP15" s="29"/>
+      <c r="CQ15" s="24"/>
+      <c r="CR15" s="24"/>
+      <c r="CS15" s="24"/>
+      <c r="CT15" s="24"/>
+      <c r="CU15" s="24"/>
+      <c r="CV15" s="24"/>
+    </row>
+    <row r="16" spans="1:105" x14ac:dyDescent="0.15">
+      <c r="D16" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="23">
+        <v>50</v>
+      </c>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AZ16" s="27"/>
+      <c r="BA16" s="27"/>
+      <c r="BB16" s="27"/>
+      <c r="BC16" s="27"/>
+      <c r="BD16" s="27"/>
+      <c r="BE16" s="27"/>
+      <c r="BF16" s="27"/>
+      <c r="BG16" s="27"/>
+      <c r="BZ16" s="24"/>
+      <c r="CA16" s="24"/>
+      <c r="CB16" s="24"/>
+      <c r="CC16" s="24"/>
+    </row>
+    <row r="17" spans="4:100" x14ac:dyDescent="0.15">
+      <c r="D17" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y17" s="26"/>
+      <c r="AG17" s="28"/>
+      <c r="AU17" s="13"/>
+      <c r="AY17" s="26"/>
+      <c r="BG17" s="28"/>
+      <c r="BY17" s="26"/>
+      <c r="CC17" s="28"/>
+    </row>
+    <row r="18" spans="4:100" x14ac:dyDescent="0.15">
+      <c r="D18" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
+      <c r="U18" s="24"/>
+      <c r="V18" s="24"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="24"/>
+      <c r="Y18" s="25"/>
+      <c r="AG18" s="26"/>
+      <c r="AH18" s="29"/>
+      <c r="AI18" s="24"/>
+      <c r="AJ18" s="24"/>
+      <c r="AK18" s="24"/>
+      <c r="AL18" s="24"/>
+      <c r="AM18" s="24"/>
+      <c r="AN18" s="24"/>
+      <c r="AO18" s="24"/>
+      <c r="AP18" s="24"/>
+      <c r="AQ18" s="24"/>
+      <c r="AR18" s="24"/>
+      <c r="AS18" s="24"/>
+      <c r="AT18" s="24"/>
+      <c r="AU18" s="24"/>
+      <c r="AV18" s="24"/>
+      <c r="AW18" s="24"/>
+      <c r="AX18" s="24"/>
+      <c r="AY18" s="25"/>
+      <c r="BG18" s="26"/>
+      <c r="BH18" s="29"/>
+      <c r="BI18" s="24"/>
+      <c r="BJ18" s="24"/>
+      <c r="BK18" s="24"/>
+      <c r="BL18" s="24"/>
+      <c r="BM18" s="24"/>
+      <c r="BN18" s="24"/>
+      <c r="BO18" s="24"/>
+      <c r="BP18" s="24"/>
+      <c r="BQ18" s="24"/>
+      <c r="BR18" s="24"/>
+      <c r="BS18" s="24"/>
+      <c r="BT18" s="24"/>
+      <c r="BU18" s="24"/>
+      <c r="BV18" s="24"/>
+      <c r="BW18" s="24"/>
+      <c r="BX18" s="24"/>
+      <c r="BY18" s="25"/>
+      <c r="CC18" s="26"/>
+      <c r="CD18" s="29"/>
+      <c r="CE18" s="24"/>
+      <c r="CF18" s="24"/>
+      <c r="CG18" s="24"/>
+      <c r="CH18" s="24"/>
+      <c r="CI18" s="24"/>
+      <c r="CJ18" s="24"/>
+      <c r="CK18" s="24"/>
+      <c r="CL18" s="24"/>
+      <c r="CM18" s="24"/>
+      <c r="CN18" s="24"/>
+      <c r="CO18" s="24"/>
+      <c r="CP18" s="24"/>
+      <c r="CQ18" s="24"/>
+      <c r="CR18" s="24"/>
+      <c r="CS18" s="24"/>
+      <c r="CT18" s="24"/>
+      <c r="CU18" s="24"/>
+      <c r="CV18" s="24"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Doc/design/软件框图.xlsx
+++ b/Doc/design/软件框图.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>一、EnvMonitor系统功能划分简图</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -500,59 +500,70 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>运行周期(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑到实际应用时，用户动态插入采集板的概率很低，2分钟运行一次多有点多。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采样频率尽量快，为了能较好的还原数据动态曲线，每秒采集10次数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>由于有本地数据备份，运行周期可以相对长一些，但是当存储空间不足时，应该缩减运行周期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>运行周期(ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>采样频率尽量快，为了能较好的还原数据动态曲线，每秒采集10次数据，先假设采集10个SensorBoard的时间为50ms</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考虑到实际应用时，用户动态插入采集板的概率很低，2分钟运行一次多有点多。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一、需求分析</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tsm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tsc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tsu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tsq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周期(ms)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2*60*1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1*60*1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.5*60*1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tsq</t>
+    <t>一、方案探讨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SensorCapture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SensorUploader</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SensorQuery</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SensorManager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>☆</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调度原理分析</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基于Nordic SDK中app_timer实现四个服务的调度，先看下app_timer的实现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,7 +571,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -650,6 +661,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -677,7 +697,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -705,25 +725,111 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="5" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="5" tint="0.39997558519241921"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="5" tint="0.39997558519241921"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
+      </left>
+      <right style="thin">
+        <color theme="7" tint="-0.249977111117893"/>
       </right>
       <top/>
       <bottom/>
@@ -733,33 +839,126 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="7" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color theme="9" tint="-0.499984740745262"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color theme="9" tint="-0.499984740745262"/>
       </left>
+      <right style="thin">
+        <color theme="9" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color theme="6" tint="-0.499984740745262"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -767,7 +966,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -781,24 +980,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -807,8 +994,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -816,7 +1010,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1074,150 +1284,23 @@
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>123824</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="矩形标注 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5781674" y="361950"/>
-          <a:ext cx="1933576" cy="371475"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -102083"/>
-            <a:gd name="adj2" fmla="val 40734"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>如何动态检查设备的拔插呢？</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>427627</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>139697</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>675277</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>37727</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="右箭头 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="3231265">
-          <a:off x="5403037" y="1850837"/>
-          <a:ext cx="1612530" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>1221440</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1172116" cy="275717"/>
+    <xdr:ext cx="1265924" cy="292452"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvPr id="8" name="TextBox 7"/>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6219825" y="1819275"/>
-          <a:ext cx="1172116" cy="275717"/>
+          <a:off x="6880411" y="2431677"/>
+          <a:ext cx="1265924" cy="292452"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1245,7 +1328,11 @@
         <a:lstStyle/>
         <a:p>
           <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:rPr>
             <a:t>运行周期示意图</a:t>
           </a:r>
         </a:p>
@@ -1253,278 +1340,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>203386</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>82365</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1815916</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>158565</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="右箭头 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="10800000">
-          <a:off x="3851461" y="3854265"/>
-          <a:ext cx="1612530" cy="247650"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="椭圆 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9982200" y="2895600"/>
-          <a:ext cx="2152650" cy="942976"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>50673</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="矩形标注 6"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8810625" y="1838325"/>
-          <a:ext cx="2609850" cy="955548"/>
-        </a:xfrm>
-        <a:prstGeom prst="wedgeRectCallout">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -937"/>
-            <a:gd name="adj2" fmla="val 85427"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFF00"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>SensorCapture</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>和</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>SensorUpload</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>运行时间有冲突，两个</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>handler</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>可以同时运行吗？</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>共用</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>SPI</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Flash</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>资源，一个写一个读，如何避免竞争？</a:t>
-          </a:r>
-          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1829,25 +1644,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
@@ -2559,726 +2374,2037 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DA18"/>
+  <dimension ref="A1:NH23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.625" customWidth="1"/>
-    <col min="2" max="2" width="6.25" customWidth="1"/>
+    <col min="1" max="2" width="2.625" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="26.375" customWidth="1"/>
-    <col min="7" max="7" width="10.875" customWidth="1"/>
-    <col min="8" max="100" width="1.625" customWidth="1"/>
+    <col min="7" max="7" width="19.875" customWidth="1"/>
+    <col min="8" max="372" width="1.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:372" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>89</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:105" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:372" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="C3" s="14" t="s">
+    <row r="3" spans="1:372" x14ac:dyDescent="0.15">
+      <c r="C3" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:372" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C4" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" s="14">
+        <v>2</v>
+      </c>
+      <c r="E4" s="22">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="30"/>
-    </row>
-    <row r="4" spans="1:105" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="C4" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="D4" s="16">
-        <v>2</v>
-      </c>
-      <c r="E4" s="19" t="s">
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:372" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="C5" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="22">
+        <v>100</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:372" ht="54" x14ac:dyDescent="0.15">
+      <c r="C6" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="14">
+        <v>3</v>
+      </c>
+      <c r="E6" s="22">
+        <v>1100</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:372" x14ac:dyDescent="0.15">
+      <c r="C7" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="14">
+        <v>4</v>
+      </c>
+      <c r="E7" s="22">
+        <v>1300</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="AY7" s="11"/>
+    </row>
+    <row r="8" spans="1:372" x14ac:dyDescent="0.15">
+      <c r="C8" s="16"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="18"/>
+      <c r="CV8" s="11"/>
+    </row>
+    <row r="9" spans="1:372" x14ac:dyDescent="0.15">
+      <c r="L9" s="23"/>
+      <c r="M9" s="11"/>
+      <c r="S9" s="11"/>
+    </row>
+    <row r="10" spans="1:372" x14ac:dyDescent="0.15">
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="11"/>
+      <c r="T10" s="11"/>
+      <c r="U10" s="25"/>
+      <c r="V10" s="26"/>
+      <c r="W10" s="11"/>
+      <c r="X10" s="11"/>
+      <c r="Y10" s="11"/>
+      <c r="Z10" s="25"/>
+      <c r="AA10" s="26"/>
+      <c r="AB10" s="11"/>
+      <c r="AC10" s="11"/>
+      <c r="AD10" s="11"/>
+      <c r="AE10" s="25"/>
+      <c r="AF10" s="26"/>
+      <c r="AG10" s="11"/>
+      <c r="AH10" s="11"/>
+      <c r="AI10" s="11"/>
+      <c r="AJ10" s="25"/>
+      <c r="AK10" s="26"/>
+      <c r="AL10" s="11"/>
+      <c r="AM10" s="11"/>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="25"/>
+      <c r="AP10" s="26"/>
+      <c r="AQ10" s="11"/>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="25"/>
+      <c r="AU10" s="26"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="25"/>
+      <c r="AZ10" s="26"/>
+      <c r="BA10" s="11"/>
+      <c r="BB10" s="11"/>
+      <c r="BC10" s="11"/>
+      <c r="BD10" s="25"/>
+      <c r="BE10" s="26"/>
+      <c r="BF10" s="11"/>
+      <c r="BG10" s="11"/>
+      <c r="BH10" s="11"/>
+      <c r="BI10" s="25"/>
+      <c r="BJ10" s="26"/>
+      <c r="BK10" s="11"/>
+      <c r="BL10" s="11"/>
+      <c r="BM10" s="11"/>
+      <c r="BN10" s="25"/>
+      <c r="BO10" s="26"/>
+      <c r="BP10" s="11"/>
+      <c r="BQ10" s="11"/>
+      <c r="BR10" s="11"/>
+      <c r="BS10" s="25"/>
+      <c r="BT10" s="26"/>
+      <c r="BU10" s="11"/>
+      <c r="BV10" s="11"/>
+      <c r="BW10" s="11"/>
+      <c r="BX10" s="25"/>
+      <c r="BY10" s="26"/>
+      <c r="BZ10" s="11"/>
+      <c r="CA10" s="11"/>
+      <c r="CB10" s="11"/>
+      <c r="CC10" s="25"/>
+      <c r="CD10" s="26"/>
+      <c r="CE10" s="11"/>
+      <c r="CF10" s="11"/>
+      <c r="CG10" s="11"/>
+      <c r="CH10" s="25"/>
+      <c r="CI10" s="26"/>
+      <c r="CJ10" s="11"/>
+      <c r="CK10" s="11"/>
+      <c r="CL10" s="11"/>
+      <c r="CM10" s="25"/>
+      <c r="CN10" s="26"/>
+      <c r="CO10" s="11"/>
+      <c r="CP10" s="11"/>
+      <c r="CQ10" s="11"/>
+      <c r="CR10" s="25"/>
+      <c r="CS10" s="26"/>
+      <c r="CT10" s="11"/>
+      <c r="CU10" s="11"/>
+      <c r="CV10" s="11"/>
+      <c r="CW10" s="25"/>
+      <c r="CX10" s="26"/>
+      <c r="CY10" s="11"/>
+      <c r="CZ10" s="11"/>
+      <c r="DA10" s="11"/>
+      <c r="DB10" s="25"/>
+      <c r="DC10" s="26"/>
+      <c r="DD10" s="11"/>
+      <c r="DE10" s="11"/>
+      <c r="DF10" s="11"/>
+      <c r="DG10" s="25"/>
+      <c r="DH10" s="26"/>
+      <c r="DI10" s="11"/>
+      <c r="DJ10" s="11"/>
+      <c r="DK10" s="11"/>
+      <c r="DL10" s="25"/>
+      <c r="DM10" s="26"/>
+      <c r="DN10" s="11"/>
+      <c r="DO10" s="11"/>
+      <c r="DP10" s="11"/>
+      <c r="DQ10" s="25"/>
+      <c r="DR10" s="26"/>
+      <c r="DS10" s="11"/>
+      <c r="DT10" s="11"/>
+      <c r="DU10" s="11"/>
+      <c r="DV10" s="25"/>
+      <c r="DW10" s="26"/>
+      <c r="DX10" s="11"/>
+      <c r="DY10" s="11"/>
+      <c r="DZ10" s="11"/>
+      <c r="EA10" s="25"/>
+      <c r="EB10" s="26"/>
+      <c r="EC10" s="11"/>
+      <c r="ED10" s="11"/>
+      <c r="EE10" s="11"/>
+      <c r="EF10" s="25"/>
+      <c r="EG10" s="26"/>
+      <c r="EH10" s="11"/>
+      <c r="EI10" s="11"/>
+      <c r="EJ10" s="11"/>
+      <c r="EK10" s="25"/>
+      <c r="EL10" s="26"/>
+      <c r="EM10" s="11"/>
+      <c r="EN10" s="11"/>
+      <c r="EO10" s="11"/>
+      <c r="EP10" s="25"/>
+      <c r="EQ10" s="26"/>
+      <c r="ER10" s="11"/>
+      <c r="ES10" s="11"/>
+      <c r="ET10" s="11"/>
+      <c r="EU10" s="25"/>
+      <c r="EV10" s="26"/>
+      <c r="EW10" s="11"/>
+      <c r="EX10" s="11"/>
+      <c r="EY10" s="11"/>
+      <c r="EZ10" s="25"/>
+      <c r="FA10" s="26"/>
+      <c r="FB10" s="11"/>
+      <c r="FC10" s="11"/>
+      <c r="FD10" s="11"/>
+      <c r="FE10" s="25"/>
+      <c r="FF10" s="26"/>
+      <c r="FG10" s="11"/>
+      <c r="FH10" s="11"/>
+      <c r="FI10" s="11"/>
+      <c r="FJ10" s="25"/>
+      <c r="FK10" s="26"/>
+      <c r="FL10" s="11"/>
+      <c r="FM10" s="11"/>
+      <c r="FN10" s="11"/>
+      <c r="FO10" s="25"/>
+      <c r="FP10" s="26"/>
+      <c r="FQ10" s="11"/>
+      <c r="FR10" s="11"/>
+      <c r="FS10" s="11"/>
+      <c r="FT10" s="25"/>
+      <c r="FU10" s="26"/>
+      <c r="FV10" s="11"/>
+      <c r="FW10" s="11"/>
+      <c r="FX10" s="11"/>
+      <c r="FY10" s="25"/>
+      <c r="FZ10" s="26"/>
+      <c r="GA10" s="11"/>
+      <c r="GB10" s="11"/>
+      <c r="GC10" s="11"/>
+      <c r="GD10" s="25"/>
+      <c r="GE10" s="26"/>
+      <c r="GF10" s="11"/>
+      <c r="GG10" s="11"/>
+      <c r="GH10" s="11"/>
+      <c r="GI10" s="25"/>
+      <c r="GJ10" s="26"/>
+      <c r="GK10" s="11"/>
+      <c r="GL10" s="11"/>
+      <c r="GM10" s="11"/>
+      <c r="GN10" s="25"/>
+      <c r="GO10" s="26"/>
+      <c r="GP10" s="11"/>
+      <c r="GQ10" s="11"/>
+      <c r="GR10" s="11"/>
+      <c r="GS10" s="25"/>
+      <c r="GT10" s="26"/>
+      <c r="GU10" s="11"/>
+      <c r="GV10" s="11"/>
+      <c r="GW10" s="11"/>
+      <c r="GX10" s="25"/>
+      <c r="GY10" s="26"/>
+      <c r="GZ10" s="11"/>
+      <c r="HA10" s="11"/>
+      <c r="HB10" s="11"/>
+      <c r="HC10" s="25"/>
+      <c r="HD10" s="26"/>
+      <c r="HE10" s="11"/>
+      <c r="HF10" s="11"/>
+      <c r="HG10" s="11"/>
+      <c r="HH10" s="25"/>
+      <c r="HI10" s="26"/>
+      <c r="HJ10" s="11"/>
+      <c r="HK10" s="11"/>
+      <c r="HL10" s="11"/>
+      <c r="HM10" s="25"/>
+      <c r="HN10" s="26"/>
+      <c r="HO10" s="11"/>
+      <c r="HP10" s="11"/>
+      <c r="HQ10" s="11"/>
+      <c r="HR10" s="25"/>
+      <c r="HS10" s="26"/>
+      <c r="HT10" s="11"/>
+      <c r="HU10" s="11"/>
+      <c r="HV10" s="11"/>
+      <c r="HW10" s="25"/>
+      <c r="HX10" s="26"/>
+      <c r="HY10" s="11"/>
+      <c r="HZ10" s="11"/>
+      <c r="IA10" s="11"/>
+      <c r="IB10" s="25"/>
+      <c r="IC10" s="26"/>
+      <c r="ID10" s="11"/>
+      <c r="IE10" s="11"/>
+      <c r="IF10" s="11"/>
+      <c r="IG10" s="25"/>
+      <c r="IH10" s="26"/>
+      <c r="II10" s="11"/>
+      <c r="IJ10" s="11"/>
+      <c r="IK10" s="11"/>
+      <c r="IL10" s="25"/>
+      <c r="IM10" s="26"/>
+      <c r="IN10" s="11"/>
+      <c r="IO10" s="11"/>
+      <c r="IP10" s="11"/>
+      <c r="IQ10" s="25"/>
+      <c r="IR10" s="26"/>
+      <c r="IS10" s="11"/>
+      <c r="IT10" s="11"/>
+      <c r="IU10" s="11"/>
+      <c r="IV10" s="25"/>
+      <c r="IW10" s="26"/>
+      <c r="IX10" s="11"/>
+      <c r="IY10" s="11"/>
+      <c r="IZ10" s="11"/>
+      <c r="JA10" s="25"/>
+      <c r="JB10" s="26"/>
+      <c r="JC10" s="11"/>
+      <c r="JD10" s="11"/>
+      <c r="JE10" s="11"/>
+      <c r="JF10" s="25"/>
+      <c r="JG10" s="26"/>
+      <c r="JH10" s="11"/>
+      <c r="JI10" s="11"/>
+      <c r="JJ10" s="11"/>
+      <c r="JK10" s="25"/>
+      <c r="JL10" s="26"/>
+      <c r="JM10" s="11"/>
+      <c r="JN10" s="11"/>
+      <c r="JO10" s="11"/>
+      <c r="JP10" s="25"/>
+      <c r="JQ10" s="26"/>
+      <c r="JR10" s="11"/>
+      <c r="JS10" s="11"/>
+      <c r="JT10" s="11"/>
+      <c r="JU10" s="25"/>
+      <c r="JV10" s="26"/>
+      <c r="JW10" s="11"/>
+      <c r="JX10" s="11"/>
+      <c r="JY10" s="11"/>
+      <c r="JZ10" s="25"/>
+      <c r="KA10" s="26"/>
+      <c r="KB10" s="11"/>
+      <c r="KC10" s="11"/>
+      <c r="KD10" s="11"/>
+      <c r="KE10" s="25"/>
+      <c r="KF10" s="26"/>
+      <c r="KG10" s="11"/>
+      <c r="KH10" s="11"/>
+      <c r="KI10" s="11"/>
+      <c r="KJ10" s="25"/>
+      <c r="KK10" s="26"/>
+      <c r="KL10" s="11"/>
+      <c r="KM10" s="11"/>
+      <c r="KN10" s="11"/>
+      <c r="KO10" s="25"/>
+      <c r="KP10" s="26"/>
+      <c r="KQ10" s="11"/>
+      <c r="KR10" s="11"/>
+      <c r="KS10" s="11"/>
+      <c r="KT10" s="25"/>
+      <c r="KU10" s="26"/>
+      <c r="KV10" s="11"/>
+      <c r="KW10" s="11"/>
+      <c r="KX10" s="11"/>
+      <c r="KY10" s="25"/>
+      <c r="KZ10" s="26"/>
+      <c r="LA10" s="11"/>
+      <c r="LB10" s="11"/>
+      <c r="LC10" s="11"/>
+      <c r="LD10" s="25"/>
+      <c r="LE10" s="26"/>
+      <c r="LF10" s="11"/>
+      <c r="LG10" s="11"/>
+      <c r="LH10" s="11"/>
+      <c r="LI10" s="25"/>
+      <c r="LJ10" s="26"/>
+      <c r="LK10" s="11"/>
+      <c r="LL10" s="11"/>
+      <c r="LM10" s="11"/>
+      <c r="LN10" s="25"/>
+      <c r="LO10" s="26"/>
+      <c r="LP10" s="11"/>
+      <c r="LQ10" s="11"/>
+      <c r="LR10" s="11"/>
+      <c r="LS10" s="25"/>
+      <c r="LT10" s="26"/>
+      <c r="LU10" s="11"/>
+      <c r="LV10" s="11"/>
+      <c r="LW10" s="11"/>
+      <c r="LX10" s="25"/>
+      <c r="LY10" s="26"/>
+      <c r="LZ10" s="11"/>
+      <c r="MA10" s="11"/>
+      <c r="MB10" s="11"/>
+      <c r="MC10" s="25"/>
+      <c r="MD10" s="26"/>
+      <c r="ME10" s="11"/>
+      <c r="MF10" s="11"/>
+      <c r="MG10" s="11"/>
+      <c r="MH10" s="25"/>
+      <c r="MI10" s="26"/>
+      <c r="MJ10" s="11"/>
+      <c r="MK10" s="11"/>
+      <c r="ML10" s="11"/>
+      <c r="MM10" s="25"/>
+      <c r="MN10" s="26"/>
+      <c r="MO10" s="11"/>
+      <c r="MP10" s="11"/>
+      <c r="MQ10" s="11"/>
+      <c r="MR10" s="25"/>
+      <c r="MS10" s="26"/>
+      <c r="MT10" s="11"/>
+      <c r="MU10" s="11"/>
+      <c r="MV10" s="11"/>
+      <c r="MW10" s="25"/>
+      <c r="MX10" s="26"/>
+      <c r="MY10" s="11"/>
+      <c r="MZ10" s="11"/>
+      <c r="NA10" s="11"/>
+      <c r="NB10" s="25"/>
+      <c r="NC10" s="26"/>
+      <c r="ND10" s="11"/>
+      <c r="NE10" s="11"/>
+      <c r="NF10" s="11"/>
+      <c r="NG10" s="25"/>
+      <c r="NH10" s="26"/>
+    </row>
+    <row r="11" spans="1:372" x14ac:dyDescent="0.15">
+      <c r="G11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:105" ht="54" x14ac:dyDescent="0.15">
-      <c r="C5" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D5" s="16">
-        <v>1</v>
-      </c>
-      <c r="E5" s="18" t="s">
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="27"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="24"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="24"/>
+      <c r="AA11" s="27"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23"/>
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="24"/>
+      <c r="AF11" s="27"/>
+      <c r="AG11" s="23"/>
+      <c r="AH11" s="23"/>
+      <c r="AI11" s="23"/>
+      <c r="AJ11" s="24"/>
+      <c r="AK11" s="27"/>
+      <c r="AL11" s="23"/>
+      <c r="AM11" s="23"/>
+      <c r="AN11" s="23"/>
+      <c r="AO11" s="24"/>
+      <c r="AP11" s="27"/>
+      <c r="AQ11" s="23"/>
+      <c r="AR11" s="23"/>
+      <c r="AS11" s="23"/>
+      <c r="AT11" s="24"/>
+      <c r="AU11" s="27"/>
+      <c r="AV11" s="23"/>
+      <c r="AW11" s="23"/>
+      <c r="AX11" s="23"/>
+      <c r="AY11" s="24"/>
+      <c r="AZ11" s="27"/>
+      <c r="BA11" s="23"/>
+      <c r="BB11" s="23"/>
+      <c r="BC11" s="23"/>
+      <c r="BD11" s="24"/>
+      <c r="BE11" s="27"/>
+      <c r="BF11" s="23"/>
+      <c r="BG11" s="23"/>
+      <c r="BH11" s="23"/>
+      <c r="BI11" s="24"/>
+      <c r="BJ11" s="27"/>
+      <c r="BK11" s="23"/>
+      <c r="BL11" s="23"/>
+      <c r="BM11" s="23"/>
+      <c r="BN11" s="24"/>
+      <c r="BO11" s="27"/>
+      <c r="BP11" s="23"/>
+      <c r="BQ11" s="23"/>
+      <c r="BR11" s="23"/>
+      <c r="BS11" s="24"/>
+      <c r="BT11" s="27"/>
+      <c r="BU11" s="23"/>
+      <c r="BV11" s="23"/>
+      <c r="BW11" s="23"/>
+      <c r="BX11" s="24"/>
+      <c r="BY11" s="27"/>
+      <c r="BZ11" s="23"/>
+      <c r="CA11" s="23"/>
+      <c r="CB11" s="23"/>
+      <c r="CC11" s="24"/>
+      <c r="CD11" s="27"/>
+      <c r="CE11" s="23"/>
+      <c r="CF11" s="23"/>
+      <c r="CG11" s="23"/>
+      <c r="CH11" s="24"/>
+      <c r="CI11" s="27"/>
+      <c r="CJ11" s="23"/>
+      <c r="CK11" s="23"/>
+      <c r="CL11" s="23"/>
+      <c r="CM11" s="24"/>
+      <c r="CN11" s="27"/>
+      <c r="CO11" s="23"/>
+      <c r="CP11" s="23"/>
+      <c r="CQ11" s="23"/>
+      <c r="CR11" s="24"/>
+      <c r="CS11" s="27"/>
+      <c r="CT11" s="23"/>
+      <c r="CU11" s="23"/>
+      <c r="CV11" s="23"/>
+      <c r="CW11" s="24"/>
+      <c r="CX11" s="27"/>
+      <c r="CY11" s="23"/>
+      <c r="CZ11" s="23"/>
+      <c r="DA11" s="23"/>
+      <c r="DB11" s="24"/>
+      <c r="DC11" s="27"/>
+      <c r="DD11" s="23"/>
+      <c r="DE11" s="23"/>
+      <c r="DF11" s="23"/>
+      <c r="DG11" s="24"/>
+      <c r="DH11" s="27"/>
+      <c r="DI11" s="23"/>
+      <c r="DJ11" s="23"/>
+      <c r="DK11" s="23"/>
+      <c r="DL11" s="24"/>
+      <c r="DM11" s="27"/>
+      <c r="DN11" s="23"/>
+      <c r="DO11" s="23"/>
+      <c r="DP11" s="23"/>
+      <c r="DQ11" s="24"/>
+      <c r="DR11" s="27"/>
+      <c r="DS11" s="23"/>
+      <c r="DT11" s="23"/>
+      <c r="DU11" s="23"/>
+      <c r="DV11" s="24"/>
+      <c r="DW11" s="27"/>
+      <c r="DX11" s="23"/>
+      <c r="DY11" s="23"/>
+      <c r="DZ11" s="23"/>
+      <c r="EA11" s="24"/>
+      <c r="EB11" s="27"/>
+      <c r="EC11" s="23"/>
+      <c r="ED11" s="23"/>
+      <c r="EE11" s="23"/>
+      <c r="EF11" s="24"/>
+      <c r="EG11" s="27"/>
+      <c r="EH11" s="23"/>
+      <c r="EI11" s="23"/>
+      <c r="EJ11" s="23"/>
+      <c r="EK11" s="24"/>
+      <c r="EL11" s="27"/>
+      <c r="EM11" s="23"/>
+      <c r="EN11" s="23"/>
+      <c r="EO11" s="23"/>
+      <c r="EP11" s="24"/>
+      <c r="EQ11" s="27"/>
+      <c r="ER11" s="23"/>
+      <c r="ES11" s="23"/>
+      <c r="ET11" s="23"/>
+      <c r="EU11" s="24"/>
+      <c r="EV11" s="27"/>
+      <c r="EW11" s="23"/>
+      <c r="EX11" s="23"/>
+      <c r="EY11" s="23"/>
+      <c r="EZ11" s="24"/>
+      <c r="FA11" s="27"/>
+      <c r="FB11" s="23"/>
+      <c r="FC11" s="23"/>
+      <c r="FD11" s="23"/>
+      <c r="FE11" s="24"/>
+      <c r="FF11" s="27"/>
+      <c r="FG11" s="23"/>
+      <c r="FH11" s="23"/>
+      <c r="FI11" s="23"/>
+      <c r="FJ11" s="24"/>
+      <c r="FK11" s="27"/>
+      <c r="FL11" s="23"/>
+      <c r="FM11" s="23"/>
+      <c r="FN11" s="23"/>
+      <c r="FO11" s="24"/>
+      <c r="FP11" s="27"/>
+      <c r="FQ11" s="23"/>
+      <c r="FR11" s="23"/>
+      <c r="FS11" s="23"/>
+      <c r="FT11" s="24"/>
+      <c r="FU11" s="27"/>
+      <c r="FV11" s="23"/>
+      <c r="FW11" s="23"/>
+      <c r="FX11" s="23"/>
+      <c r="FY11" s="24"/>
+      <c r="FZ11" s="27"/>
+      <c r="GA11" s="23"/>
+      <c r="GB11" s="23"/>
+      <c r="GC11" s="23"/>
+      <c r="GD11" s="24"/>
+      <c r="GE11" s="27"/>
+      <c r="GF11" s="23"/>
+      <c r="GG11" s="23"/>
+      <c r="GH11" s="23"/>
+      <c r="GI11" s="24"/>
+      <c r="GJ11" s="27"/>
+      <c r="GK11" s="23"/>
+      <c r="GL11" s="23"/>
+      <c r="GM11" s="23"/>
+      <c r="GN11" s="24"/>
+      <c r="GO11" s="27"/>
+      <c r="GP11" s="23"/>
+      <c r="GQ11" s="23"/>
+      <c r="GR11" s="23"/>
+      <c r="GS11" s="24"/>
+      <c r="GT11" s="27"/>
+      <c r="GU11" s="23"/>
+      <c r="GV11" s="23"/>
+      <c r="GW11" s="23"/>
+      <c r="GX11" s="24"/>
+      <c r="GY11" s="27"/>
+      <c r="GZ11" s="23"/>
+      <c r="HA11" s="23"/>
+      <c r="HB11" s="23"/>
+      <c r="HC11" s="24"/>
+      <c r="HD11" s="27"/>
+      <c r="HE11" s="23"/>
+      <c r="HF11" s="23"/>
+      <c r="HG11" s="23"/>
+      <c r="HH11" s="24"/>
+      <c r="HI11" s="27"/>
+      <c r="HJ11" s="23"/>
+      <c r="HK11" s="23"/>
+      <c r="HL11" s="23"/>
+      <c r="HM11" s="24"/>
+      <c r="HN11" s="27"/>
+      <c r="HO11" s="23"/>
+      <c r="HP11" s="23"/>
+      <c r="HQ11" s="23"/>
+      <c r="HR11" s="24"/>
+      <c r="HS11" s="27"/>
+      <c r="HT11" s="23"/>
+      <c r="HU11" s="23"/>
+      <c r="HV11" s="23"/>
+      <c r="HW11" s="24"/>
+      <c r="HX11" s="27"/>
+      <c r="HY11" s="23"/>
+      <c r="HZ11" s="23"/>
+      <c r="IA11" s="23"/>
+      <c r="IB11" s="24"/>
+      <c r="IC11" s="27"/>
+      <c r="ID11" s="23"/>
+      <c r="IE11" s="23"/>
+      <c r="IF11" s="23"/>
+      <c r="IG11" s="24"/>
+      <c r="IH11" s="27"/>
+      <c r="II11" s="23"/>
+      <c r="IJ11" s="23"/>
+      <c r="IK11" s="23"/>
+      <c r="IL11" s="24"/>
+      <c r="IM11" s="27"/>
+      <c r="IN11" s="23"/>
+      <c r="IO11" s="23"/>
+      <c r="IP11" s="23"/>
+      <c r="IQ11" s="24"/>
+      <c r="IR11" s="27"/>
+      <c r="IS11" s="23"/>
+      <c r="IT11" s="23"/>
+      <c r="IU11" s="23"/>
+      <c r="IV11" s="24"/>
+      <c r="IW11" s="27"/>
+      <c r="IX11" s="23"/>
+      <c r="IY11" s="23"/>
+      <c r="IZ11" s="23"/>
+      <c r="JA11" s="24"/>
+      <c r="JB11" s="27"/>
+      <c r="JC11" s="23"/>
+      <c r="JD11" s="23"/>
+      <c r="JE11" s="23"/>
+      <c r="JF11" s="24"/>
+      <c r="JG11" s="27"/>
+      <c r="JH11" s="23"/>
+      <c r="JI11" s="23"/>
+      <c r="JJ11" s="23"/>
+      <c r="JK11" s="24"/>
+      <c r="JL11" s="27"/>
+      <c r="JM11" s="23"/>
+      <c r="JN11" s="23"/>
+      <c r="JO11" s="23"/>
+      <c r="JP11" s="24"/>
+      <c r="JQ11" s="27"/>
+      <c r="JR11" s="23"/>
+      <c r="JS11" s="23"/>
+      <c r="JT11" s="23"/>
+      <c r="JU11" s="24"/>
+      <c r="JV11" s="27"/>
+      <c r="JW11" s="23"/>
+      <c r="JX11" s="23"/>
+      <c r="JY11" s="23"/>
+      <c r="JZ11" s="24"/>
+      <c r="KA11" s="27"/>
+      <c r="KB11" s="23"/>
+      <c r="KC11" s="23"/>
+      <c r="KD11" s="23"/>
+      <c r="KE11" s="24"/>
+      <c r="KF11" s="27"/>
+      <c r="KG11" s="23"/>
+      <c r="KH11" s="23"/>
+      <c r="KI11" s="23"/>
+      <c r="KJ11" s="24"/>
+      <c r="KK11" s="27"/>
+      <c r="KL11" s="23"/>
+      <c r="KM11" s="23"/>
+      <c r="KN11" s="23"/>
+      <c r="KO11" s="24"/>
+      <c r="KP11" s="27"/>
+      <c r="KQ11" s="23"/>
+      <c r="KR11" s="23"/>
+      <c r="KS11" s="23"/>
+      <c r="KT11" s="24"/>
+      <c r="KU11" s="27"/>
+      <c r="KV11" s="23"/>
+      <c r="KW11" s="23"/>
+      <c r="KX11" s="23"/>
+      <c r="KY11" s="24"/>
+      <c r="KZ11" s="27"/>
+      <c r="LA11" s="23"/>
+      <c r="LB11" s="23"/>
+      <c r="LC11" s="23"/>
+      <c r="LD11" s="24"/>
+      <c r="LE11" s="27"/>
+      <c r="LF11" s="23"/>
+      <c r="LG11" s="23"/>
+      <c r="LH11" s="23"/>
+      <c r="LI11" s="24"/>
+      <c r="LJ11" s="27"/>
+      <c r="LK11" s="23"/>
+      <c r="LL11" s="23"/>
+      <c r="LM11" s="23"/>
+      <c r="LN11" s="24"/>
+      <c r="LO11" s="27"/>
+      <c r="LP11" s="23"/>
+      <c r="LQ11" s="23"/>
+      <c r="LR11" s="23"/>
+      <c r="LS11" s="24"/>
+      <c r="LT11" s="27"/>
+      <c r="LU11" s="23"/>
+      <c r="LV11" s="23"/>
+      <c r="LW11" s="23"/>
+      <c r="LX11" s="24"/>
+      <c r="LY11" s="27"/>
+      <c r="LZ11" s="23"/>
+      <c r="MA11" s="23"/>
+      <c r="MB11" s="23"/>
+      <c r="MC11" s="24"/>
+      <c r="MD11" s="27"/>
+      <c r="ME11" s="23"/>
+      <c r="MF11" s="23"/>
+      <c r="MG11" s="23"/>
+      <c r="MH11" s="24"/>
+      <c r="MI11" s="27"/>
+      <c r="MJ11" s="23"/>
+      <c r="MK11" s="23"/>
+      <c r="ML11" s="23"/>
+      <c r="MM11" s="24"/>
+      <c r="MN11" s="27"/>
+      <c r="MO11" s="23"/>
+      <c r="MP11" s="23"/>
+      <c r="MQ11" s="23"/>
+      <c r="MR11" s="24"/>
+      <c r="MS11" s="27"/>
+      <c r="MT11" s="23"/>
+      <c r="MU11" s="23"/>
+      <c r="MV11" s="23"/>
+      <c r="MW11" s="24"/>
+      <c r="MX11" s="27"/>
+      <c r="MY11" s="23"/>
+      <c r="MZ11" s="23"/>
+      <c r="NA11" s="23"/>
+      <c r="NB11" s="24"/>
+      <c r="NC11" s="27"/>
+      <c r="ND11" s="23"/>
+      <c r="NE11" s="23"/>
+      <c r="NF11" s="23"/>
+      <c r="NG11" s="24"/>
+      <c r="NH11" s="27"/>
+    </row>
+    <row r="12" spans="1:372" x14ac:dyDescent="0.15">
+      <c r="AL12" s="34"/>
+      <c r="BK12" s="35"/>
+      <c r="CW12" s="11"/>
+      <c r="CY12" s="11"/>
+      <c r="CZ12" s="11"/>
+      <c r="DA12" s="11"/>
+    </row>
+    <row r="13" spans="1:372" x14ac:dyDescent="0.15">
+      <c r="AK13" s="11"/>
+      <c r="AL13" s="11"/>
+      <c r="BJ13" s="31"/>
+      <c r="BK13" s="32"/>
+      <c r="CO13" s="11"/>
+      <c r="CP13" s="11"/>
+      <c r="DN13" s="31"/>
+      <c r="DO13" s="32"/>
+      <c r="ES13" s="11"/>
+      <c r="ET13" s="11"/>
+      <c r="FR13" s="31"/>
+      <c r="FS13" s="32"/>
+      <c r="GW13" s="11"/>
+      <c r="GX13" s="11"/>
+      <c r="HV13" s="31"/>
+      <c r="HW13" s="32"/>
+      <c r="JA13" s="11"/>
+      <c r="JB13" s="11"/>
+      <c r="JZ13" s="31"/>
+      <c r="KA13" s="32"/>
+      <c r="LE13" s="11"/>
+      <c r="LF13" s="11"/>
+      <c r="MD13" s="31"/>
+      <c r="ME13" s="32"/>
+    </row>
+    <row r="14" spans="1:372" x14ac:dyDescent="0.15">
+      <c r="G14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F5" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="22"/>
-    </row>
-    <row r="6" spans="1:105" ht="54" x14ac:dyDescent="0.15">
-      <c r="C6" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="16">
-        <v>3</v>
-      </c>
-      <c r="E6" s="18" t="s">
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="28"/>
+      <c r="N14" s="28"/>
+      <c r="O14" s="28"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="28"/>
+      <c r="AA14" s="28"/>
+      <c r="AB14" s="28"/>
+      <c r="AC14" s="28"/>
+      <c r="AD14" s="28"/>
+      <c r="AE14" s="28"/>
+      <c r="AF14" s="28"/>
+      <c r="AG14" s="28"/>
+      <c r="AH14" s="28"/>
+      <c r="AI14" s="28"/>
+      <c r="AJ14" s="28"/>
+      <c r="AK14" s="28"/>
+      <c r="AL14" s="29"/>
+      <c r="AM14" s="29"/>
+      <c r="AN14" s="29"/>
+      <c r="AO14" s="29"/>
+      <c r="AP14" s="29"/>
+      <c r="AQ14" s="29"/>
+      <c r="AR14" s="29"/>
+      <c r="AS14" s="29"/>
+      <c r="AT14" s="29"/>
+      <c r="AU14" s="29"/>
+      <c r="AV14" s="29"/>
+      <c r="AW14" s="29"/>
+      <c r="AX14" s="29"/>
+      <c r="AY14" s="29"/>
+      <c r="AZ14" s="29"/>
+      <c r="BA14" s="29"/>
+      <c r="BB14" s="29"/>
+      <c r="BC14" s="29"/>
+      <c r="BD14" s="29"/>
+      <c r="BE14" s="29"/>
+      <c r="BF14" s="29"/>
+      <c r="BG14" s="29"/>
+      <c r="BH14" s="29"/>
+      <c r="BI14" s="29"/>
+      <c r="BJ14" s="30"/>
+      <c r="BK14" s="33"/>
+      <c r="BL14" s="28"/>
+      <c r="BM14" s="28"/>
+      <c r="BN14" s="28"/>
+      <c r="BO14" s="28"/>
+      <c r="BP14" s="28"/>
+      <c r="BQ14" s="28"/>
+      <c r="BR14" s="28"/>
+      <c r="BS14" s="28"/>
+      <c r="BT14" s="28"/>
+      <c r="BU14" s="28"/>
+      <c r="BV14" s="28"/>
+      <c r="BW14" s="28"/>
+      <c r="BX14" s="28"/>
+      <c r="BY14" s="28"/>
+      <c r="BZ14" s="28"/>
+      <c r="CA14" s="28"/>
+      <c r="CB14" s="28"/>
+      <c r="CC14" s="28"/>
+      <c r="CD14" s="28"/>
+      <c r="CE14" s="28"/>
+      <c r="CF14" s="28"/>
+      <c r="CG14" s="28"/>
+      <c r="CH14" s="28"/>
+      <c r="CI14" s="28"/>
+      <c r="CJ14" s="28"/>
+      <c r="CK14" s="28"/>
+      <c r="CL14" s="28"/>
+      <c r="CM14" s="28"/>
+      <c r="CN14" s="28"/>
+      <c r="CO14" s="28"/>
+      <c r="CP14" s="29"/>
+      <c r="CQ14" s="29"/>
+      <c r="CR14" s="29"/>
+      <c r="CS14" s="29"/>
+      <c r="CT14" s="29"/>
+      <c r="CU14" s="29"/>
+      <c r="CV14" s="29"/>
+      <c r="CW14" s="29"/>
+      <c r="CX14" s="29"/>
+      <c r="CY14" s="29"/>
+      <c r="CZ14" s="29"/>
+      <c r="DA14" s="29"/>
+      <c r="DB14" s="29"/>
+      <c r="DC14" s="29"/>
+      <c r="DD14" s="29"/>
+      <c r="DE14" s="29"/>
+      <c r="DF14" s="29"/>
+      <c r="DG14" s="29"/>
+      <c r="DH14" s="29"/>
+      <c r="DI14" s="29"/>
+      <c r="DJ14" s="29"/>
+      <c r="DK14" s="29"/>
+      <c r="DL14" s="29"/>
+      <c r="DM14" s="29"/>
+      <c r="DN14" s="30"/>
+      <c r="DO14" s="33"/>
+      <c r="DP14" s="28"/>
+      <c r="DQ14" s="28"/>
+      <c r="DR14" s="28"/>
+      <c r="DS14" s="28"/>
+      <c r="DT14" s="28"/>
+      <c r="DU14" s="28"/>
+      <c r="DV14" s="28"/>
+      <c r="DW14" s="28"/>
+      <c r="DX14" s="28"/>
+      <c r="DY14" s="28"/>
+      <c r="DZ14" s="28"/>
+      <c r="EA14" s="28"/>
+      <c r="EB14" s="28"/>
+      <c r="EC14" s="28"/>
+      <c r="ED14" s="28"/>
+      <c r="EE14" s="28"/>
+      <c r="EF14" s="28"/>
+      <c r="EG14" s="28"/>
+      <c r="EH14" s="28"/>
+      <c r="EI14" s="28"/>
+      <c r="EJ14" s="28"/>
+      <c r="EK14" s="28"/>
+      <c r="EL14" s="28"/>
+      <c r="EM14" s="28"/>
+      <c r="EN14" s="28"/>
+      <c r="EO14" s="28"/>
+      <c r="EP14" s="28"/>
+      <c r="EQ14" s="28"/>
+      <c r="ER14" s="28"/>
+      <c r="ES14" s="28"/>
+      <c r="ET14" s="29"/>
+      <c r="EU14" s="29"/>
+      <c r="EV14" s="29"/>
+      <c r="EW14" s="29"/>
+      <c r="EX14" s="29"/>
+      <c r="EY14" s="29"/>
+      <c r="EZ14" s="29"/>
+      <c r="FA14" s="29"/>
+      <c r="FB14" s="29"/>
+      <c r="FC14" s="29"/>
+      <c r="FD14" s="29"/>
+      <c r="FE14" s="29"/>
+      <c r="FF14" s="29"/>
+      <c r="FG14" s="29"/>
+      <c r="FH14" s="29"/>
+      <c r="FI14" s="29"/>
+      <c r="FJ14" s="29"/>
+      <c r="FK14" s="29"/>
+      <c r="FL14" s="29"/>
+      <c r="FM14" s="29"/>
+      <c r="FN14" s="29"/>
+      <c r="FO14" s="29"/>
+      <c r="FP14" s="29"/>
+      <c r="FQ14" s="29"/>
+      <c r="FR14" s="30"/>
+      <c r="FS14" s="33"/>
+      <c r="FT14" s="28"/>
+      <c r="FU14" s="28"/>
+      <c r="FV14" s="28"/>
+      <c r="FW14" s="28"/>
+      <c r="FX14" s="28"/>
+      <c r="FY14" s="28"/>
+      <c r="FZ14" s="28"/>
+      <c r="GA14" s="28"/>
+      <c r="GB14" s="28"/>
+      <c r="GC14" s="28"/>
+      <c r="GD14" s="28"/>
+      <c r="GE14" s="28"/>
+      <c r="GF14" s="28"/>
+      <c r="GG14" s="28"/>
+      <c r="GH14" s="28"/>
+      <c r="GI14" s="28"/>
+      <c r="GJ14" s="28"/>
+      <c r="GK14" s="28"/>
+      <c r="GL14" s="28"/>
+      <c r="GM14" s="28"/>
+      <c r="GN14" s="28"/>
+      <c r="GO14" s="28"/>
+      <c r="GP14" s="28"/>
+      <c r="GQ14" s="28"/>
+      <c r="GR14" s="28"/>
+      <c r="GS14" s="28"/>
+      <c r="GT14" s="28"/>
+      <c r="GU14" s="28"/>
+      <c r="GV14" s="28"/>
+      <c r="GW14" s="28"/>
+      <c r="GX14" s="29"/>
+      <c r="GY14" s="29"/>
+      <c r="GZ14" s="29"/>
+      <c r="HA14" s="29"/>
+      <c r="HB14" s="29"/>
+      <c r="HC14" s="29"/>
+      <c r="HD14" s="29"/>
+      <c r="HE14" s="29"/>
+      <c r="HF14" s="29"/>
+      <c r="HG14" s="29"/>
+      <c r="HH14" s="29"/>
+      <c r="HI14" s="29"/>
+      <c r="HJ14" s="29"/>
+      <c r="HK14" s="29"/>
+      <c r="HL14" s="29"/>
+      <c r="HM14" s="29"/>
+      <c r="HN14" s="29"/>
+      <c r="HO14" s="29"/>
+      <c r="HP14" s="29"/>
+      <c r="HQ14" s="29"/>
+      <c r="HR14" s="29"/>
+      <c r="HS14" s="29"/>
+      <c r="HT14" s="29"/>
+      <c r="HU14" s="29"/>
+      <c r="HV14" s="30"/>
+      <c r="HW14" s="33"/>
+      <c r="HX14" s="28"/>
+      <c r="HY14" s="28"/>
+      <c r="HZ14" s="28"/>
+      <c r="IA14" s="28"/>
+      <c r="IB14" s="28"/>
+      <c r="IC14" s="28"/>
+      <c r="ID14" s="28"/>
+      <c r="IE14" s="28"/>
+      <c r="IF14" s="28"/>
+      <c r="IG14" s="28"/>
+      <c r="IH14" s="28"/>
+      <c r="II14" s="28"/>
+      <c r="IJ14" s="28"/>
+      <c r="IK14" s="28"/>
+      <c r="IL14" s="28"/>
+      <c r="IM14" s="28"/>
+      <c r="IN14" s="28"/>
+      <c r="IO14" s="28"/>
+      <c r="IP14" s="28"/>
+      <c r="IQ14" s="28"/>
+      <c r="IR14" s="28"/>
+      <c r="IS14" s="28"/>
+      <c r="IT14" s="28"/>
+      <c r="IU14" s="28"/>
+      <c r="IV14" s="28"/>
+      <c r="IW14" s="28"/>
+      <c r="IX14" s="28"/>
+      <c r="IY14" s="28"/>
+      <c r="IZ14" s="28"/>
+      <c r="JA14" s="28"/>
+      <c r="JB14" s="29"/>
+      <c r="JC14" s="29"/>
+      <c r="JD14" s="29"/>
+      <c r="JE14" s="29"/>
+      <c r="JF14" s="29"/>
+      <c r="JG14" s="29"/>
+      <c r="JH14" s="29"/>
+      <c r="JI14" s="29"/>
+      <c r="JJ14" s="29"/>
+      <c r="JK14" s="29"/>
+      <c r="JL14" s="29"/>
+      <c r="JM14" s="29"/>
+      <c r="JN14" s="29"/>
+      <c r="JO14" s="29"/>
+      <c r="JP14" s="29"/>
+      <c r="JQ14" s="29"/>
+      <c r="JR14" s="29"/>
+      <c r="JS14" s="29"/>
+      <c r="JT14" s="29"/>
+      <c r="JU14" s="29"/>
+      <c r="JV14" s="29"/>
+      <c r="JW14" s="29"/>
+      <c r="JX14" s="29"/>
+      <c r="JY14" s="29"/>
+      <c r="JZ14" s="30"/>
+      <c r="KA14" s="33"/>
+      <c r="KB14" s="28"/>
+      <c r="KC14" s="28"/>
+      <c r="KD14" s="28"/>
+      <c r="KE14" s="28"/>
+      <c r="KF14" s="28"/>
+      <c r="KG14" s="28"/>
+      <c r="KH14" s="28"/>
+      <c r="KI14" s="28"/>
+      <c r="KJ14" s="28"/>
+      <c r="KK14" s="28"/>
+      <c r="KL14" s="28"/>
+      <c r="KM14" s="28"/>
+      <c r="KN14" s="28"/>
+      <c r="KO14" s="28"/>
+      <c r="KP14" s="28"/>
+      <c r="KQ14" s="28"/>
+      <c r="KR14" s="28"/>
+      <c r="KS14" s="28"/>
+      <c r="KT14" s="28"/>
+      <c r="KU14" s="28"/>
+      <c r="KV14" s="28"/>
+      <c r="KW14" s="28"/>
+      <c r="KX14" s="28"/>
+      <c r="KY14" s="28"/>
+      <c r="KZ14" s="28"/>
+      <c r="LA14" s="28"/>
+      <c r="LB14" s="28"/>
+      <c r="LC14" s="28"/>
+      <c r="LD14" s="28"/>
+      <c r="LE14" s="28"/>
+      <c r="LF14" s="29"/>
+      <c r="LG14" s="29"/>
+      <c r="LH14" s="29"/>
+      <c r="LI14" s="29"/>
+      <c r="LJ14" s="29"/>
+      <c r="LK14" s="29"/>
+      <c r="LL14" s="29"/>
+      <c r="LM14" s="29"/>
+      <c r="LN14" s="29"/>
+      <c r="LO14" s="29"/>
+      <c r="LP14" s="29"/>
+      <c r="LQ14" s="29"/>
+      <c r="LR14" s="29"/>
+      <c r="LS14" s="29"/>
+      <c r="LT14" s="29"/>
+      <c r="LU14" s="29"/>
+      <c r="LV14" s="29"/>
+      <c r="LW14" s="29"/>
+      <c r="LX14" s="29"/>
+      <c r="LY14" s="29"/>
+      <c r="LZ14" s="29"/>
+      <c r="MA14" s="29"/>
+      <c r="MB14" s="29"/>
+      <c r="MC14" s="29"/>
+      <c r="MD14" s="30"/>
+      <c r="ME14" s="33"/>
+      <c r="MF14" s="28"/>
+      <c r="MG14" s="28"/>
+      <c r="MH14" s="28"/>
+      <c r="MI14" s="28"/>
+      <c r="MJ14" s="28"/>
+      <c r="MK14" s="28"/>
+      <c r="ML14" s="28"/>
+      <c r="MM14" s="28"/>
+      <c r="MN14" s="28"/>
+      <c r="MO14" s="28"/>
+      <c r="MP14" s="28"/>
+      <c r="MQ14" s="28"/>
+      <c r="MR14" s="28"/>
+      <c r="MS14" s="28"/>
+      <c r="MT14" s="28"/>
+      <c r="MU14" s="28"/>
+      <c r="MV14" s="28"/>
+      <c r="MW14" s="28"/>
+      <c r="MX14" s="28"/>
+      <c r="MY14" s="28"/>
+      <c r="MZ14" s="28"/>
+      <c r="NA14" s="28"/>
+      <c r="NB14" s="28"/>
+      <c r="NC14" s="28"/>
+      <c r="ND14" s="28"/>
+      <c r="NE14" s="28"/>
+      <c r="NF14" s="28"/>
+      <c r="NG14" s="28"/>
+      <c r="NH14" s="28"/>
+    </row>
+    <row r="15" spans="1:372" x14ac:dyDescent="0.15">
+      <c r="BU15" s="36"/>
+    </row>
+    <row r="16" spans="1:372" x14ac:dyDescent="0.15">
+      <c r="BT16" s="38"/>
+      <c r="BU16" s="39"/>
+      <c r="EH16" s="38"/>
+      <c r="EI16" s="39"/>
+      <c r="GV16" s="38"/>
+      <c r="GW16" s="39"/>
+      <c r="JJ16" s="38"/>
+      <c r="JK16" s="39"/>
+      <c r="LX16" s="38"/>
+      <c r="LY16" s="39"/>
+    </row>
+    <row r="17" spans="2:372" x14ac:dyDescent="0.15">
+      <c r="G17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F6" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="G6" s="22"/>
-    </row>
-    <row r="7" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="C7" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="16">
-        <v>4</v>
-      </c>
-      <c r="E7" s="18" t="s">
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+      <c r="R17" s="36"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="36"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="36"/>
+      <c r="AK17" s="36"/>
+      <c r="AL17" s="36"/>
+      <c r="AM17" s="36"/>
+      <c r="AN17" s="36"/>
+      <c r="AO17" s="36"/>
+      <c r="AP17" s="36"/>
+      <c r="AQ17" s="36"/>
+      <c r="AR17" s="36"/>
+      <c r="AS17" s="36"/>
+      <c r="AT17" s="36"/>
+      <c r="AU17" s="36"/>
+      <c r="AV17" s="36"/>
+      <c r="AW17" s="36"/>
+      <c r="AX17" s="36"/>
+      <c r="AY17" s="36"/>
+      <c r="AZ17" s="36"/>
+      <c r="BA17" s="36"/>
+      <c r="BB17" s="36"/>
+      <c r="BC17" s="36"/>
+      <c r="BD17" s="36"/>
+      <c r="BE17" s="36"/>
+      <c r="BF17" s="36"/>
+      <c r="BG17" s="36"/>
+      <c r="BH17" s="36"/>
+      <c r="BI17" s="36"/>
+      <c r="BJ17" s="36"/>
+      <c r="BK17" s="36"/>
+      <c r="BL17" s="36"/>
+      <c r="BM17" s="36"/>
+      <c r="BN17" s="36"/>
+      <c r="BO17" s="36"/>
+      <c r="BP17" s="36"/>
+      <c r="BQ17" s="36"/>
+      <c r="BR17" s="36"/>
+      <c r="BS17" s="36"/>
+      <c r="BT17" s="37"/>
+      <c r="BU17" s="40"/>
+      <c r="BV17" s="36"/>
+      <c r="BW17" s="36"/>
+      <c r="BX17" s="36"/>
+      <c r="BY17" s="36"/>
+      <c r="BZ17" s="36"/>
+      <c r="CA17" s="36"/>
+      <c r="CB17" s="36"/>
+      <c r="CC17" s="36"/>
+      <c r="CD17" s="36"/>
+      <c r="CE17" s="36"/>
+      <c r="CF17" s="36"/>
+      <c r="CG17" s="36"/>
+      <c r="CH17" s="36"/>
+      <c r="CI17" s="36"/>
+      <c r="CJ17" s="36"/>
+      <c r="CK17" s="36"/>
+      <c r="CL17" s="36"/>
+      <c r="CM17" s="36"/>
+      <c r="CN17" s="36"/>
+      <c r="CO17" s="36"/>
+      <c r="CP17" s="36"/>
+      <c r="CQ17" s="36"/>
+      <c r="CR17" s="36"/>
+      <c r="CS17" s="36"/>
+      <c r="CT17" s="36"/>
+      <c r="CU17" s="36"/>
+      <c r="CV17" s="36"/>
+      <c r="CW17" s="36"/>
+      <c r="CX17" s="36"/>
+      <c r="CY17" s="36"/>
+      <c r="CZ17" s="36"/>
+      <c r="DA17" s="36"/>
+      <c r="DB17" s="36"/>
+      <c r="DC17" s="36"/>
+      <c r="DD17" s="36"/>
+      <c r="DE17" s="36"/>
+      <c r="DF17" s="36"/>
+      <c r="DG17" s="36"/>
+      <c r="DH17" s="36"/>
+      <c r="DI17" s="36"/>
+      <c r="DJ17" s="36"/>
+      <c r="DK17" s="36"/>
+      <c r="DL17" s="36"/>
+      <c r="DM17" s="36"/>
+      <c r="DN17" s="36"/>
+      <c r="DO17" s="36"/>
+      <c r="DP17" s="36"/>
+      <c r="DQ17" s="36"/>
+      <c r="DR17" s="36"/>
+      <c r="DS17" s="36"/>
+      <c r="DT17" s="36"/>
+      <c r="DU17" s="36"/>
+      <c r="DV17" s="36"/>
+      <c r="DW17" s="36"/>
+      <c r="DX17" s="36"/>
+      <c r="DY17" s="36"/>
+      <c r="DZ17" s="36"/>
+      <c r="EA17" s="36"/>
+      <c r="EB17" s="36"/>
+      <c r="EC17" s="36"/>
+      <c r="ED17" s="36"/>
+      <c r="EE17" s="36"/>
+      <c r="EF17" s="36"/>
+      <c r="EG17" s="36"/>
+      <c r="EH17" s="37"/>
+      <c r="EI17" s="40"/>
+      <c r="EJ17" s="36"/>
+      <c r="EK17" s="36"/>
+      <c r="EL17" s="36"/>
+      <c r="EM17" s="36"/>
+      <c r="EN17" s="36"/>
+      <c r="EO17" s="36"/>
+      <c r="EP17" s="36"/>
+      <c r="EQ17" s="36"/>
+      <c r="ER17" s="36"/>
+      <c r="ES17" s="36"/>
+      <c r="ET17" s="36"/>
+      <c r="EU17" s="36"/>
+      <c r="EV17" s="36"/>
+      <c r="EW17" s="36"/>
+      <c r="EX17" s="36"/>
+      <c r="EY17" s="36"/>
+      <c r="EZ17" s="36"/>
+      <c r="FA17" s="36"/>
+      <c r="FB17" s="36"/>
+      <c r="FC17" s="36"/>
+      <c r="FD17" s="36"/>
+      <c r="FE17" s="36"/>
+      <c r="FF17" s="36"/>
+      <c r="FG17" s="36"/>
+      <c r="FH17" s="36"/>
+      <c r="FI17" s="36"/>
+      <c r="FJ17" s="36"/>
+      <c r="FK17" s="36"/>
+      <c r="FL17" s="36"/>
+      <c r="FM17" s="36"/>
+      <c r="FN17" s="36"/>
+      <c r="FO17" s="36"/>
+      <c r="FP17" s="36"/>
+      <c r="FQ17" s="36"/>
+      <c r="FR17" s="36"/>
+      <c r="FS17" s="36"/>
+      <c r="FT17" s="36"/>
+      <c r="FU17" s="36"/>
+      <c r="FV17" s="36"/>
+      <c r="FW17" s="36"/>
+      <c r="FX17" s="36"/>
+      <c r="FY17" s="36"/>
+      <c r="FZ17" s="36"/>
+      <c r="GA17" s="36"/>
+      <c r="GB17" s="36"/>
+      <c r="GC17" s="36"/>
+      <c r="GD17" s="36"/>
+      <c r="GE17" s="36"/>
+      <c r="GF17" s="36"/>
+      <c r="GG17" s="36"/>
+      <c r="GH17" s="36"/>
+      <c r="GI17" s="36"/>
+      <c r="GJ17" s="36"/>
+      <c r="GK17" s="36"/>
+      <c r="GL17" s="36"/>
+      <c r="GM17" s="36"/>
+      <c r="GN17" s="36"/>
+      <c r="GO17" s="36"/>
+      <c r="GP17" s="36"/>
+      <c r="GQ17" s="36"/>
+      <c r="GR17" s="36"/>
+      <c r="GS17" s="36"/>
+      <c r="GT17" s="36"/>
+      <c r="GU17" s="36"/>
+      <c r="GV17" s="37"/>
+      <c r="GW17" s="40"/>
+      <c r="GX17" s="36"/>
+      <c r="GY17" s="36"/>
+      <c r="GZ17" s="36"/>
+      <c r="HA17" s="36"/>
+      <c r="HB17" s="36"/>
+      <c r="HC17" s="36"/>
+      <c r="HD17" s="36"/>
+      <c r="HE17" s="36"/>
+      <c r="HF17" s="36"/>
+      <c r="HG17" s="36"/>
+      <c r="HH17" s="36"/>
+      <c r="HI17" s="36"/>
+      <c r="HJ17" s="36"/>
+      <c r="HK17" s="36"/>
+      <c r="HL17" s="36"/>
+      <c r="HM17" s="36"/>
+      <c r="HN17" s="36"/>
+      <c r="HO17" s="36"/>
+      <c r="HP17" s="36"/>
+      <c r="HQ17" s="36"/>
+      <c r="HR17" s="36"/>
+      <c r="HS17" s="36"/>
+      <c r="HT17" s="36"/>
+      <c r="HU17" s="36"/>
+      <c r="HV17" s="36"/>
+      <c r="HW17" s="36"/>
+      <c r="HX17" s="36"/>
+      <c r="HY17" s="36"/>
+      <c r="HZ17" s="36"/>
+      <c r="IA17" s="36"/>
+      <c r="IB17" s="36"/>
+      <c r="IC17" s="36"/>
+      <c r="ID17" s="36"/>
+      <c r="IE17" s="36"/>
+      <c r="IF17" s="36"/>
+      <c r="IG17" s="36"/>
+      <c r="IH17" s="36"/>
+      <c r="II17" s="36"/>
+      <c r="IJ17" s="36"/>
+      <c r="IK17" s="36"/>
+      <c r="IL17" s="36"/>
+      <c r="IM17" s="36"/>
+      <c r="IN17" s="36"/>
+      <c r="IO17" s="36"/>
+      <c r="IP17" s="36"/>
+      <c r="IQ17" s="36"/>
+      <c r="IR17" s="36"/>
+      <c r="IS17" s="36"/>
+      <c r="IT17" s="36"/>
+      <c r="IU17" s="36"/>
+      <c r="IV17" s="36"/>
+      <c r="IW17" s="36"/>
+      <c r="IX17" s="36"/>
+      <c r="IY17" s="36"/>
+      <c r="IZ17" s="36"/>
+      <c r="JA17" s="36"/>
+      <c r="JB17" s="36"/>
+      <c r="JC17" s="36"/>
+      <c r="JD17" s="36"/>
+      <c r="JE17" s="36"/>
+      <c r="JF17" s="36"/>
+      <c r="JG17" s="36"/>
+      <c r="JH17" s="36"/>
+      <c r="JI17" s="36"/>
+      <c r="JJ17" s="37"/>
+      <c r="JK17" s="40"/>
+      <c r="JL17" s="36"/>
+      <c r="JM17" s="36"/>
+      <c r="JN17" s="36"/>
+      <c r="JO17" s="36"/>
+      <c r="JP17" s="36"/>
+      <c r="JQ17" s="36"/>
+      <c r="JR17" s="36"/>
+      <c r="JS17" s="36"/>
+      <c r="JT17" s="36"/>
+      <c r="JU17" s="36"/>
+      <c r="JV17" s="36"/>
+      <c r="JW17" s="36"/>
+      <c r="JX17" s="36"/>
+      <c r="JY17" s="36"/>
+      <c r="JZ17" s="36"/>
+      <c r="KA17" s="36"/>
+      <c r="KB17" s="36"/>
+      <c r="KC17" s="36"/>
+      <c r="KD17" s="36"/>
+      <c r="KE17" s="36"/>
+      <c r="KF17" s="36"/>
+      <c r="KG17" s="36"/>
+      <c r="KH17" s="36"/>
+      <c r="KI17" s="36"/>
+      <c r="KJ17" s="36"/>
+      <c r="KK17" s="36"/>
+      <c r="KL17" s="36"/>
+      <c r="KM17" s="36"/>
+      <c r="KN17" s="36"/>
+      <c r="KO17" s="36"/>
+      <c r="KP17" s="36"/>
+      <c r="KQ17" s="36"/>
+      <c r="KR17" s="36"/>
+      <c r="KS17" s="36"/>
+      <c r="KT17" s="36"/>
+      <c r="KU17" s="36"/>
+      <c r="KV17" s="36"/>
+      <c r="KW17" s="36"/>
+      <c r="KX17" s="36"/>
+      <c r="KY17" s="36"/>
+      <c r="KZ17" s="36"/>
+      <c r="LA17" s="36"/>
+      <c r="LB17" s="36"/>
+      <c r="LC17" s="36"/>
+      <c r="LD17" s="36"/>
+      <c r="LE17" s="36"/>
+      <c r="LF17" s="36"/>
+      <c r="LG17" s="36"/>
+      <c r="LH17" s="36"/>
+      <c r="LI17" s="36"/>
+      <c r="LJ17" s="36"/>
+      <c r="LK17" s="36"/>
+      <c r="LL17" s="36"/>
+      <c r="LM17" s="36"/>
+      <c r="LN17" s="36"/>
+      <c r="LO17" s="36"/>
+      <c r="LP17" s="36"/>
+      <c r="LQ17" s="36"/>
+      <c r="LR17" s="36"/>
+      <c r="LS17" s="36"/>
+      <c r="LT17" s="36"/>
+      <c r="LU17" s="36"/>
+      <c r="LV17" s="36"/>
+      <c r="LW17" s="36"/>
+      <c r="LX17" s="37"/>
+      <c r="LY17" s="40"/>
+      <c r="LZ17" s="36"/>
+      <c r="MA17" s="36"/>
+      <c r="MB17" s="36"/>
+      <c r="MC17" s="36"/>
+      <c r="MD17" s="36"/>
+      <c r="ME17" s="36"/>
+      <c r="MF17" s="36"/>
+      <c r="MG17" s="36"/>
+      <c r="MH17" s="36"/>
+      <c r="MI17" s="36"/>
+      <c r="MJ17" s="36"/>
+      <c r="MK17" s="36"/>
+      <c r="ML17" s="36"/>
+      <c r="MM17" s="36"/>
+      <c r="MN17" s="36"/>
+      <c r="MO17" s="36"/>
+      <c r="MP17" s="36"/>
+      <c r="MQ17" s="36"/>
+      <c r="MR17" s="36"/>
+      <c r="MS17" s="36"/>
+      <c r="MT17" s="36"/>
+      <c r="MU17" s="36"/>
+      <c r="MV17" s="36"/>
+      <c r="MW17" s="36"/>
+      <c r="MX17" s="36"/>
+      <c r="MY17" s="36"/>
+      <c r="MZ17" s="36"/>
+      <c r="NA17" s="36"/>
+      <c r="NB17" s="36"/>
+      <c r="NC17" s="36"/>
+      <c r="ND17" s="36"/>
+      <c r="NE17" s="36"/>
+      <c r="NF17" s="36"/>
+      <c r="NG17" s="36"/>
+      <c r="NH17" s="36"/>
+    </row>
+    <row r="18" spans="2:372" x14ac:dyDescent="0.15">
+      <c r="DD18" s="41"/>
+    </row>
+    <row r="19" spans="2:372" x14ac:dyDescent="0.15">
+      <c r="DC19" s="43"/>
+      <c r="DD19" s="44"/>
+      <c r="GZ19" s="43"/>
+      <c r="HA19" s="44"/>
+      <c r="KW19" s="43"/>
+      <c r="KX19" s="44"/>
+    </row>
+    <row r="20" spans="2:372" x14ac:dyDescent="0.15">
+      <c r="G20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="G7" s="22"/>
-      <c r="AY7" s="13"/>
-      <c r="AZ7" s="24"/>
-      <c r="BA7" s="24"/>
-      <c r="CN7" s="24"/>
-      <c r="CO7" s="24"/>
-      <c r="CP7" s="24"/>
-      <c r="CQ7" s="24"/>
-    </row>
-    <row r="8" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="C8" s="20"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="13"/>
-      <c r="AJ8" s="13"/>
-      <c r="AK8" s="13"/>
-      <c r="AL8" s="13"/>
-      <c r="AM8" s="13"/>
-      <c r="AN8" s="13"/>
-      <c r="AO8" s="13"/>
-      <c r="AP8" s="13"/>
-      <c r="AQ8" s="13"/>
-      <c r="AR8" s="13"/>
-      <c r="AS8" s="13"/>
-      <c r="AT8" s="13"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="13"/>
-      <c r="AW8" s="13"/>
-      <c r="AX8" s="13"/>
-      <c r="AY8" s="26"/>
-      <c r="AZ8" s="13"/>
-      <c r="BA8" s="28"/>
-      <c r="BB8" s="13"/>
-      <c r="BC8" s="13"/>
-      <c r="BD8" s="13"/>
-      <c r="BE8" s="13"/>
-      <c r="BF8" s="13"/>
-      <c r="BG8" s="13"/>
-      <c r="BH8" s="13"/>
-      <c r="BI8" s="13"/>
-      <c r="BJ8" s="13"/>
-      <c r="BK8" s="13"/>
-      <c r="BL8" s="13"/>
-      <c r="BM8" s="13"/>
-      <c r="BN8" s="13"/>
-      <c r="BO8" s="13"/>
-      <c r="BP8" s="13"/>
-      <c r="BQ8" s="13"/>
-      <c r="BR8" s="13"/>
-      <c r="BS8" s="13"/>
-      <c r="BT8" s="13"/>
-      <c r="BU8" s="13"/>
-      <c r="BV8" s="13"/>
-      <c r="BW8" s="13"/>
-      <c r="BX8" s="13"/>
-      <c r="BY8" s="13"/>
-      <c r="BZ8" s="13"/>
-      <c r="CA8" s="13"/>
-      <c r="CB8" s="13"/>
-      <c r="CC8" s="13"/>
-      <c r="CD8" s="13"/>
-      <c r="CE8" s="13"/>
-      <c r="CF8" s="13"/>
-      <c r="CG8" s="13"/>
-      <c r="CH8" s="13"/>
-      <c r="CI8" s="13"/>
-      <c r="CJ8" s="13"/>
-      <c r="CK8" s="13"/>
-      <c r="CL8" s="13"/>
-      <c r="CM8" s="26"/>
-      <c r="CN8" s="13"/>
-      <c r="CO8" s="13"/>
-      <c r="CP8" s="13"/>
-      <c r="CQ8" s="28"/>
-      <c r="CR8" s="13"/>
-      <c r="CS8" s="13"/>
-      <c r="CT8" s="13"/>
-      <c r="CU8" s="13"/>
-      <c r="CV8" s="13"/>
-    </row>
-    <row r="9" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="G9" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="24"/>
-      <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
-      <c r="U9" s="24"/>
-      <c r="V9" s="24"/>
-      <c r="W9" s="24"/>
-      <c r="X9" s="24"/>
-      <c r="Y9" s="24"/>
-      <c r="Z9" s="24"/>
-      <c r="AA9" s="24"/>
-      <c r="AB9" s="24"/>
-      <c r="AC9" s="24"/>
-      <c r="AD9" s="24"/>
-      <c r="AE9" s="24"/>
-      <c r="AF9" s="24"/>
-      <c r="AG9" s="24"/>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="24"/>
-      <c r="AK9" s="24"/>
-      <c r="AL9" s="24"/>
-      <c r="AM9" s="24"/>
-      <c r="AN9" s="24"/>
-      <c r="AO9" s="24"/>
-      <c r="AP9" s="24"/>
-      <c r="AQ9" s="24"/>
-      <c r="AR9" s="24"/>
-      <c r="AS9" s="24"/>
-      <c r="AT9" s="24"/>
-      <c r="AU9" s="24"/>
-      <c r="AV9" s="24"/>
-      <c r="AW9" s="24"/>
-      <c r="AX9" s="24"/>
-      <c r="AY9" s="25"/>
-      <c r="AZ9" s="13"/>
-      <c r="BA9" s="26"/>
-      <c r="BB9" s="29"/>
-      <c r="BC9" s="24"/>
-      <c r="BD9" s="24"/>
-      <c r="BE9" s="24"/>
-      <c r="BF9" s="24"/>
-      <c r="BG9" s="24"/>
-      <c r="BH9" s="24"/>
-      <c r="BI9" s="24"/>
-      <c r="BJ9" s="24"/>
-      <c r="BK9" s="24"/>
-      <c r="BL9" s="24"/>
-      <c r="BM9" s="24"/>
-      <c r="BN9" s="24"/>
-      <c r="BO9" s="24"/>
-      <c r="BP9" s="24"/>
-      <c r="BQ9" s="24"/>
-      <c r="BR9" s="24"/>
-      <c r="BS9" s="24"/>
-      <c r="BT9" s="24"/>
-      <c r="BU9" s="24"/>
-      <c r="BV9" s="24"/>
-      <c r="BW9" s="24"/>
-      <c r="BX9" s="24"/>
-      <c r="BY9" s="24"/>
-      <c r="BZ9" s="24"/>
-      <c r="CA9" s="24"/>
-      <c r="CB9" s="24"/>
-      <c r="CC9" s="24"/>
-      <c r="CD9" s="24"/>
-      <c r="CE9" s="24"/>
-      <c r="CF9" s="24"/>
-      <c r="CG9" s="24"/>
-      <c r="CH9" s="24"/>
-      <c r="CI9" s="24"/>
-      <c r="CJ9" s="24"/>
-      <c r="CK9" s="24"/>
-      <c r="CL9" s="24"/>
-      <c r="CM9" s="25"/>
-      <c r="CN9" s="13"/>
-      <c r="CO9" s="13"/>
-      <c r="CP9" s="13"/>
-      <c r="CQ9" s="26"/>
-      <c r="CR9" s="29"/>
-      <c r="CS9" s="24"/>
-      <c r="CT9" s="24"/>
-      <c r="CU9" s="24"/>
-      <c r="CV9" s="24"/>
-    </row>
-    <row r="10" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AD10" s="27"/>
-      <c r="AH10" s="27"/>
-      <c r="AL10" s="27"/>
-      <c r="AP10" s="27"/>
-      <c r="AT10" s="27"/>
-      <c r="AX10" s="27"/>
-      <c r="BB10" s="24"/>
-      <c r="BF10" s="24"/>
-      <c r="BJ10" s="24"/>
-      <c r="BN10" s="24"/>
-      <c r="BR10" s="24"/>
-      <c r="BV10" s="24"/>
-      <c r="BZ10" s="24"/>
-      <c r="CD10" s="24"/>
-      <c r="CH10" s="24"/>
-      <c r="CL10" s="24"/>
-      <c r="CP10" s="24"/>
-      <c r="CT10" s="24"/>
-      <c r="CY10" s="13"/>
-    </row>
-    <row r="11" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="I11" s="26"/>
-      <c r="K11" s="28"/>
-      <c r="M11" s="26"/>
-      <c r="O11" s="28"/>
-      <c r="Q11" s="26"/>
-      <c r="S11" s="28"/>
-      <c r="U11" s="26"/>
-      <c r="W11" s="28"/>
-      <c r="Y11" s="26"/>
-      <c r="AA11" s="28"/>
-      <c r="AC11" s="26"/>
-      <c r="AE11" s="28"/>
-      <c r="AG11" s="26"/>
-      <c r="AI11" s="28"/>
-      <c r="AK11" s="26"/>
-      <c r="AM11" s="28"/>
-      <c r="AO11" s="26"/>
-      <c r="AQ11" s="28"/>
-      <c r="AS11" s="26"/>
-      <c r="AU11" s="28"/>
-      <c r="AW11" s="26"/>
-      <c r="AY11" s="28"/>
-      <c r="BA11" s="26"/>
-      <c r="BC11" s="28"/>
-      <c r="BE11" s="26"/>
-      <c r="BG11" s="28"/>
-      <c r="BI11" s="26"/>
-      <c r="BK11" s="28"/>
-      <c r="BM11" s="26"/>
-      <c r="BO11" s="28"/>
-      <c r="BQ11" s="26"/>
-      <c r="BS11" s="28"/>
-      <c r="BU11" s="26"/>
-      <c r="BW11" s="28"/>
-      <c r="BY11" s="26"/>
-      <c r="CA11" s="28"/>
-      <c r="CC11" s="26"/>
-      <c r="CE11" s="28"/>
-      <c r="CG11" s="26"/>
-      <c r="CI11" s="28"/>
-      <c r="CK11" s="26"/>
-      <c r="CM11" s="28"/>
-      <c r="CO11" s="26"/>
-      <c r="CQ11" s="28"/>
-      <c r="CS11" s="26"/>
-      <c r="CU11" s="28"/>
-      <c r="CW11" s="13"/>
-      <c r="CY11" s="13"/>
-      <c r="DA11" s="13"/>
-    </row>
-    <row r="12" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="G12" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="25"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="25"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="25"/>
-      <c r="W12" s="26"/>
-      <c r="X12" s="24"/>
-      <c r="Y12" s="25"/>
-      <c r="AA12" s="26"/>
-      <c r="AB12" s="29"/>
-      <c r="AC12" s="25"/>
-      <c r="AE12" s="26"/>
-      <c r="AF12" s="24"/>
-      <c r="AG12" s="25"/>
-      <c r="AI12" s="26"/>
-      <c r="AJ12" s="29"/>
-      <c r="AK12" s="25"/>
-      <c r="AM12" s="26"/>
-      <c r="AN12" s="24"/>
-      <c r="AO12" s="25"/>
-      <c r="AQ12" s="26"/>
-      <c r="AR12" s="29"/>
-      <c r="AS12" s="25"/>
-      <c r="AU12" s="26"/>
-      <c r="AV12" s="24"/>
-      <c r="AW12" s="25"/>
-      <c r="AY12" s="26"/>
-      <c r="AZ12" s="29"/>
-      <c r="BA12" s="25"/>
-      <c r="BC12" s="26"/>
-      <c r="BD12" s="24"/>
-      <c r="BE12" s="25"/>
-      <c r="BG12" s="26"/>
-      <c r="BH12" s="29"/>
-      <c r="BI12" s="25"/>
-      <c r="BK12" s="26"/>
-      <c r="BL12" s="24"/>
-      <c r="BM12" s="25"/>
-      <c r="BO12" s="26"/>
-      <c r="BP12" s="29"/>
-      <c r="BQ12" s="25"/>
-      <c r="BS12" s="26"/>
-      <c r="BT12" s="24"/>
-      <c r="BU12" s="25"/>
-      <c r="BW12" s="26"/>
-      <c r="BX12" s="29"/>
-      <c r="BY12" s="25"/>
-      <c r="CA12" s="26"/>
-      <c r="CB12" s="24"/>
-      <c r="CC12" s="25"/>
-      <c r="CE12" s="26"/>
-      <c r="CF12" s="29"/>
-      <c r="CG12" s="25"/>
-      <c r="CI12" s="26"/>
-      <c r="CJ12" s="24"/>
-      <c r="CK12" s="25"/>
-      <c r="CM12" s="26"/>
-      <c r="CN12" s="29"/>
-      <c r="CO12" s="25"/>
-      <c r="CQ12" s="26"/>
-      <c r="CR12" s="24"/>
-      <c r="CS12" s="25"/>
-      <c r="CU12" s="26"/>
-      <c r="CV12" s="29"/>
-      <c r="CW12" s="13"/>
-      <c r="CY12" s="13"/>
-      <c r="CZ12" s="13"/>
-      <c r="DA12" s="13"/>
-    </row>
-    <row r="13" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="AJ13" s="24"/>
-      <c r="AK13" s="24"/>
-      <c r="AL13" s="24"/>
-      <c r="AM13" s="24"/>
-      <c r="AN13" s="24"/>
-      <c r="AO13" s="24"/>
-      <c r="AP13" s="24"/>
-      <c r="AQ13" s="24"/>
-      <c r="AR13" s="24"/>
-      <c r="AS13" s="24"/>
-      <c r="AT13" s="24"/>
-      <c r="AU13" s="24"/>
-      <c r="AV13" s="24"/>
-      <c r="AW13" s="24"/>
-      <c r="AX13" s="24"/>
-      <c r="AY13" s="24"/>
-      <c r="CB13" s="24"/>
-      <c r="CC13" s="24"/>
-      <c r="CD13" s="24"/>
-      <c r="CE13" s="24"/>
-      <c r="CF13" s="24"/>
-      <c r="CG13" s="24"/>
-      <c r="CH13" s="24"/>
-      <c r="CI13" s="24"/>
-      <c r="CJ13" s="24"/>
-      <c r="CK13" s="24"/>
-      <c r="CL13" s="24"/>
-      <c r="CM13" s="24"/>
-      <c r="CN13" s="24"/>
-      <c r="CO13" s="24"/>
-    </row>
-    <row r="14" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="D14" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E14" s="14" t="s">
+      <c r="H20" s="41"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="41"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+      <c r="AA20" s="41"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="41"/>
+      <c r="AF20" s="41"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="41"/>
+      <c r="AI20" s="41"/>
+      <c r="AJ20" s="41"/>
+      <c r="AK20" s="41"/>
+      <c r="AL20" s="41"/>
+      <c r="AM20" s="41"/>
+      <c r="AN20" s="41"/>
+      <c r="AO20" s="41"/>
+      <c r="AP20" s="41"/>
+      <c r="AQ20" s="41"/>
+      <c r="AR20" s="41"/>
+      <c r="AS20" s="41"/>
+      <c r="AT20" s="41"/>
+      <c r="AU20" s="41"/>
+      <c r="AV20" s="41"/>
+      <c r="AW20" s="41"/>
+      <c r="AX20" s="41"/>
+      <c r="AY20" s="41"/>
+      <c r="AZ20" s="41"/>
+      <c r="BA20" s="41"/>
+      <c r="BB20" s="41"/>
+      <c r="BC20" s="41"/>
+      <c r="BD20" s="41"/>
+      <c r="BE20" s="41"/>
+      <c r="BF20" s="41"/>
+      <c r="BG20" s="41"/>
+      <c r="BH20" s="41"/>
+      <c r="BI20" s="41"/>
+      <c r="BJ20" s="41"/>
+      <c r="BK20" s="41"/>
+      <c r="BL20" s="41"/>
+      <c r="BM20" s="41"/>
+      <c r="BN20" s="41"/>
+      <c r="BO20" s="41"/>
+      <c r="BP20" s="41"/>
+      <c r="BQ20" s="41"/>
+      <c r="BR20" s="41"/>
+      <c r="BS20" s="41"/>
+      <c r="BT20" s="41"/>
+      <c r="BU20" s="41"/>
+      <c r="BV20" s="41"/>
+      <c r="BW20" s="41"/>
+      <c r="BX20" s="41"/>
+      <c r="BY20" s="41"/>
+      <c r="BZ20" s="41"/>
+      <c r="CA20" s="41"/>
+      <c r="CB20" s="41"/>
+      <c r="CC20" s="41"/>
+      <c r="CD20" s="41"/>
+      <c r="CE20" s="41"/>
+      <c r="CF20" s="41"/>
+      <c r="CG20" s="41"/>
+      <c r="CH20" s="41"/>
+      <c r="CI20" s="41"/>
+      <c r="CJ20" s="41"/>
+      <c r="CK20" s="41"/>
+      <c r="CL20" s="41"/>
+      <c r="CM20" s="41"/>
+      <c r="CN20" s="41"/>
+      <c r="CO20" s="41"/>
+      <c r="CP20" s="41"/>
+      <c r="CQ20" s="41"/>
+      <c r="CR20" s="41"/>
+      <c r="CS20" s="41"/>
+      <c r="CT20" s="41"/>
+      <c r="CU20" s="41"/>
+      <c r="CV20" s="41"/>
+      <c r="CW20" s="41"/>
+      <c r="CX20" s="41"/>
+      <c r="CY20" s="41"/>
+      <c r="CZ20" s="41"/>
+      <c r="DA20" s="41"/>
+      <c r="DB20" s="41"/>
+      <c r="DC20" s="42"/>
+      <c r="DD20" s="45"/>
+      <c r="DE20" s="41"/>
+      <c r="DF20" s="41"/>
+      <c r="DG20" s="41"/>
+      <c r="DH20" s="41"/>
+      <c r="DI20" s="41"/>
+      <c r="DJ20" s="41"/>
+      <c r="DK20" s="41"/>
+      <c r="DL20" s="41"/>
+      <c r="DM20" s="41"/>
+      <c r="DN20" s="41"/>
+      <c r="DO20" s="41"/>
+      <c r="DP20" s="41"/>
+      <c r="DQ20" s="41"/>
+      <c r="DR20" s="41"/>
+      <c r="DS20" s="41"/>
+      <c r="DT20" s="41"/>
+      <c r="DU20" s="41"/>
+      <c r="DV20" s="41"/>
+      <c r="DW20" s="41"/>
+      <c r="DX20" s="41"/>
+      <c r="DY20" s="41"/>
+      <c r="DZ20" s="41"/>
+      <c r="EA20" s="41"/>
+      <c r="EB20" s="41"/>
+      <c r="EC20" s="41"/>
+      <c r="ED20" s="41"/>
+      <c r="EE20" s="41"/>
+      <c r="EF20" s="41"/>
+      <c r="EG20" s="41"/>
+      <c r="EH20" s="41"/>
+      <c r="EI20" s="41"/>
+      <c r="EJ20" s="41"/>
+      <c r="EK20" s="41"/>
+      <c r="EL20" s="41"/>
+      <c r="EM20" s="41"/>
+      <c r="EN20" s="41"/>
+      <c r="EO20" s="41"/>
+      <c r="EP20" s="41"/>
+      <c r="EQ20" s="41"/>
+      <c r="ER20" s="41"/>
+      <c r="ES20" s="41"/>
+      <c r="ET20" s="41"/>
+      <c r="EU20" s="41"/>
+      <c r="EV20" s="41"/>
+      <c r="EW20" s="41"/>
+      <c r="EX20" s="41"/>
+      <c r="EY20" s="41"/>
+      <c r="EZ20" s="41"/>
+      <c r="FA20" s="41"/>
+      <c r="FB20" s="41"/>
+      <c r="FC20" s="41"/>
+      <c r="FD20" s="41"/>
+      <c r="FE20" s="41"/>
+      <c r="FF20" s="41"/>
+      <c r="FG20" s="41"/>
+      <c r="FH20" s="41"/>
+      <c r="FI20" s="41"/>
+      <c r="FJ20" s="41"/>
+      <c r="FK20" s="41"/>
+      <c r="FL20" s="41"/>
+      <c r="FM20" s="41"/>
+      <c r="FN20" s="41"/>
+      <c r="FO20" s="41"/>
+      <c r="FP20" s="41"/>
+      <c r="FQ20" s="41"/>
+      <c r="FR20" s="41"/>
+      <c r="FS20" s="41"/>
+      <c r="FT20" s="41"/>
+      <c r="FU20" s="41"/>
+      <c r="FV20" s="41"/>
+      <c r="FW20" s="41"/>
+      <c r="FX20" s="41"/>
+      <c r="FY20" s="41"/>
+      <c r="FZ20" s="41"/>
+      <c r="GA20" s="41"/>
+      <c r="GB20" s="41"/>
+      <c r="GC20" s="41"/>
+      <c r="GD20" s="41"/>
+      <c r="GE20" s="41"/>
+      <c r="GF20" s="41"/>
+      <c r="GG20" s="41"/>
+      <c r="GH20" s="41"/>
+      <c r="GI20" s="41"/>
+      <c r="GJ20" s="41"/>
+      <c r="GK20" s="41"/>
+      <c r="GL20" s="41"/>
+      <c r="GM20" s="41"/>
+      <c r="GN20" s="41"/>
+      <c r="GO20" s="41"/>
+      <c r="GP20" s="41"/>
+      <c r="GQ20" s="41"/>
+      <c r="GR20" s="41"/>
+      <c r="GS20" s="41"/>
+      <c r="GT20" s="41"/>
+      <c r="GU20" s="41"/>
+      <c r="GV20" s="41"/>
+      <c r="GW20" s="41"/>
+      <c r="GX20" s="41"/>
+      <c r="GY20" s="41"/>
+      <c r="GZ20" s="42"/>
+      <c r="HA20" s="45"/>
+      <c r="HB20" s="41"/>
+      <c r="HC20" s="41"/>
+      <c r="HD20" s="41"/>
+      <c r="HE20" s="41"/>
+      <c r="HF20" s="41"/>
+      <c r="HG20" s="41"/>
+      <c r="HH20" s="41"/>
+      <c r="HI20" s="41"/>
+      <c r="HJ20" s="41"/>
+      <c r="HK20" s="41"/>
+      <c r="HL20" s="41"/>
+      <c r="HM20" s="41"/>
+      <c r="HN20" s="41"/>
+      <c r="HO20" s="41"/>
+      <c r="HP20" s="41"/>
+      <c r="HQ20" s="41"/>
+      <c r="HR20" s="41"/>
+      <c r="HS20" s="41"/>
+      <c r="HT20" s="41"/>
+      <c r="HU20" s="41"/>
+      <c r="HV20" s="41"/>
+      <c r="HW20" s="41"/>
+      <c r="HX20" s="41"/>
+      <c r="HY20" s="41"/>
+      <c r="HZ20" s="41"/>
+      <c r="IA20" s="41"/>
+      <c r="IB20" s="41"/>
+      <c r="IC20" s="41"/>
+      <c r="ID20" s="41"/>
+      <c r="IE20" s="41"/>
+      <c r="IF20" s="41"/>
+      <c r="IG20" s="41"/>
+      <c r="IH20" s="41"/>
+      <c r="II20" s="41"/>
+      <c r="IJ20" s="41"/>
+      <c r="IK20" s="41"/>
+      <c r="IL20" s="41"/>
+      <c r="IM20" s="41"/>
+      <c r="IN20" s="41"/>
+      <c r="IO20" s="41"/>
+      <c r="IP20" s="41"/>
+      <c r="IQ20" s="41"/>
+      <c r="IR20" s="41"/>
+      <c r="IS20" s="41"/>
+      <c r="IT20" s="41"/>
+      <c r="IU20" s="41"/>
+      <c r="IV20" s="41"/>
+      <c r="IW20" s="41"/>
+      <c r="IX20" s="41"/>
+      <c r="IY20" s="41"/>
+      <c r="IZ20" s="41"/>
+      <c r="JA20" s="41"/>
+      <c r="JB20" s="41"/>
+      <c r="JC20" s="41"/>
+      <c r="JD20" s="41"/>
+      <c r="JE20" s="41"/>
+      <c r="JF20" s="41"/>
+      <c r="JG20" s="41"/>
+      <c r="JH20" s="41"/>
+      <c r="JI20" s="41"/>
+      <c r="JJ20" s="41"/>
+      <c r="JK20" s="41"/>
+      <c r="JL20" s="41"/>
+      <c r="JM20" s="41"/>
+      <c r="JN20" s="41"/>
+      <c r="JO20" s="41"/>
+      <c r="JP20" s="41"/>
+      <c r="JQ20" s="41"/>
+      <c r="JR20" s="41"/>
+      <c r="JS20" s="41"/>
+      <c r="JT20" s="41"/>
+      <c r="JU20" s="41"/>
+      <c r="JV20" s="41"/>
+      <c r="JW20" s="41"/>
+      <c r="JX20" s="41"/>
+      <c r="JY20" s="41"/>
+      <c r="JZ20" s="41"/>
+      <c r="KA20" s="41"/>
+      <c r="KB20" s="41"/>
+      <c r="KC20" s="41"/>
+      <c r="KD20" s="41"/>
+      <c r="KE20" s="41"/>
+      <c r="KF20" s="41"/>
+      <c r="KG20" s="41"/>
+      <c r="KH20" s="41"/>
+      <c r="KI20" s="41"/>
+      <c r="KJ20" s="41"/>
+      <c r="KK20" s="41"/>
+      <c r="KL20" s="41"/>
+      <c r="KM20" s="41"/>
+      <c r="KN20" s="41"/>
+      <c r="KO20" s="41"/>
+      <c r="KP20" s="41"/>
+      <c r="KQ20" s="41"/>
+      <c r="KR20" s="41"/>
+      <c r="KS20" s="41"/>
+      <c r="KT20" s="41"/>
+      <c r="KU20" s="41"/>
+      <c r="KV20" s="41"/>
+      <c r="KW20" s="42"/>
+      <c r="KX20" s="45"/>
+      <c r="KY20" s="41"/>
+      <c r="KZ20" s="41"/>
+      <c r="LA20" s="41"/>
+      <c r="LB20" s="41"/>
+      <c r="LC20" s="41"/>
+      <c r="LD20" s="41"/>
+      <c r="LE20" s="41"/>
+      <c r="LF20" s="41"/>
+      <c r="LG20" s="41"/>
+      <c r="LH20" s="41"/>
+      <c r="LI20" s="41"/>
+      <c r="LJ20" s="41"/>
+      <c r="LK20" s="41"/>
+      <c r="LL20" s="41"/>
+      <c r="LM20" s="41"/>
+      <c r="LN20" s="41"/>
+      <c r="LO20" s="41"/>
+      <c r="LP20" s="41"/>
+      <c r="LQ20" s="41"/>
+      <c r="LR20" s="41"/>
+      <c r="LS20" s="41"/>
+      <c r="LT20" s="41"/>
+      <c r="LU20" s="41"/>
+      <c r="LV20" s="41"/>
+      <c r="LW20" s="41"/>
+      <c r="LX20" s="41"/>
+      <c r="LY20" s="41"/>
+      <c r="LZ20" s="41"/>
+      <c r="MA20" s="41"/>
+      <c r="MB20" s="41"/>
+      <c r="MC20" s="41"/>
+      <c r="MD20" s="41"/>
+      <c r="ME20" s="41"/>
+      <c r="MF20" s="41"/>
+      <c r="MG20" s="41"/>
+      <c r="MH20" s="41"/>
+      <c r="MI20" s="41"/>
+      <c r="MJ20" s="41"/>
+      <c r="MK20" s="41"/>
+      <c r="ML20" s="41"/>
+      <c r="MM20" s="41"/>
+      <c r="MN20" s="41"/>
+      <c r="MO20" s="41"/>
+      <c r="MP20" s="41"/>
+      <c r="MQ20" s="41"/>
+      <c r="MR20" s="41"/>
+      <c r="MS20" s="41"/>
+      <c r="MT20" s="41"/>
+      <c r="MU20" s="41"/>
+      <c r="MV20" s="41"/>
+      <c r="MW20" s="41"/>
+      <c r="MX20" s="41"/>
+      <c r="MY20" s="41"/>
+      <c r="MZ20" s="41"/>
+      <c r="NA20" s="41"/>
+      <c r="NB20" s="41"/>
+      <c r="NC20" s="41"/>
+      <c r="ND20" s="41"/>
+      <c r="NE20" s="41"/>
+      <c r="NF20" s="41"/>
+      <c r="NG20" s="41"/>
+      <c r="NH20" s="41"/>
+    </row>
+    <row r="22" spans="2:372" x14ac:dyDescent="0.15">
+      <c r="B22" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AI14" s="26"/>
-      <c r="AY14" s="28"/>
-      <c r="CA14" s="26"/>
-      <c r="CO14" s="28"/>
-    </row>
-    <row r="15" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="D15" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E15" s="23" t="s">
+    </row>
+    <row r="23" spans="2:372" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
         <v>95</v>
       </c>
-      <c r="G15" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
-      <c r="O15" s="24"/>
-      <c r="P15" s="24"/>
-      <c r="Q15" s="24"/>
-      <c r="R15" s="24"/>
-      <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
-      <c r="U15" s="24"/>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" s="24"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="24"/>
-      <c r="AC15" s="24"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="24"/>
-      <c r="AF15" s="24"/>
-      <c r="AG15" s="24"/>
-      <c r="AH15" s="24"/>
-      <c r="AI15" s="25"/>
-      <c r="AY15" s="26"/>
-      <c r="AZ15" s="29"/>
-      <c r="BA15" s="24"/>
-      <c r="BB15" s="24"/>
-      <c r="BC15" s="24"/>
-      <c r="BD15" s="24"/>
-      <c r="BE15" s="24"/>
-      <c r="BF15" s="24"/>
-      <c r="BG15" s="24"/>
-      <c r="BH15" s="24"/>
-      <c r="BI15" s="24"/>
-      <c r="BJ15" s="24"/>
-      <c r="BK15" s="24"/>
-      <c r="BL15" s="24"/>
-      <c r="BM15" s="24"/>
-      <c r="BN15" s="24"/>
-      <c r="BO15" s="24"/>
-      <c r="BP15" s="24"/>
-      <c r="BQ15" s="24"/>
-      <c r="BR15" s="24"/>
-      <c r="BS15" s="24"/>
-      <c r="BT15" s="24"/>
-      <c r="BU15" s="24"/>
-      <c r="BV15" s="24"/>
-      <c r="BW15" s="24"/>
-      <c r="BX15" s="24"/>
-      <c r="BY15" s="24"/>
-      <c r="BZ15" s="24"/>
-      <c r="CA15" s="25"/>
-      <c r="CB15" s="13"/>
-      <c r="CC15" s="13"/>
-      <c r="CD15" s="13"/>
-      <c r="CE15" s="13"/>
-      <c r="CF15" s="13"/>
-      <c r="CO15" s="26"/>
-      <c r="CP15" s="29"/>
-      <c r="CQ15" s="24"/>
-      <c r="CR15" s="24"/>
-      <c r="CS15" s="24"/>
-      <c r="CT15" s="24"/>
-      <c r="CU15" s="24"/>
-      <c r="CV15" s="24"/>
-    </row>
-    <row r="16" spans="1:105" x14ac:dyDescent="0.15">
-      <c r="D16" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="23">
-        <v>50</v>
-      </c>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AZ16" s="27"/>
-      <c r="BA16" s="27"/>
-      <c r="BB16" s="27"/>
-      <c r="BC16" s="27"/>
-      <c r="BD16" s="27"/>
-      <c r="BE16" s="27"/>
-      <c r="BF16" s="27"/>
-      <c r="BG16" s="27"/>
-      <c r="BZ16" s="24"/>
-      <c r="CA16" s="24"/>
-      <c r="CB16" s="24"/>
-      <c r="CC16" s="24"/>
-    </row>
-    <row r="17" spans="4:100" x14ac:dyDescent="0.15">
-      <c r="D17" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y17" s="26"/>
-      <c r="AG17" s="28"/>
-      <c r="AU17" s="13"/>
-      <c r="AY17" s="26"/>
-      <c r="BG17" s="28"/>
-      <c r="BY17" s="26"/>
-      <c r="CC17" s="28"/>
-    </row>
-    <row r="18" spans="4:100" x14ac:dyDescent="0.15">
-      <c r="D18" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="G18" t="s">
-        <v>98</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="24"/>
-      <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
-      <c r="U18" s="24"/>
-      <c r="V18" s="24"/>
-      <c r="W18" s="24"/>
-      <c r="X18" s="24"/>
-      <c r="Y18" s="25"/>
-      <c r="AG18" s="26"/>
-      <c r="AH18" s="29"/>
-      <c r="AI18" s="24"/>
-      <c r="AJ18" s="24"/>
-      <c r="AK18" s="24"/>
-      <c r="AL18" s="24"/>
-      <c r="AM18" s="24"/>
-      <c r="AN18" s="24"/>
-      <c r="AO18" s="24"/>
-      <c r="AP18" s="24"/>
-      <c r="AQ18" s="24"/>
-      <c r="AR18" s="24"/>
-      <c r="AS18" s="24"/>
-      <c r="AT18" s="24"/>
-      <c r="AU18" s="24"/>
-      <c r="AV18" s="24"/>
-      <c r="AW18" s="24"/>
-      <c r="AX18" s="24"/>
-      <c r="AY18" s="25"/>
-      <c r="BG18" s="26"/>
-      <c r="BH18" s="29"/>
-      <c r="BI18" s="24"/>
-      <c r="BJ18" s="24"/>
-      <c r="BK18" s="24"/>
-      <c r="BL18" s="24"/>
-      <c r="BM18" s="24"/>
-      <c r="BN18" s="24"/>
-      <c r="BO18" s="24"/>
-      <c r="BP18" s="24"/>
-      <c r="BQ18" s="24"/>
-      <c r="BR18" s="24"/>
-      <c r="BS18" s="24"/>
-      <c r="BT18" s="24"/>
-      <c r="BU18" s="24"/>
-      <c r="BV18" s="24"/>
-      <c r="BW18" s="24"/>
-      <c r="BX18" s="24"/>
-      <c r="BY18" s="25"/>
-      <c r="CC18" s="26"/>
-      <c r="CD18" s="29"/>
-      <c r="CE18" s="24"/>
-      <c r="CF18" s="24"/>
-      <c r="CG18" s="24"/>
-      <c r="CH18" s="24"/>
-      <c r="CI18" s="24"/>
-      <c r="CJ18" s="24"/>
-      <c r="CK18" s="24"/>
-      <c r="CL18" s="24"/>
-      <c r="CM18" s="24"/>
-      <c r="CN18" s="24"/>
-      <c r="CO18" s="24"/>
-      <c r="CP18" s="24"/>
-      <c r="CQ18" s="24"/>
-      <c r="CR18" s="24"/>
-      <c r="CS18" s="24"/>
-      <c r="CT18" s="24"/>
-      <c r="CU18" s="24"/>
-      <c r="CV18" s="24"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Doc/design/软件框图.xlsx
+++ b/Doc/design/软件框图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="795" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="795" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>一、EnvMonitor系统功能划分简图</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -564,6 +564,116 @@
   </si>
   <si>
     <t>基于Nordic SDK中app_timer实现四个服务的调度，先看下app_timer的实现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、SensorManager需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>○ SensorBoard相关的配置信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>□Attach命令：插入时，需要执行的命令，用来初始化设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>□采集命令：每次采集数据时，需要执行的命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>□Detach命令：卸载时，执行的命令，当系统电源不足，需要关闭某些设备时，执行该命令卸载设备。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">□总线地址：目前准备支持I2C总线 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>char</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>□传感器类型：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>char</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>□设备地址：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>char</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>□数据长度:以字节为单位的数据长度。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>char</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>□长度：整个配置的总长度，以字节为单位.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>uint32</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,7 +1076,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -995,12 +1105,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1027,6 +1131,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1644,25 +1755,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="45"/>
+      <c r="Q1" s="45"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
@@ -2376,7 +2487,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:NH23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -2423,7 +2534,7 @@
       <c r="D4" s="14">
         <v>2</v>
       </c>
-      <c r="E4" s="22">
+      <c r="E4" s="20">
         <v>2000</v>
       </c>
       <c r="F4" s="15" t="s">
@@ -2438,7 +2549,7 @@
       <c r="D5" s="14">
         <v>1</v>
       </c>
-      <c r="E5" s="22">
+      <c r="E5" s="20">
         <v>100</v>
       </c>
       <c r="F5" s="15" t="s">
@@ -2453,7 +2564,7 @@
       <c r="D6" s="14">
         <v>3</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="20">
         <v>1100</v>
       </c>
       <c r="F6" s="15" t="s">
@@ -2468,7 +2579,7 @@
       <c r="D7" s="14">
         <v>4</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="20">
         <v>1300</v>
       </c>
       <c r="F7" s="15" t="s">
@@ -2485,7 +2596,7 @@
       <c r="CV8" s="11"/>
     </row>
     <row r="9" spans="1:372" x14ac:dyDescent="0.15">
-      <c r="L9" s="23"/>
+      <c r="L9" s="21"/>
       <c r="M9" s="11"/>
       <c r="S9" s="11"/>
     </row>
@@ -2493,742 +2604,742 @@
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="26"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="26"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="24"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
-      <c r="U10" s="25"/>
-      <c r="V10" s="26"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="24"/>
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
       <c r="Y10" s="11"/>
-      <c r="Z10" s="25"/>
-      <c r="AA10" s="26"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="24"/>
       <c r="AB10" s="11"/>
       <c r="AC10" s="11"/>
       <c r="AD10" s="11"/>
-      <c r="AE10" s="25"/>
-      <c r="AF10" s="26"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="24"/>
       <c r="AG10" s="11"/>
       <c r="AH10" s="11"/>
       <c r="AI10" s="11"/>
-      <c r="AJ10" s="25"/>
-      <c r="AK10" s="26"/>
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="24"/>
       <c r="AL10" s="11"/>
       <c r="AM10" s="11"/>
       <c r="AN10" s="11"/>
-      <c r="AO10" s="25"/>
-      <c r="AP10" s="26"/>
+      <c r="AO10" s="23"/>
+      <c r="AP10" s="24"/>
       <c r="AQ10" s="11"/>
       <c r="AR10" s="11"/>
       <c r="AS10" s="11"/>
-      <c r="AT10" s="25"/>
-      <c r="AU10" s="26"/>
+      <c r="AT10" s="23"/>
+      <c r="AU10" s="24"/>
       <c r="AV10" s="11"/>
       <c r="AW10" s="11"/>
       <c r="AX10" s="11"/>
-      <c r="AY10" s="25"/>
-      <c r="AZ10" s="26"/>
+      <c r="AY10" s="23"/>
+      <c r="AZ10" s="24"/>
       <c r="BA10" s="11"/>
       <c r="BB10" s="11"/>
       <c r="BC10" s="11"/>
-      <c r="BD10" s="25"/>
-      <c r="BE10" s="26"/>
+      <c r="BD10" s="23"/>
+      <c r="BE10" s="24"/>
       <c r="BF10" s="11"/>
       <c r="BG10" s="11"/>
       <c r="BH10" s="11"/>
-      <c r="BI10" s="25"/>
-      <c r="BJ10" s="26"/>
+      <c r="BI10" s="23"/>
+      <c r="BJ10" s="24"/>
       <c r="BK10" s="11"/>
       <c r="BL10" s="11"/>
       <c r="BM10" s="11"/>
-      <c r="BN10" s="25"/>
-      <c r="BO10" s="26"/>
+      <c r="BN10" s="23"/>
+      <c r="BO10" s="24"/>
       <c r="BP10" s="11"/>
       <c r="BQ10" s="11"/>
       <c r="BR10" s="11"/>
-      <c r="BS10" s="25"/>
-      <c r="BT10" s="26"/>
+      <c r="BS10" s="23"/>
+      <c r="BT10" s="24"/>
       <c r="BU10" s="11"/>
       <c r="BV10" s="11"/>
       <c r="BW10" s="11"/>
-      <c r="BX10" s="25"/>
-      <c r="BY10" s="26"/>
+      <c r="BX10" s="23"/>
+      <c r="BY10" s="24"/>
       <c r="BZ10" s="11"/>
       <c r="CA10" s="11"/>
       <c r="CB10" s="11"/>
-      <c r="CC10" s="25"/>
-      <c r="CD10" s="26"/>
+      <c r="CC10" s="23"/>
+      <c r="CD10" s="24"/>
       <c r="CE10" s="11"/>
       <c r="CF10" s="11"/>
       <c r="CG10" s="11"/>
-      <c r="CH10" s="25"/>
-      <c r="CI10" s="26"/>
+      <c r="CH10" s="23"/>
+      <c r="CI10" s="24"/>
       <c r="CJ10" s="11"/>
       <c r="CK10" s="11"/>
       <c r="CL10" s="11"/>
-      <c r="CM10" s="25"/>
-      <c r="CN10" s="26"/>
+      <c r="CM10" s="23"/>
+      <c r="CN10" s="24"/>
       <c r="CO10" s="11"/>
       <c r="CP10" s="11"/>
       <c r="CQ10" s="11"/>
-      <c r="CR10" s="25"/>
-      <c r="CS10" s="26"/>
+      <c r="CR10" s="23"/>
+      <c r="CS10" s="24"/>
       <c r="CT10" s="11"/>
       <c r="CU10" s="11"/>
       <c r="CV10" s="11"/>
-      <c r="CW10" s="25"/>
-      <c r="CX10" s="26"/>
+      <c r="CW10" s="23"/>
+      <c r="CX10" s="24"/>
       <c r="CY10" s="11"/>
       <c r="CZ10" s="11"/>
       <c r="DA10" s="11"/>
-      <c r="DB10" s="25"/>
-      <c r="DC10" s="26"/>
+      <c r="DB10" s="23"/>
+      <c r="DC10" s="24"/>
       <c r="DD10" s="11"/>
       <c r="DE10" s="11"/>
       <c r="DF10" s="11"/>
-      <c r="DG10" s="25"/>
-      <c r="DH10" s="26"/>
+      <c r="DG10" s="23"/>
+      <c r="DH10" s="24"/>
       <c r="DI10" s="11"/>
       <c r="DJ10" s="11"/>
       <c r="DK10" s="11"/>
-      <c r="DL10" s="25"/>
-      <c r="DM10" s="26"/>
+      <c r="DL10" s="23"/>
+      <c r="DM10" s="24"/>
       <c r="DN10" s="11"/>
       <c r="DO10" s="11"/>
       <c r="DP10" s="11"/>
-      <c r="DQ10" s="25"/>
-      <c r="DR10" s="26"/>
+      <c r="DQ10" s="23"/>
+      <c r="DR10" s="24"/>
       <c r="DS10" s="11"/>
       <c r="DT10" s="11"/>
       <c r="DU10" s="11"/>
-      <c r="DV10" s="25"/>
-      <c r="DW10" s="26"/>
+      <c r="DV10" s="23"/>
+      <c r="DW10" s="24"/>
       <c r="DX10" s="11"/>
       <c r="DY10" s="11"/>
       <c r="DZ10" s="11"/>
-      <c r="EA10" s="25"/>
-      <c r="EB10" s="26"/>
+      <c r="EA10" s="23"/>
+      <c r="EB10" s="24"/>
       <c r="EC10" s="11"/>
       <c r="ED10" s="11"/>
       <c r="EE10" s="11"/>
-      <c r="EF10" s="25"/>
-      <c r="EG10" s="26"/>
+      <c r="EF10" s="23"/>
+      <c r="EG10" s="24"/>
       <c r="EH10" s="11"/>
       <c r="EI10" s="11"/>
       <c r="EJ10" s="11"/>
-      <c r="EK10" s="25"/>
-      <c r="EL10" s="26"/>
+      <c r="EK10" s="23"/>
+      <c r="EL10" s="24"/>
       <c r="EM10" s="11"/>
       <c r="EN10" s="11"/>
       <c r="EO10" s="11"/>
-      <c r="EP10" s="25"/>
-      <c r="EQ10" s="26"/>
+      <c r="EP10" s="23"/>
+      <c r="EQ10" s="24"/>
       <c r="ER10" s="11"/>
       <c r="ES10" s="11"/>
       <c r="ET10" s="11"/>
-      <c r="EU10" s="25"/>
-      <c r="EV10" s="26"/>
+      <c r="EU10" s="23"/>
+      <c r="EV10" s="24"/>
       <c r="EW10" s="11"/>
       <c r="EX10" s="11"/>
       <c r="EY10" s="11"/>
-      <c r="EZ10" s="25"/>
-      <c r="FA10" s="26"/>
+      <c r="EZ10" s="23"/>
+      <c r="FA10" s="24"/>
       <c r="FB10" s="11"/>
       <c r="FC10" s="11"/>
       <c r="FD10" s="11"/>
-      <c r="FE10" s="25"/>
-      <c r="FF10" s="26"/>
+      <c r="FE10" s="23"/>
+      <c r="FF10" s="24"/>
       <c r="FG10" s="11"/>
       <c r="FH10" s="11"/>
       <c r="FI10" s="11"/>
-      <c r="FJ10" s="25"/>
-      <c r="FK10" s="26"/>
+      <c r="FJ10" s="23"/>
+      <c r="FK10" s="24"/>
       <c r="FL10" s="11"/>
       <c r="FM10" s="11"/>
       <c r="FN10" s="11"/>
-      <c r="FO10" s="25"/>
-      <c r="FP10" s="26"/>
+      <c r="FO10" s="23"/>
+      <c r="FP10" s="24"/>
       <c r="FQ10" s="11"/>
       <c r="FR10" s="11"/>
       <c r="FS10" s="11"/>
-      <c r="FT10" s="25"/>
-      <c r="FU10" s="26"/>
+      <c r="FT10" s="23"/>
+      <c r="FU10" s="24"/>
       <c r="FV10" s="11"/>
       <c r="FW10" s="11"/>
       <c r="FX10" s="11"/>
-      <c r="FY10" s="25"/>
-      <c r="FZ10" s="26"/>
+      <c r="FY10" s="23"/>
+      <c r="FZ10" s="24"/>
       <c r="GA10" s="11"/>
       <c r="GB10" s="11"/>
       <c r="GC10" s="11"/>
-      <c r="GD10" s="25"/>
-      <c r="GE10" s="26"/>
+      <c r="GD10" s="23"/>
+      <c r="GE10" s="24"/>
       <c r="GF10" s="11"/>
       <c r="GG10" s="11"/>
       <c r="GH10" s="11"/>
-      <c r="GI10" s="25"/>
-      <c r="GJ10" s="26"/>
+      <c r="GI10" s="23"/>
+      <c r="GJ10" s="24"/>
       <c r="GK10" s="11"/>
       <c r="GL10" s="11"/>
       <c r="GM10" s="11"/>
-      <c r="GN10" s="25"/>
-      <c r="GO10" s="26"/>
+      <c r="GN10" s="23"/>
+      <c r="GO10" s="24"/>
       <c r="GP10" s="11"/>
       <c r="GQ10" s="11"/>
       <c r="GR10" s="11"/>
-      <c r="GS10" s="25"/>
-      <c r="GT10" s="26"/>
+      <c r="GS10" s="23"/>
+      <c r="GT10" s="24"/>
       <c r="GU10" s="11"/>
       <c r="GV10" s="11"/>
       <c r="GW10" s="11"/>
-      <c r="GX10" s="25"/>
-      <c r="GY10" s="26"/>
+      <c r="GX10" s="23"/>
+      <c r="GY10" s="24"/>
       <c r="GZ10" s="11"/>
       <c r="HA10" s="11"/>
       <c r="HB10" s="11"/>
-      <c r="HC10" s="25"/>
-      <c r="HD10" s="26"/>
+      <c r="HC10" s="23"/>
+      <c r="HD10" s="24"/>
       <c r="HE10" s="11"/>
       <c r="HF10" s="11"/>
       <c r="HG10" s="11"/>
-      <c r="HH10" s="25"/>
-      <c r="HI10" s="26"/>
+      <c r="HH10" s="23"/>
+      <c r="HI10" s="24"/>
       <c r="HJ10" s="11"/>
       <c r="HK10" s="11"/>
       <c r="HL10" s="11"/>
-      <c r="HM10" s="25"/>
-      <c r="HN10" s="26"/>
+      <c r="HM10" s="23"/>
+      <c r="HN10" s="24"/>
       <c r="HO10" s="11"/>
       <c r="HP10" s="11"/>
       <c r="HQ10" s="11"/>
-      <c r="HR10" s="25"/>
-      <c r="HS10" s="26"/>
+      <c r="HR10" s="23"/>
+      <c r="HS10" s="24"/>
       <c r="HT10" s="11"/>
       <c r="HU10" s="11"/>
       <c r="HV10" s="11"/>
-      <c r="HW10" s="25"/>
-      <c r="HX10" s="26"/>
+      <c r="HW10" s="23"/>
+      <c r="HX10" s="24"/>
       <c r="HY10" s="11"/>
       <c r="HZ10" s="11"/>
       <c r="IA10" s="11"/>
-      <c r="IB10" s="25"/>
-      <c r="IC10" s="26"/>
+      <c r="IB10" s="23"/>
+      <c r="IC10" s="24"/>
       <c r="ID10" s="11"/>
       <c r="IE10" s="11"/>
       <c r="IF10" s="11"/>
-      <c r="IG10" s="25"/>
-      <c r="IH10" s="26"/>
+      <c r="IG10" s="23"/>
+      <c r="IH10" s="24"/>
       <c r="II10" s="11"/>
       <c r="IJ10" s="11"/>
       <c r="IK10" s="11"/>
-      <c r="IL10" s="25"/>
-      <c r="IM10" s="26"/>
+      <c r="IL10" s="23"/>
+      <c r="IM10" s="24"/>
       <c r="IN10" s="11"/>
       <c r="IO10" s="11"/>
       <c r="IP10" s="11"/>
-      <c r="IQ10" s="25"/>
-      <c r="IR10" s="26"/>
+      <c r="IQ10" s="23"/>
+      <c r="IR10" s="24"/>
       <c r="IS10" s="11"/>
       <c r="IT10" s="11"/>
       <c r="IU10" s="11"/>
-      <c r="IV10" s="25"/>
-      <c r="IW10" s="26"/>
+      <c r="IV10" s="23"/>
+      <c r="IW10" s="24"/>
       <c r="IX10" s="11"/>
       <c r="IY10" s="11"/>
       <c r="IZ10" s="11"/>
-      <c r="JA10" s="25"/>
-      <c r="JB10" s="26"/>
+      <c r="JA10" s="23"/>
+      <c r="JB10" s="24"/>
       <c r="JC10" s="11"/>
       <c r="JD10" s="11"/>
       <c r="JE10" s="11"/>
-      <c r="JF10" s="25"/>
-      <c r="JG10" s="26"/>
+      <c r="JF10" s="23"/>
+      <c r="JG10" s="24"/>
       <c r="JH10" s="11"/>
       <c r="JI10" s="11"/>
       <c r="JJ10" s="11"/>
-      <c r="JK10" s="25"/>
-      <c r="JL10" s="26"/>
+      <c r="JK10" s="23"/>
+      <c r="JL10" s="24"/>
       <c r="JM10" s="11"/>
       <c r="JN10" s="11"/>
       <c r="JO10" s="11"/>
-      <c r="JP10" s="25"/>
-      <c r="JQ10" s="26"/>
+      <c r="JP10" s="23"/>
+      <c r="JQ10" s="24"/>
       <c r="JR10" s="11"/>
       <c r="JS10" s="11"/>
       <c r="JT10" s="11"/>
-      <c r="JU10" s="25"/>
-      <c r="JV10" s="26"/>
+      <c r="JU10" s="23"/>
+      <c r="JV10" s="24"/>
       <c r="JW10" s="11"/>
       <c r="JX10" s="11"/>
       <c r="JY10" s="11"/>
-      <c r="JZ10" s="25"/>
-      <c r="KA10" s="26"/>
+      <c r="JZ10" s="23"/>
+      <c r="KA10" s="24"/>
       <c r="KB10" s="11"/>
       <c r="KC10" s="11"/>
       <c r="KD10" s="11"/>
-      <c r="KE10" s="25"/>
-      <c r="KF10" s="26"/>
+      <c r="KE10" s="23"/>
+      <c r="KF10" s="24"/>
       <c r="KG10" s="11"/>
       <c r="KH10" s="11"/>
       <c r="KI10" s="11"/>
-      <c r="KJ10" s="25"/>
-      <c r="KK10" s="26"/>
+      <c r="KJ10" s="23"/>
+      <c r="KK10" s="24"/>
       <c r="KL10" s="11"/>
       <c r="KM10" s="11"/>
       <c r="KN10" s="11"/>
-      <c r="KO10" s="25"/>
-      <c r="KP10" s="26"/>
+      <c r="KO10" s="23"/>
+      <c r="KP10" s="24"/>
       <c r="KQ10" s="11"/>
       <c r="KR10" s="11"/>
       <c r="KS10" s="11"/>
-      <c r="KT10" s="25"/>
-      <c r="KU10" s="26"/>
+      <c r="KT10" s="23"/>
+      <c r="KU10" s="24"/>
       <c r="KV10" s="11"/>
       <c r="KW10" s="11"/>
       <c r="KX10" s="11"/>
-      <c r="KY10" s="25"/>
-      <c r="KZ10" s="26"/>
+      <c r="KY10" s="23"/>
+      <c r="KZ10" s="24"/>
       <c r="LA10" s="11"/>
       <c r="LB10" s="11"/>
       <c r="LC10" s="11"/>
-      <c r="LD10" s="25"/>
-      <c r="LE10" s="26"/>
+      <c r="LD10" s="23"/>
+      <c r="LE10" s="24"/>
       <c r="LF10" s="11"/>
       <c r="LG10" s="11"/>
       <c r="LH10" s="11"/>
-      <c r="LI10" s="25"/>
-      <c r="LJ10" s="26"/>
+      <c r="LI10" s="23"/>
+      <c r="LJ10" s="24"/>
       <c r="LK10" s="11"/>
       <c r="LL10" s="11"/>
       <c r="LM10" s="11"/>
-      <c r="LN10" s="25"/>
-      <c r="LO10" s="26"/>
+      <c r="LN10" s="23"/>
+      <c r="LO10" s="24"/>
       <c r="LP10" s="11"/>
       <c r="LQ10" s="11"/>
       <c r="LR10" s="11"/>
-      <c r="LS10" s="25"/>
-      <c r="LT10" s="26"/>
+      <c r="LS10" s="23"/>
+      <c r="LT10" s="24"/>
       <c r="LU10" s="11"/>
       <c r="LV10" s="11"/>
       <c r="LW10" s="11"/>
-      <c r="LX10" s="25"/>
-      <c r="LY10" s="26"/>
+      <c r="LX10" s="23"/>
+      <c r="LY10" s="24"/>
       <c r="LZ10" s="11"/>
       <c r="MA10" s="11"/>
       <c r="MB10" s="11"/>
-      <c r="MC10" s="25"/>
-      <c r="MD10" s="26"/>
+      <c r="MC10" s="23"/>
+      <c r="MD10" s="24"/>
       <c r="ME10" s="11"/>
       <c r="MF10" s="11"/>
       <c r="MG10" s="11"/>
-      <c r="MH10" s="25"/>
-      <c r="MI10" s="26"/>
+      <c r="MH10" s="23"/>
+      <c r="MI10" s="24"/>
       <c r="MJ10" s="11"/>
       <c r="MK10" s="11"/>
       <c r="ML10" s="11"/>
-      <c r="MM10" s="25"/>
-      <c r="MN10" s="26"/>
+      <c r="MM10" s="23"/>
+      <c r="MN10" s="24"/>
       <c r="MO10" s="11"/>
       <c r="MP10" s="11"/>
       <c r="MQ10" s="11"/>
-      <c r="MR10" s="25"/>
-      <c r="MS10" s="26"/>
+      <c r="MR10" s="23"/>
+      <c r="MS10" s="24"/>
       <c r="MT10" s="11"/>
       <c r="MU10" s="11"/>
       <c r="MV10" s="11"/>
-      <c r="MW10" s="25"/>
-      <c r="MX10" s="26"/>
+      <c r="MW10" s="23"/>
+      <c r="MX10" s="24"/>
       <c r="MY10" s="11"/>
       <c r="MZ10" s="11"/>
       <c r="NA10" s="11"/>
-      <c r="NB10" s="25"/>
-      <c r="NC10" s="26"/>
+      <c r="NB10" s="23"/>
+      <c r="NC10" s="24"/>
       <c r="ND10" s="11"/>
       <c r="NE10" s="11"/>
       <c r="NF10" s="11"/>
-      <c r="NG10" s="25"/>
-      <c r="NH10" s="26"/>
+      <c r="NG10" s="23"/>
+      <c r="NH10" s="24"/>
     </row>
     <row r="11" spans="1:372" x14ac:dyDescent="0.15">
       <c r="G11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24"/>
-      <c r="Q11" s="27"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="24"/>
-      <c r="V11" s="27"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="24"/>
-      <c r="AA11" s="27"/>
-      <c r="AB11" s="23"/>
-      <c r="AC11" s="23"/>
-      <c r="AD11" s="23"/>
-      <c r="AE11" s="24"/>
-      <c r="AF11" s="27"/>
-      <c r="AG11" s="23"/>
-      <c r="AH11" s="23"/>
-      <c r="AI11" s="23"/>
-      <c r="AJ11" s="24"/>
-      <c r="AK11" s="27"/>
-      <c r="AL11" s="23"/>
-      <c r="AM11" s="23"/>
-      <c r="AN11" s="23"/>
-      <c r="AO11" s="24"/>
-      <c r="AP11" s="27"/>
-      <c r="AQ11" s="23"/>
-      <c r="AR11" s="23"/>
-      <c r="AS11" s="23"/>
-      <c r="AT11" s="24"/>
-      <c r="AU11" s="27"/>
-      <c r="AV11" s="23"/>
-      <c r="AW11" s="23"/>
-      <c r="AX11" s="23"/>
-      <c r="AY11" s="24"/>
-      <c r="AZ11" s="27"/>
-      <c r="BA11" s="23"/>
-      <c r="BB11" s="23"/>
-      <c r="BC11" s="23"/>
-      <c r="BD11" s="24"/>
-      <c r="BE11" s="27"/>
-      <c r="BF11" s="23"/>
-      <c r="BG11" s="23"/>
-      <c r="BH11" s="23"/>
-      <c r="BI11" s="24"/>
-      <c r="BJ11" s="27"/>
-      <c r="BK11" s="23"/>
-      <c r="BL11" s="23"/>
-      <c r="BM11" s="23"/>
-      <c r="BN11" s="24"/>
-      <c r="BO11" s="27"/>
-      <c r="BP11" s="23"/>
-      <c r="BQ11" s="23"/>
-      <c r="BR11" s="23"/>
-      <c r="BS11" s="24"/>
-      <c r="BT11" s="27"/>
-      <c r="BU11" s="23"/>
-      <c r="BV11" s="23"/>
-      <c r="BW11" s="23"/>
-      <c r="BX11" s="24"/>
-      <c r="BY11" s="27"/>
-      <c r="BZ11" s="23"/>
-      <c r="CA11" s="23"/>
-      <c r="CB11" s="23"/>
-      <c r="CC11" s="24"/>
-      <c r="CD11" s="27"/>
-      <c r="CE11" s="23"/>
-      <c r="CF11" s="23"/>
-      <c r="CG11" s="23"/>
-      <c r="CH11" s="24"/>
-      <c r="CI11" s="27"/>
-      <c r="CJ11" s="23"/>
-      <c r="CK11" s="23"/>
-      <c r="CL11" s="23"/>
-      <c r="CM11" s="24"/>
-      <c r="CN11" s="27"/>
-      <c r="CO11" s="23"/>
-      <c r="CP11" s="23"/>
-      <c r="CQ11" s="23"/>
-      <c r="CR11" s="24"/>
-      <c r="CS11" s="27"/>
-      <c r="CT11" s="23"/>
-      <c r="CU11" s="23"/>
-      <c r="CV11" s="23"/>
-      <c r="CW11" s="24"/>
-      <c r="CX11" s="27"/>
-      <c r="CY11" s="23"/>
-      <c r="CZ11" s="23"/>
-      <c r="DA11" s="23"/>
-      <c r="DB11" s="24"/>
-      <c r="DC11" s="27"/>
-      <c r="DD11" s="23"/>
-      <c r="DE11" s="23"/>
-      <c r="DF11" s="23"/>
-      <c r="DG11" s="24"/>
-      <c r="DH11" s="27"/>
-      <c r="DI11" s="23"/>
-      <c r="DJ11" s="23"/>
-      <c r="DK11" s="23"/>
-      <c r="DL11" s="24"/>
-      <c r="DM11" s="27"/>
-      <c r="DN11" s="23"/>
-      <c r="DO11" s="23"/>
-      <c r="DP11" s="23"/>
-      <c r="DQ11" s="24"/>
-      <c r="DR11" s="27"/>
-      <c r="DS11" s="23"/>
-      <c r="DT11" s="23"/>
-      <c r="DU11" s="23"/>
-      <c r="DV11" s="24"/>
-      <c r="DW11" s="27"/>
-      <c r="DX11" s="23"/>
-      <c r="DY11" s="23"/>
-      <c r="DZ11" s="23"/>
-      <c r="EA11" s="24"/>
-      <c r="EB11" s="27"/>
-      <c r="EC11" s="23"/>
-      <c r="ED11" s="23"/>
-      <c r="EE11" s="23"/>
-      <c r="EF11" s="24"/>
-      <c r="EG11" s="27"/>
-      <c r="EH11" s="23"/>
-      <c r="EI11" s="23"/>
-      <c r="EJ11" s="23"/>
-      <c r="EK11" s="24"/>
-      <c r="EL11" s="27"/>
-      <c r="EM11" s="23"/>
-      <c r="EN11" s="23"/>
-      <c r="EO11" s="23"/>
-      <c r="EP11" s="24"/>
-      <c r="EQ11" s="27"/>
-      <c r="ER11" s="23"/>
-      <c r="ES11" s="23"/>
-      <c r="ET11" s="23"/>
-      <c r="EU11" s="24"/>
-      <c r="EV11" s="27"/>
-      <c r="EW11" s="23"/>
-      <c r="EX11" s="23"/>
-      <c r="EY11" s="23"/>
-      <c r="EZ11" s="24"/>
-      <c r="FA11" s="27"/>
-      <c r="FB11" s="23"/>
-      <c r="FC11" s="23"/>
-      <c r="FD11" s="23"/>
-      <c r="FE11" s="24"/>
-      <c r="FF11" s="27"/>
-      <c r="FG11" s="23"/>
-      <c r="FH11" s="23"/>
-      <c r="FI11" s="23"/>
-      <c r="FJ11" s="24"/>
-      <c r="FK11" s="27"/>
-      <c r="FL11" s="23"/>
-      <c r="FM11" s="23"/>
-      <c r="FN11" s="23"/>
-      <c r="FO11" s="24"/>
-      <c r="FP11" s="27"/>
-      <c r="FQ11" s="23"/>
-      <c r="FR11" s="23"/>
-      <c r="FS11" s="23"/>
-      <c r="FT11" s="24"/>
-      <c r="FU11" s="27"/>
-      <c r="FV11" s="23"/>
-      <c r="FW11" s="23"/>
-      <c r="FX11" s="23"/>
-      <c r="FY11" s="24"/>
-      <c r="FZ11" s="27"/>
-      <c r="GA11" s="23"/>
-      <c r="GB11" s="23"/>
-      <c r="GC11" s="23"/>
-      <c r="GD11" s="24"/>
-      <c r="GE11" s="27"/>
-      <c r="GF11" s="23"/>
-      <c r="GG11" s="23"/>
-      <c r="GH11" s="23"/>
-      <c r="GI11" s="24"/>
-      <c r="GJ11" s="27"/>
-      <c r="GK11" s="23"/>
-      <c r="GL11" s="23"/>
-      <c r="GM11" s="23"/>
-      <c r="GN11" s="24"/>
-      <c r="GO11" s="27"/>
-      <c r="GP11" s="23"/>
-      <c r="GQ11" s="23"/>
-      <c r="GR11" s="23"/>
-      <c r="GS11" s="24"/>
-      <c r="GT11" s="27"/>
-      <c r="GU11" s="23"/>
-      <c r="GV11" s="23"/>
-      <c r="GW11" s="23"/>
-      <c r="GX11" s="24"/>
-      <c r="GY11" s="27"/>
-      <c r="GZ11" s="23"/>
-      <c r="HA11" s="23"/>
-      <c r="HB11" s="23"/>
-      <c r="HC11" s="24"/>
-      <c r="HD11" s="27"/>
-      <c r="HE11" s="23"/>
-      <c r="HF11" s="23"/>
-      <c r="HG11" s="23"/>
-      <c r="HH11" s="24"/>
-      <c r="HI11" s="27"/>
-      <c r="HJ11" s="23"/>
-      <c r="HK11" s="23"/>
-      <c r="HL11" s="23"/>
-      <c r="HM11" s="24"/>
-      <c r="HN11" s="27"/>
-      <c r="HO11" s="23"/>
-      <c r="HP11" s="23"/>
-      <c r="HQ11" s="23"/>
-      <c r="HR11" s="24"/>
-      <c r="HS11" s="27"/>
-      <c r="HT11" s="23"/>
-      <c r="HU11" s="23"/>
-      <c r="HV11" s="23"/>
-      <c r="HW11" s="24"/>
-      <c r="HX11" s="27"/>
-      <c r="HY11" s="23"/>
-      <c r="HZ11" s="23"/>
-      <c r="IA11" s="23"/>
-      <c r="IB11" s="24"/>
-      <c r="IC11" s="27"/>
-      <c r="ID11" s="23"/>
-      <c r="IE11" s="23"/>
-      <c r="IF11" s="23"/>
-      <c r="IG11" s="24"/>
-      <c r="IH11" s="27"/>
-      <c r="II11" s="23"/>
-      <c r="IJ11" s="23"/>
-      <c r="IK11" s="23"/>
-      <c r="IL11" s="24"/>
-      <c r="IM11" s="27"/>
-      <c r="IN11" s="23"/>
-      <c r="IO11" s="23"/>
-      <c r="IP11" s="23"/>
-      <c r="IQ11" s="24"/>
-      <c r="IR11" s="27"/>
-      <c r="IS11" s="23"/>
-      <c r="IT11" s="23"/>
-      <c r="IU11" s="23"/>
-      <c r="IV11" s="24"/>
-      <c r="IW11" s="27"/>
-      <c r="IX11" s="23"/>
-      <c r="IY11" s="23"/>
-      <c r="IZ11" s="23"/>
-      <c r="JA11" s="24"/>
-      <c r="JB11" s="27"/>
-      <c r="JC11" s="23"/>
-      <c r="JD11" s="23"/>
-      <c r="JE11" s="23"/>
-      <c r="JF11" s="24"/>
-      <c r="JG11" s="27"/>
-      <c r="JH11" s="23"/>
-      <c r="JI11" s="23"/>
-      <c r="JJ11" s="23"/>
-      <c r="JK11" s="24"/>
-      <c r="JL11" s="27"/>
-      <c r="JM11" s="23"/>
-      <c r="JN11" s="23"/>
-      <c r="JO11" s="23"/>
-      <c r="JP11" s="24"/>
-      <c r="JQ11" s="27"/>
-      <c r="JR11" s="23"/>
-      <c r="JS11" s="23"/>
-      <c r="JT11" s="23"/>
-      <c r="JU11" s="24"/>
-      <c r="JV11" s="27"/>
-      <c r="JW11" s="23"/>
-      <c r="JX11" s="23"/>
-      <c r="JY11" s="23"/>
-      <c r="JZ11" s="24"/>
-      <c r="KA11" s="27"/>
-      <c r="KB11" s="23"/>
-      <c r="KC11" s="23"/>
-      <c r="KD11" s="23"/>
-      <c r="KE11" s="24"/>
-      <c r="KF11" s="27"/>
-      <c r="KG11" s="23"/>
-      <c r="KH11" s="23"/>
-      <c r="KI11" s="23"/>
-      <c r="KJ11" s="24"/>
-      <c r="KK11" s="27"/>
-      <c r="KL11" s="23"/>
-      <c r="KM11" s="23"/>
-      <c r="KN11" s="23"/>
-      <c r="KO11" s="24"/>
-      <c r="KP11" s="27"/>
-      <c r="KQ11" s="23"/>
-      <c r="KR11" s="23"/>
-      <c r="KS11" s="23"/>
-      <c r="KT11" s="24"/>
-      <c r="KU11" s="27"/>
-      <c r="KV11" s="23"/>
-      <c r="KW11" s="23"/>
-      <c r="KX11" s="23"/>
-      <c r="KY11" s="24"/>
-      <c r="KZ11" s="27"/>
-      <c r="LA11" s="23"/>
-      <c r="LB11" s="23"/>
-      <c r="LC11" s="23"/>
-      <c r="LD11" s="24"/>
-      <c r="LE11" s="27"/>
-      <c r="LF11" s="23"/>
-      <c r="LG11" s="23"/>
-      <c r="LH11" s="23"/>
-      <c r="LI11" s="24"/>
-      <c r="LJ11" s="27"/>
-      <c r="LK11" s="23"/>
-      <c r="LL11" s="23"/>
-      <c r="LM11" s="23"/>
-      <c r="LN11" s="24"/>
-      <c r="LO11" s="27"/>
-      <c r="LP11" s="23"/>
-      <c r="LQ11" s="23"/>
-      <c r="LR11" s="23"/>
-      <c r="LS11" s="24"/>
-      <c r="LT11" s="27"/>
-      <c r="LU11" s="23"/>
-      <c r="LV11" s="23"/>
-      <c r="LW11" s="23"/>
-      <c r="LX11" s="24"/>
-      <c r="LY11" s="27"/>
-      <c r="LZ11" s="23"/>
-      <c r="MA11" s="23"/>
-      <c r="MB11" s="23"/>
-      <c r="MC11" s="24"/>
-      <c r="MD11" s="27"/>
-      <c r="ME11" s="23"/>
-      <c r="MF11" s="23"/>
-      <c r="MG11" s="23"/>
-      <c r="MH11" s="24"/>
-      <c r="MI11" s="27"/>
-      <c r="MJ11" s="23"/>
-      <c r="MK11" s="23"/>
-      <c r="ML11" s="23"/>
-      <c r="MM11" s="24"/>
-      <c r="MN11" s="27"/>
-      <c r="MO11" s="23"/>
-      <c r="MP11" s="23"/>
-      <c r="MQ11" s="23"/>
-      <c r="MR11" s="24"/>
-      <c r="MS11" s="27"/>
-      <c r="MT11" s="23"/>
-      <c r="MU11" s="23"/>
-      <c r="MV11" s="23"/>
-      <c r="MW11" s="24"/>
-      <c r="MX11" s="27"/>
-      <c r="MY11" s="23"/>
-      <c r="MZ11" s="23"/>
-      <c r="NA11" s="23"/>
-      <c r="NB11" s="24"/>
-      <c r="NC11" s="27"/>
-      <c r="ND11" s="23"/>
-      <c r="NE11" s="23"/>
-      <c r="NF11" s="23"/>
-      <c r="NG11" s="24"/>
-      <c r="NH11" s="27"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="25"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="22"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="21"/>
+      <c r="AC11" s="21"/>
+      <c r="AD11" s="21"/>
+      <c r="AE11" s="22"/>
+      <c r="AF11" s="25"/>
+      <c r="AG11" s="21"/>
+      <c r="AH11" s="21"/>
+      <c r="AI11" s="21"/>
+      <c r="AJ11" s="22"/>
+      <c r="AK11" s="25"/>
+      <c r="AL11" s="21"/>
+      <c r="AM11" s="21"/>
+      <c r="AN11" s="21"/>
+      <c r="AO11" s="22"/>
+      <c r="AP11" s="25"/>
+      <c r="AQ11" s="21"/>
+      <c r="AR11" s="21"/>
+      <c r="AS11" s="21"/>
+      <c r="AT11" s="22"/>
+      <c r="AU11" s="25"/>
+      <c r="AV11" s="21"/>
+      <c r="AW11" s="21"/>
+      <c r="AX11" s="21"/>
+      <c r="AY11" s="22"/>
+      <c r="AZ11" s="25"/>
+      <c r="BA11" s="21"/>
+      <c r="BB11" s="21"/>
+      <c r="BC11" s="21"/>
+      <c r="BD11" s="22"/>
+      <c r="BE11" s="25"/>
+      <c r="BF11" s="21"/>
+      <c r="BG11" s="21"/>
+      <c r="BH11" s="21"/>
+      <c r="BI11" s="22"/>
+      <c r="BJ11" s="25"/>
+      <c r="BK11" s="21"/>
+      <c r="BL11" s="21"/>
+      <c r="BM11" s="21"/>
+      <c r="BN11" s="22"/>
+      <c r="BO11" s="25"/>
+      <c r="BP11" s="21"/>
+      <c r="BQ11" s="21"/>
+      <c r="BR11" s="21"/>
+      <c r="BS11" s="22"/>
+      <c r="BT11" s="25"/>
+      <c r="BU11" s="21"/>
+      <c r="BV11" s="21"/>
+      <c r="BW11" s="21"/>
+      <c r="BX11" s="22"/>
+      <c r="BY11" s="25"/>
+      <c r="BZ11" s="21"/>
+      <c r="CA11" s="21"/>
+      <c r="CB11" s="21"/>
+      <c r="CC11" s="22"/>
+      <c r="CD11" s="25"/>
+      <c r="CE11" s="21"/>
+      <c r="CF11" s="21"/>
+      <c r="CG11" s="21"/>
+      <c r="CH11" s="22"/>
+      <c r="CI11" s="25"/>
+      <c r="CJ11" s="21"/>
+      <c r="CK11" s="21"/>
+      <c r="CL11" s="21"/>
+      <c r="CM11" s="22"/>
+      <c r="CN11" s="25"/>
+      <c r="CO11" s="21"/>
+      <c r="CP11" s="21"/>
+      <c r="CQ11" s="21"/>
+      <c r="CR11" s="22"/>
+      <c r="CS11" s="25"/>
+      <c r="CT11" s="21"/>
+      <c r="CU11" s="21"/>
+      <c r="CV11" s="21"/>
+      <c r="CW11" s="22"/>
+      <c r="CX11" s="25"/>
+      <c r="CY11" s="21"/>
+      <c r="CZ11" s="21"/>
+      <c r="DA11" s="21"/>
+      <c r="DB11" s="22"/>
+      <c r="DC11" s="25"/>
+      <c r="DD11" s="21"/>
+      <c r="DE11" s="21"/>
+      <c r="DF11" s="21"/>
+      <c r="DG11" s="22"/>
+      <c r="DH11" s="25"/>
+      <c r="DI11" s="21"/>
+      <c r="DJ11" s="21"/>
+      <c r="DK11" s="21"/>
+      <c r="DL11" s="22"/>
+      <c r="DM11" s="25"/>
+      <c r="DN11" s="21"/>
+      <c r="DO11" s="21"/>
+      <c r="DP11" s="21"/>
+      <c r="DQ11" s="22"/>
+      <c r="DR11" s="25"/>
+      <c r="DS11" s="21"/>
+      <c r="DT11" s="21"/>
+      <c r="DU11" s="21"/>
+      <c r="DV11" s="22"/>
+      <c r="DW11" s="25"/>
+      <c r="DX11" s="21"/>
+      <c r="DY11" s="21"/>
+      <c r="DZ11" s="21"/>
+      <c r="EA11" s="22"/>
+      <c r="EB11" s="25"/>
+      <c r="EC11" s="21"/>
+      <c r="ED11" s="21"/>
+      <c r="EE11" s="21"/>
+      <c r="EF11" s="22"/>
+      <c r="EG11" s="25"/>
+      <c r="EH11" s="21"/>
+      <c r="EI11" s="21"/>
+      <c r="EJ11" s="21"/>
+      <c r="EK11" s="22"/>
+      <c r="EL11" s="25"/>
+      <c r="EM11" s="21"/>
+      <c r="EN11" s="21"/>
+      <c r="EO11" s="21"/>
+      <c r="EP11" s="22"/>
+      <c r="EQ11" s="25"/>
+      <c r="ER11" s="21"/>
+      <c r="ES11" s="21"/>
+      <c r="ET11" s="21"/>
+      <c r="EU11" s="22"/>
+      <c r="EV11" s="25"/>
+      <c r="EW11" s="21"/>
+      <c r="EX11" s="21"/>
+      <c r="EY11" s="21"/>
+      <c r="EZ11" s="22"/>
+      <c r="FA11" s="25"/>
+      <c r="FB11" s="21"/>
+      <c r="FC11" s="21"/>
+      <c r="FD11" s="21"/>
+      <c r="FE11" s="22"/>
+      <c r="FF11" s="25"/>
+      <c r="FG11" s="21"/>
+      <c r="FH11" s="21"/>
+      <c r="FI11" s="21"/>
+      <c r="FJ11" s="22"/>
+      <c r="FK11" s="25"/>
+      <c r="FL11" s="21"/>
+      <c r="FM11" s="21"/>
+      <c r="FN11" s="21"/>
+      <c r="FO11" s="22"/>
+      <c r="FP11" s="25"/>
+      <c r="FQ11" s="21"/>
+      <c r="FR11" s="21"/>
+      <c r="FS11" s="21"/>
+      <c r="FT11" s="22"/>
+      <c r="FU11" s="25"/>
+      <c r="FV11" s="21"/>
+      <c r="FW11" s="21"/>
+      <c r="FX11" s="21"/>
+      <c r="FY11" s="22"/>
+      <c r="FZ11" s="25"/>
+      <c r="GA11" s="21"/>
+      <c r="GB11" s="21"/>
+      <c r="GC11" s="21"/>
+      <c r="GD11" s="22"/>
+      <c r="GE11" s="25"/>
+      <c r="GF11" s="21"/>
+      <c r="GG11" s="21"/>
+      <c r="GH11" s="21"/>
+      <c r="GI11" s="22"/>
+      <c r="GJ11" s="25"/>
+      <c r="GK11" s="21"/>
+      <c r="GL11" s="21"/>
+      <c r="GM11" s="21"/>
+      <c r="GN11" s="22"/>
+      <c r="GO11" s="25"/>
+      <c r="GP11" s="21"/>
+      <c r="GQ11" s="21"/>
+      <c r="GR11" s="21"/>
+      <c r="GS11" s="22"/>
+      <c r="GT11" s="25"/>
+      <c r="GU11" s="21"/>
+      <c r="GV11" s="21"/>
+      <c r="GW11" s="21"/>
+      <c r="GX11" s="22"/>
+      <c r="GY11" s="25"/>
+      <c r="GZ11" s="21"/>
+      <c r="HA11" s="21"/>
+      <c r="HB11" s="21"/>
+      <c r="HC11" s="22"/>
+      <c r="HD11" s="25"/>
+      <c r="HE11" s="21"/>
+      <c r="HF11" s="21"/>
+      <c r="HG11" s="21"/>
+      <c r="HH11" s="22"/>
+      <c r="HI11" s="25"/>
+      <c r="HJ11" s="21"/>
+      <c r="HK11" s="21"/>
+      <c r="HL11" s="21"/>
+      <c r="HM11" s="22"/>
+      <c r="HN11" s="25"/>
+      <c r="HO11" s="21"/>
+      <c r="HP11" s="21"/>
+      <c r="HQ11" s="21"/>
+      <c r="HR11" s="22"/>
+      <c r="HS11" s="25"/>
+      <c r="HT11" s="21"/>
+      <c r="HU11" s="21"/>
+      <c r="HV11" s="21"/>
+      <c r="HW11" s="22"/>
+      <c r="HX11" s="25"/>
+      <c r="HY11" s="21"/>
+      <c r="HZ11" s="21"/>
+      <c r="IA11" s="21"/>
+      <c r="IB11" s="22"/>
+      <c r="IC11" s="25"/>
+      <c r="ID11" s="21"/>
+      <c r="IE11" s="21"/>
+      <c r="IF11" s="21"/>
+      <c r="IG11" s="22"/>
+      <c r="IH11" s="25"/>
+      <c r="II11" s="21"/>
+      <c r="IJ11" s="21"/>
+      <c r="IK11" s="21"/>
+      <c r="IL11" s="22"/>
+      <c r="IM11" s="25"/>
+      <c r="IN11" s="21"/>
+      <c r="IO11" s="21"/>
+      <c r="IP11" s="21"/>
+      <c r="IQ11" s="22"/>
+      <c r="IR11" s="25"/>
+      <c r="IS11" s="21"/>
+      <c r="IT11" s="21"/>
+      <c r="IU11" s="21"/>
+      <c r="IV11" s="22"/>
+      <c r="IW11" s="25"/>
+      <c r="IX11" s="21"/>
+      <c r="IY11" s="21"/>
+      <c r="IZ11" s="21"/>
+      <c r="JA11" s="22"/>
+      <c r="JB11" s="25"/>
+      <c r="JC11" s="21"/>
+      <c r="JD11" s="21"/>
+      <c r="JE11" s="21"/>
+      <c r="JF11" s="22"/>
+      <c r="JG11" s="25"/>
+      <c r="JH11" s="21"/>
+      <c r="JI11" s="21"/>
+      <c r="JJ11" s="21"/>
+      <c r="JK11" s="22"/>
+      <c r="JL11" s="25"/>
+      <c r="JM11" s="21"/>
+      <c r="JN11" s="21"/>
+      <c r="JO11" s="21"/>
+      <c r="JP11" s="22"/>
+      <c r="JQ11" s="25"/>
+      <c r="JR11" s="21"/>
+      <c r="JS11" s="21"/>
+      <c r="JT11" s="21"/>
+      <c r="JU11" s="22"/>
+      <c r="JV11" s="25"/>
+      <c r="JW11" s="21"/>
+      <c r="JX11" s="21"/>
+      <c r="JY11" s="21"/>
+      <c r="JZ11" s="22"/>
+      <c r="KA11" s="25"/>
+      <c r="KB11" s="21"/>
+      <c r="KC11" s="21"/>
+      <c r="KD11" s="21"/>
+      <c r="KE11" s="22"/>
+      <c r="KF11" s="25"/>
+      <c r="KG11" s="21"/>
+      <c r="KH11" s="21"/>
+      <c r="KI11" s="21"/>
+      <c r="KJ11" s="22"/>
+      <c r="KK11" s="25"/>
+      <c r="KL11" s="21"/>
+      <c r="KM11" s="21"/>
+      <c r="KN11" s="21"/>
+      <c r="KO11" s="22"/>
+      <c r="KP11" s="25"/>
+      <c r="KQ11" s="21"/>
+      <c r="KR11" s="21"/>
+      <c r="KS11" s="21"/>
+      <c r="KT11" s="22"/>
+      <c r="KU11" s="25"/>
+      <c r="KV11" s="21"/>
+      <c r="KW11" s="21"/>
+      <c r="KX11" s="21"/>
+      <c r="KY11" s="22"/>
+      <c r="KZ11" s="25"/>
+      <c r="LA11" s="21"/>
+      <c r="LB11" s="21"/>
+      <c r="LC11" s="21"/>
+      <c r="LD11" s="22"/>
+      <c r="LE11" s="25"/>
+      <c r="LF11" s="21"/>
+      <c r="LG11" s="21"/>
+      <c r="LH11" s="21"/>
+      <c r="LI11" s="22"/>
+      <c r="LJ11" s="25"/>
+      <c r="LK11" s="21"/>
+      <c r="LL11" s="21"/>
+      <c r="LM11" s="21"/>
+      <c r="LN11" s="22"/>
+      <c r="LO11" s="25"/>
+      <c r="LP11" s="21"/>
+      <c r="LQ11" s="21"/>
+      <c r="LR11" s="21"/>
+      <c r="LS11" s="22"/>
+      <c r="LT11" s="25"/>
+      <c r="LU11" s="21"/>
+      <c r="LV11" s="21"/>
+      <c r="LW11" s="21"/>
+      <c r="LX11" s="22"/>
+      <c r="LY11" s="25"/>
+      <c r="LZ11" s="21"/>
+      <c r="MA11" s="21"/>
+      <c r="MB11" s="21"/>
+      <c r="MC11" s="22"/>
+      <c r="MD11" s="25"/>
+      <c r="ME11" s="21"/>
+      <c r="MF11" s="21"/>
+      <c r="MG11" s="21"/>
+      <c r="MH11" s="22"/>
+      <c r="MI11" s="25"/>
+      <c r="MJ11" s="21"/>
+      <c r="MK11" s="21"/>
+      <c r="ML11" s="21"/>
+      <c r="MM11" s="22"/>
+      <c r="MN11" s="25"/>
+      <c r="MO11" s="21"/>
+      <c r="MP11" s="21"/>
+      <c r="MQ11" s="21"/>
+      <c r="MR11" s="22"/>
+      <c r="MS11" s="25"/>
+      <c r="MT11" s="21"/>
+      <c r="MU11" s="21"/>
+      <c r="MV11" s="21"/>
+      <c r="MW11" s="22"/>
+      <c r="MX11" s="25"/>
+      <c r="MY11" s="21"/>
+      <c r="MZ11" s="21"/>
+      <c r="NA11" s="21"/>
+      <c r="NB11" s="22"/>
+      <c r="NC11" s="25"/>
+      <c r="ND11" s="21"/>
+      <c r="NE11" s="21"/>
+      <c r="NF11" s="21"/>
+      <c r="NG11" s="22"/>
+      <c r="NH11" s="25"/>
     </row>
     <row r="12" spans="1:372" x14ac:dyDescent="0.15">
-      <c r="AL12" s="34"/>
-      <c r="BK12" s="35"/>
+      <c r="AL12" s="32"/>
+      <c r="BK12" s="33"/>
       <c r="CW12" s="11"/>
       <c r="CY12" s="11"/>
       <c r="CZ12" s="11"/>
@@ -3237,1164 +3348,1164 @@
     <row r="13" spans="1:372" x14ac:dyDescent="0.15">
       <c r="AK13" s="11"/>
       <c r="AL13" s="11"/>
-      <c r="BJ13" s="31"/>
-      <c r="BK13" s="32"/>
+      <c r="BJ13" s="29"/>
+      <c r="BK13" s="30"/>
       <c r="CO13" s="11"/>
       <c r="CP13" s="11"/>
-      <c r="DN13" s="31"/>
-      <c r="DO13" s="32"/>
+      <c r="DN13" s="29"/>
+      <c r="DO13" s="30"/>
       <c r="ES13" s="11"/>
       <c r="ET13" s="11"/>
-      <c r="FR13" s="31"/>
-      <c r="FS13" s="32"/>
+      <c r="FR13" s="29"/>
+      <c r="FS13" s="30"/>
       <c r="GW13" s="11"/>
       <c r="GX13" s="11"/>
-      <c r="HV13" s="31"/>
-      <c r="HW13" s="32"/>
+      <c r="HV13" s="29"/>
+      <c r="HW13" s="30"/>
       <c r="JA13" s="11"/>
       <c r="JB13" s="11"/>
-      <c r="JZ13" s="31"/>
-      <c r="KA13" s="32"/>
+      <c r="JZ13" s="29"/>
+      <c r="KA13" s="30"/>
       <c r="LE13" s="11"/>
       <c r="LF13" s="11"/>
-      <c r="MD13" s="31"/>
-      <c r="ME13" s="32"/>
+      <c r="MD13" s="29"/>
+      <c r="ME13" s="30"/>
     </row>
     <row r="14" spans="1:372" x14ac:dyDescent="0.15">
       <c r="G14" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="28"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="28"/>
-      <c r="M14" s="28"/>
-      <c r="N14" s="28"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="28"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
-      <c r="Y14" s="28"/>
-      <c r="Z14" s="28"/>
-      <c r="AA14" s="28"/>
-      <c r="AB14" s="28"/>
-      <c r="AC14" s="28"/>
-      <c r="AD14" s="28"/>
-      <c r="AE14" s="28"/>
-      <c r="AF14" s="28"/>
-      <c r="AG14" s="28"/>
-      <c r="AH14" s="28"/>
-      <c r="AI14" s="28"/>
-      <c r="AJ14" s="28"/>
-      <c r="AK14" s="28"/>
-      <c r="AL14" s="29"/>
-      <c r="AM14" s="29"/>
-      <c r="AN14" s="29"/>
-      <c r="AO14" s="29"/>
-      <c r="AP14" s="29"/>
-      <c r="AQ14" s="29"/>
-      <c r="AR14" s="29"/>
-      <c r="AS14" s="29"/>
-      <c r="AT14" s="29"/>
-      <c r="AU14" s="29"/>
-      <c r="AV14" s="29"/>
-      <c r="AW14" s="29"/>
-      <c r="AX14" s="29"/>
-      <c r="AY14" s="29"/>
-      <c r="AZ14" s="29"/>
-      <c r="BA14" s="29"/>
-      <c r="BB14" s="29"/>
-      <c r="BC14" s="29"/>
-      <c r="BD14" s="29"/>
-      <c r="BE14" s="29"/>
-      <c r="BF14" s="29"/>
-      <c r="BG14" s="29"/>
-      <c r="BH14" s="29"/>
-      <c r="BI14" s="29"/>
-      <c r="BJ14" s="30"/>
-      <c r="BK14" s="33"/>
-      <c r="BL14" s="28"/>
-      <c r="BM14" s="28"/>
-      <c r="BN14" s="28"/>
-      <c r="BO14" s="28"/>
-      <c r="BP14" s="28"/>
-      <c r="BQ14" s="28"/>
-      <c r="BR14" s="28"/>
-      <c r="BS14" s="28"/>
-      <c r="BT14" s="28"/>
-      <c r="BU14" s="28"/>
-      <c r="BV14" s="28"/>
-      <c r="BW14" s="28"/>
-      <c r="BX14" s="28"/>
-      <c r="BY14" s="28"/>
-      <c r="BZ14" s="28"/>
-      <c r="CA14" s="28"/>
-      <c r="CB14" s="28"/>
-      <c r="CC14" s="28"/>
-      <c r="CD14" s="28"/>
-      <c r="CE14" s="28"/>
-      <c r="CF14" s="28"/>
-      <c r="CG14" s="28"/>
-      <c r="CH14" s="28"/>
-      <c r="CI14" s="28"/>
-      <c r="CJ14" s="28"/>
-      <c r="CK14" s="28"/>
-      <c r="CL14" s="28"/>
-      <c r="CM14" s="28"/>
-      <c r="CN14" s="28"/>
-      <c r="CO14" s="28"/>
-      <c r="CP14" s="29"/>
-      <c r="CQ14" s="29"/>
-      <c r="CR14" s="29"/>
-      <c r="CS14" s="29"/>
-      <c r="CT14" s="29"/>
-      <c r="CU14" s="29"/>
-      <c r="CV14" s="29"/>
-      <c r="CW14" s="29"/>
-      <c r="CX14" s="29"/>
-      <c r="CY14" s="29"/>
-      <c r="CZ14" s="29"/>
-      <c r="DA14" s="29"/>
-      <c r="DB14" s="29"/>
-      <c r="DC14" s="29"/>
-      <c r="DD14" s="29"/>
-      <c r="DE14" s="29"/>
-      <c r="DF14" s="29"/>
-      <c r="DG14" s="29"/>
-      <c r="DH14" s="29"/>
-      <c r="DI14" s="29"/>
-      <c r="DJ14" s="29"/>
-      <c r="DK14" s="29"/>
-      <c r="DL14" s="29"/>
-      <c r="DM14" s="29"/>
-      <c r="DN14" s="30"/>
-      <c r="DO14" s="33"/>
-      <c r="DP14" s="28"/>
-      <c r="DQ14" s="28"/>
-      <c r="DR14" s="28"/>
-      <c r="DS14" s="28"/>
-      <c r="DT14" s="28"/>
-      <c r="DU14" s="28"/>
-      <c r="DV14" s="28"/>
-      <c r="DW14" s="28"/>
-      <c r="DX14" s="28"/>
-      <c r="DY14" s="28"/>
-      <c r="DZ14" s="28"/>
-      <c r="EA14" s="28"/>
-      <c r="EB14" s="28"/>
-      <c r="EC14" s="28"/>
-      <c r="ED14" s="28"/>
-      <c r="EE14" s="28"/>
-      <c r="EF14" s="28"/>
-      <c r="EG14" s="28"/>
-      <c r="EH14" s="28"/>
-      <c r="EI14" s="28"/>
-      <c r="EJ14" s="28"/>
-      <c r="EK14" s="28"/>
-      <c r="EL14" s="28"/>
-      <c r="EM14" s="28"/>
-      <c r="EN14" s="28"/>
-      <c r="EO14" s="28"/>
-      <c r="EP14" s="28"/>
-      <c r="EQ14" s="28"/>
-      <c r="ER14" s="28"/>
-      <c r="ES14" s="28"/>
-      <c r="ET14" s="29"/>
-      <c r="EU14" s="29"/>
-      <c r="EV14" s="29"/>
-      <c r="EW14" s="29"/>
-      <c r="EX14" s="29"/>
-      <c r="EY14" s="29"/>
-      <c r="EZ14" s="29"/>
-      <c r="FA14" s="29"/>
-      <c r="FB14" s="29"/>
-      <c r="FC14" s="29"/>
-      <c r="FD14" s="29"/>
-      <c r="FE14" s="29"/>
-      <c r="FF14" s="29"/>
-      <c r="FG14" s="29"/>
-      <c r="FH14" s="29"/>
-      <c r="FI14" s="29"/>
-      <c r="FJ14" s="29"/>
-      <c r="FK14" s="29"/>
-      <c r="FL14" s="29"/>
-      <c r="FM14" s="29"/>
-      <c r="FN14" s="29"/>
-      <c r="FO14" s="29"/>
-      <c r="FP14" s="29"/>
-      <c r="FQ14" s="29"/>
-      <c r="FR14" s="30"/>
-      <c r="FS14" s="33"/>
-      <c r="FT14" s="28"/>
-      <c r="FU14" s="28"/>
-      <c r="FV14" s="28"/>
-      <c r="FW14" s="28"/>
-      <c r="FX14" s="28"/>
-      <c r="FY14" s="28"/>
-      <c r="FZ14" s="28"/>
-      <c r="GA14" s="28"/>
-      <c r="GB14" s="28"/>
-      <c r="GC14" s="28"/>
-      <c r="GD14" s="28"/>
-      <c r="GE14" s="28"/>
-      <c r="GF14" s="28"/>
-      <c r="GG14" s="28"/>
-      <c r="GH14" s="28"/>
-      <c r="GI14" s="28"/>
-      <c r="GJ14" s="28"/>
-      <c r="GK14" s="28"/>
-      <c r="GL14" s="28"/>
-      <c r="GM14" s="28"/>
-      <c r="GN14" s="28"/>
-      <c r="GO14" s="28"/>
-      <c r="GP14" s="28"/>
-      <c r="GQ14" s="28"/>
-      <c r="GR14" s="28"/>
-      <c r="GS14" s="28"/>
-      <c r="GT14" s="28"/>
-      <c r="GU14" s="28"/>
-      <c r="GV14" s="28"/>
-      <c r="GW14" s="28"/>
-      <c r="GX14" s="29"/>
-      <c r="GY14" s="29"/>
-      <c r="GZ14" s="29"/>
-      <c r="HA14" s="29"/>
-      <c r="HB14" s="29"/>
-      <c r="HC14" s="29"/>
-      <c r="HD14" s="29"/>
-      <c r="HE14" s="29"/>
-      <c r="HF14" s="29"/>
-      <c r="HG14" s="29"/>
-      <c r="HH14" s="29"/>
-      <c r="HI14" s="29"/>
-      <c r="HJ14" s="29"/>
-      <c r="HK14" s="29"/>
-      <c r="HL14" s="29"/>
-      <c r="HM14" s="29"/>
-      <c r="HN14" s="29"/>
-      <c r="HO14" s="29"/>
-      <c r="HP14" s="29"/>
-      <c r="HQ14" s="29"/>
-      <c r="HR14" s="29"/>
-      <c r="HS14" s="29"/>
-      <c r="HT14" s="29"/>
-      <c r="HU14" s="29"/>
-      <c r="HV14" s="30"/>
-      <c r="HW14" s="33"/>
-      <c r="HX14" s="28"/>
-      <c r="HY14" s="28"/>
-      <c r="HZ14" s="28"/>
-      <c r="IA14" s="28"/>
-      <c r="IB14" s="28"/>
-      <c r="IC14" s="28"/>
-      <c r="ID14" s="28"/>
-      <c r="IE14" s="28"/>
-      <c r="IF14" s="28"/>
-      <c r="IG14" s="28"/>
-      <c r="IH14" s="28"/>
-      <c r="II14" s="28"/>
-      <c r="IJ14" s="28"/>
-      <c r="IK14" s="28"/>
-      <c r="IL14" s="28"/>
-      <c r="IM14" s="28"/>
-      <c r="IN14" s="28"/>
-      <c r="IO14" s="28"/>
-      <c r="IP14" s="28"/>
-      <c r="IQ14" s="28"/>
-      <c r="IR14" s="28"/>
-      <c r="IS14" s="28"/>
-      <c r="IT14" s="28"/>
-      <c r="IU14" s="28"/>
-      <c r="IV14" s="28"/>
-      <c r="IW14" s="28"/>
-      <c r="IX14" s="28"/>
-      <c r="IY14" s="28"/>
-      <c r="IZ14" s="28"/>
-      <c r="JA14" s="28"/>
-      <c r="JB14" s="29"/>
-      <c r="JC14" s="29"/>
-      <c r="JD14" s="29"/>
-      <c r="JE14" s="29"/>
-      <c r="JF14" s="29"/>
-      <c r="JG14" s="29"/>
-      <c r="JH14" s="29"/>
-      <c r="JI14" s="29"/>
-      <c r="JJ14" s="29"/>
-      <c r="JK14" s="29"/>
-      <c r="JL14" s="29"/>
-      <c r="JM14" s="29"/>
-      <c r="JN14" s="29"/>
-      <c r="JO14" s="29"/>
-      <c r="JP14" s="29"/>
-      <c r="JQ14" s="29"/>
-      <c r="JR14" s="29"/>
-      <c r="JS14" s="29"/>
-      <c r="JT14" s="29"/>
-      <c r="JU14" s="29"/>
-      <c r="JV14" s="29"/>
-      <c r="JW14" s="29"/>
-      <c r="JX14" s="29"/>
-      <c r="JY14" s="29"/>
-      <c r="JZ14" s="30"/>
-      <c r="KA14" s="33"/>
-      <c r="KB14" s="28"/>
-      <c r="KC14" s="28"/>
-      <c r="KD14" s="28"/>
-      <c r="KE14" s="28"/>
-      <c r="KF14" s="28"/>
-      <c r="KG14" s="28"/>
-      <c r="KH14" s="28"/>
-      <c r="KI14" s="28"/>
-      <c r="KJ14" s="28"/>
-      <c r="KK14" s="28"/>
-      <c r="KL14" s="28"/>
-      <c r="KM14" s="28"/>
-      <c r="KN14" s="28"/>
-      <c r="KO14" s="28"/>
-      <c r="KP14" s="28"/>
-      <c r="KQ14" s="28"/>
-      <c r="KR14" s="28"/>
-      <c r="KS14" s="28"/>
-      <c r="KT14" s="28"/>
-      <c r="KU14" s="28"/>
-      <c r="KV14" s="28"/>
-      <c r="KW14" s="28"/>
-      <c r="KX14" s="28"/>
-      <c r="KY14" s="28"/>
-      <c r="KZ14" s="28"/>
-      <c r="LA14" s="28"/>
-      <c r="LB14" s="28"/>
-      <c r="LC14" s="28"/>
-      <c r="LD14" s="28"/>
-      <c r="LE14" s="28"/>
-      <c r="LF14" s="29"/>
-      <c r="LG14" s="29"/>
-      <c r="LH14" s="29"/>
-      <c r="LI14" s="29"/>
-      <c r="LJ14" s="29"/>
-      <c r="LK14" s="29"/>
-      <c r="LL14" s="29"/>
-      <c r="LM14" s="29"/>
-      <c r="LN14" s="29"/>
-      <c r="LO14" s="29"/>
-      <c r="LP14" s="29"/>
-      <c r="LQ14" s="29"/>
-      <c r="LR14" s="29"/>
-      <c r="LS14" s="29"/>
-      <c r="LT14" s="29"/>
-      <c r="LU14" s="29"/>
-      <c r="LV14" s="29"/>
-      <c r="LW14" s="29"/>
-      <c r="LX14" s="29"/>
-      <c r="LY14" s="29"/>
-      <c r="LZ14" s="29"/>
-      <c r="MA14" s="29"/>
-      <c r="MB14" s="29"/>
-      <c r="MC14" s="29"/>
-      <c r="MD14" s="30"/>
-      <c r="ME14" s="33"/>
-      <c r="MF14" s="28"/>
-      <c r="MG14" s="28"/>
-      <c r="MH14" s="28"/>
-      <c r="MI14" s="28"/>
-      <c r="MJ14" s="28"/>
-      <c r="MK14" s="28"/>
-      <c r="ML14" s="28"/>
-      <c r="MM14" s="28"/>
-      <c r="MN14" s="28"/>
-      <c r="MO14" s="28"/>
-      <c r="MP14" s="28"/>
-      <c r="MQ14" s="28"/>
-      <c r="MR14" s="28"/>
-      <c r="MS14" s="28"/>
-      <c r="MT14" s="28"/>
-      <c r="MU14" s="28"/>
-      <c r="MV14" s="28"/>
-      <c r="MW14" s="28"/>
-      <c r="MX14" s="28"/>
-      <c r="MY14" s="28"/>
-      <c r="MZ14" s="28"/>
-      <c r="NA14" s="28"/>
-      <c r="NB14" s="28"/>
-      <c r="NC14" s="28"/>
-      <c r="ND14" s="28"/>
-      <c r="NE14" s="28"/>
-      <c r="NF14" s="28"/>
-      <c r="NG14" s="28"/>
-      <c r="NH14" s="28"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
+      <c r="W14" s="26"/>
+      <c r="X14" s="26"/>
+      <c r="Y14" s="26"/>
+      <c r="Z14" s="26"/>
+      <c r="AA14" s="26"/>
+      <c r="AB14" s="26"/>
+      <c r="AC14" s="26"/>
+      <c r="AD14" s="26"/>
+      <c r="AE14" s="26"/>
+      <c r="AF14" s="26"/>
+      <c r="AG14" s="26"/>
+      <c r="AH14" s="26"/>
+      <c r="AI14" s="26"/>
+      <c r="AJ14" s="26"/>
+      <c r="AK14" s="26"/>
+      <c r="AL14" s="27"/>
+      <c r="AM14" s="27"/>
+      <c r="AN14" s="27"/>
+      <c r="AO14" s="27"/>
+      <c r="AP14" s="27"/>
+      <c r="AQ14" s="27"/>
+      <c r="AR14" s="27"/>
+      <c r="AS14" s="27"/>
+      <c r="AT14" s="27"/>
+      <c r="AU14" s="27"/>
+      <c r="AV14" s="27"/>
+      <c r="AW14" s="27"/>
+      <c r="AX14" s="27"/>
+      <c r="AY14" s="27"/>
+      <c r="AZ14" s="27"/>
+      <c r="BA14" s="27"/>
+      <c r="BB14" s="27"/>
+      <c r="BC14" s="27"/>
+      <c r="BD14" s="27"/>
+      <c r="BE14" s="27"/>
+      <c r="BF14" s="27"/>
+      <c r="BG14" s="27"/>
+      <c r="BH14" s="27"/>
+      <c r="BI14" s="27"/>
+      <c r="BJ14" s="28"/>
+      <c r="BK14" s="31"/>
+      <c r="BL14" s="26"/>
+      <c r="BM14" s="26"/>
+      <c r="BN14" s="26"/>
+      <c r="BO14" s="26"/>
+      <c r="BP14" s="26"/>
+      <c r="BQ14" s="26"/>
+      <c r="BR14" s="26"/>
+      <c r="BS14" s="26"/>
+      <c r="BT14" s="26"/>
+      <c r="BU14" s="26"/>
+      <c r="BV14" s="26"/>
+      <c r="BW14" s="26"/>
+      <c r="BX14" s="26"/>
+      <c r="BY14" s="26"/>
+      <c r="BZ14" s="26"/>
+      <c r="CA14" s="26"/>
+      <c r="CB14" s="26"/>
+      <c r="CC14" s="26"/>
+      <c r="CD14" s="26"/>
+      <c r="CE14" s="26"/>
+      <c r="CF14" s="26"/>
+      <c r="CG14" s="26"/>
+      <c r="CH14" s="26"/>
+      <c r="CI14" s="26"/>
+      <c r="CJ14" s="26"/>
+      <c r="CK14" s="26"/>
+      <c r="CL14" s="26"/>
+      <c r="CM14" s="26"/>
+      <c r="CN14" s="26"/>
+      <c r="CO14" s="26"/>
+      <c r="CP14" s="27"/>
+      <c r="CQ14" s="27"/>
+      <c r="CR14" s="27"/>
+      <c r="CS14" s="27"/>
+      <c r="CT14" s="27"/>
+      <c r="CU14" s="27"/>
+      <c r="CV14" s="27"/>
+      <c r="CW14" s="27"/>
+      <c r="CX14" s="27"/>
+      <c r="CY14" s="27"/>
+      <c r="CZ14" s="27"/>
+      <c r="DA14" s="27"/>
+      <c r="DB14" s="27"/>
+      <c r="DC14" s="27"/>
+      <c r="DD14" s="27"/>
+      <c r="DE14" s="27"/>
+      <c r="DF14" s="27"/>
+      <c r="DG14" s="27"/>
+      <c r="DH14" s="27"/>
+      <c r="DI14" s="27"/>
+      <c r="DJ14" s="27"/>
+      <c r="DK14" s="27"/>
+      <c r="DL14" s="27"/>
+      <c r="DM14" s="27"/>
+      <c r="DN14" s="28"/>
+      <c r="DO14" s="31"/>
+      <c r="DP14" s="26"/>
+      <c r="DQ14" s="26"/>
+      <c r="DR14" s="26"/>
+      <c r="DS14" s="26"/>
+      <c r="DT14" s="26"/>
+      <c r="DU14" s="26"/>
+      <c r="DV14" s="26"/>
+      <c r="DW14" s="26"/>
+      <c r="DX14" s="26"/>
+      <c r="DY14" s="26"/>
+      <c r="DZ14" s="26"/>
+      <c r="EA14" s="26"/>
+      <c r="EB14" s="26"/>
+      <c r="EC14" s="26"/>
+      <c r="ED14" s="26"/>
+      <c r="EE14" s="26"/>
+      <c r="EF14" s="26"/>
+      <c r="EG14" s="26"/>
+      <c r="EH14" s="26"/>
+      <c r="EI14" s="26"/>
+      <c r="EJ14" s="26"/>
+      <c r="EK14" s="26"/>
+      <c r="EL14" s="26"/>
+      <c r="EM14" s="26"/>
+      <c r="EN14" s="26"/>
+      <c r="EO14" s="26"/>
+      <c r="EP14" s="26"/>
+      <c r="EQ14" s="26"/>
+      <c r="ER14" s="26"/>
+      <c r="ES14" s="26"/>
+      <c r="ET14" s="27"/>
+      <c r="EU14" s="27"/>
+      <c r="EV14" s="27"/>
+      <c r="EW14" s="27"/>
+      <c r="EX14" s="27"/>
+      <c r="EY14" s="27"/>
+      <c r="EZ14" s="27"/>
+      <c r="FA14" s="27"/>
+      <c r="FB14" s="27"/>
+      <c r="FC14" s="27"/>
+      <c r="FD14" s="27"/>
+      <c r="FE14" s="27"/>
+      <c r="FF14" s="27"/>
+      <c r="FG14" s="27"/>
+      <c r="FH14" s="27"/>
+      <c r="FI14" s="27"/>
+      <c r="FJ14" s="27"/>
+      <c r="FK14" s="27"/>
+      <c r="FL14" s="27"/>
+      <c r="FM14" s="27"/>
+      <c r="FN14" s="27"/>
+      <c r="FO14" s="27"/>
+      <c r="FP14" s="27"/>
+      <c r="FQ14" s="27"/>
+      <c r="FR14" s="28"/>
+      <c r="FS14" s="31"/>
+      <c r="FT14" s="26"/>
+      <c r="FU14" s="26"/>
+      <c r="FV14" s="26"/>
+      <c r="FW14" s="26"/>
+      <c r="FX14" s="26"/>
+      <c r="FY14" s="26"/>
+      <c r="FZ14" s="26"/>
+      <c r="GA14" s="26"/>
+      <c r="GB14" s="26"/>
+      <c r="GC14" s="26"/>
+      <c r="GD14" s="26"/>
+      <c r="GE14" s="26"/>
+      <c r="GF14" s="26"/>
+      <c r="GG14" s="26"/>
+      <c r="GH14" s="26"/>
+      <c r="GI14" s="26"/>
+      <c r="GJ14" s="26"/>
+      <c r="GK14" s="26"/>
+      <c r="GL14" s="26"/>
+      <c r="GM14" s="26"/>
+      <c r="GN14" s="26"/>
+      <c r="GO14" s="26"/>
+      <c r="GP14" s="26"/>
+      <c r="GQ14" s="26"/>
+      <c r="GR14" s="26"/>
+      <c r="GS14" s="26"/>
+      <c r="GT14" s="26"/>
+      <c r="GU14" s="26"/>
+      <c r="GV14" s="26"/>
+      <c r="GW14" s="26"/>
+      <c r="GX14" s="27"/>
+      <c r="GY14" s="27"/>
+      <c r="GZ14" s="27"/>
+      <c r="HA14" s="27"/>
+      <c r="HB14" s="27"/>
+      <c r="HC14" s="27"/>
+      <c r="HD14" s="27"/>
+      <c r="HE14" s="27"/>
+      <c r="HF14" s="27"/>
+      <c r="HG14" s="27"/>
+      <c r="HH14" s="27"/>
+      <c r="HI14" s="27"/>
+      <c r="HJ14" s="27"/>
+      <c r="HK14" s="27"/>
+      <c r="HL14" s="27"/>
+      <c r="HM14" s="27"/>
+      <c r="HN14" s="27"/>
+      <c r="HO14" s="27"/>
+      <c r="HP14" s="27"/>
+      <c r="HQ14" s="27"/>
+      <c r="HR14" s="27"/>
+      <c r="HS14" s="27"/>
+      <c r="HT14" s="27"/>
+      <c r="HU14" s="27"/>
+      <c r="HV14" s="28"/>
+      <c r="HW14" s="31"/>
+      <c r="HX14" s="26"/>
+      <c r="HY14" s="26"/>
+      <c r="HZ14" s="26"/>
+      <c r="IA14" s="26"/>
+      <c r="IB14" s="26"/>
+      <c r="IC14" s="26"/>
+      <c r="ID14" s="26"/>
+      <c r="IE14" s="26"/>
+      <c r="IF14" s="26"/>
+      <c r="IG14" s="26"/>
+      <c r="IH14" s="26"/>
+      <c r="II14" s="26"/>
+      <c r="IJ14" s="26"/>
+      <c r="IK14" s="26"/>
+      <c r="IL14" s="26"/>
+      <c r="IM14" s="26"/>
+      <c r="IN14" s="26"/>
+      <c r="IO14" s="26"/>
+      <c r="IP14" s="26"/>
+      <c r="IQ14" s="26"/>
+      <c r="IR14" s="26"/>
+      <c r="IS14" s="26"/>
+      <c r="IT14" s="26"/>
+      <c r="IU14" s="26"/>
+      <c r="IV14" s="26"/>
+      <c r="IW14" s="26"/>
+      <c r="IX14" s="26"/>
+      <c r="IY14" s="26"/>
+      <c r="IZ14" s="26"/>
+      <c r="JA14" s="26"/>
+      <c r="JB14" s="27"/>
+      <c r="JC14" s="27"/>
+      <c r="JD14" s="27"/>
+      <c r="JE14" s="27"/>
+      <c r="JF14" s="27"/>
+      <c r="JG14" s="27"/>
+      <c r="JH14" s="27"/>
+      <c r="JI14" s="27"/>
+      <c r="JJ14" s="27"/>
+      <c r="JK14" s="27"/>
+      <c r="JL14" s="27"/>
+      <c r="JM14" s="27"/>
+      <c r="JN14" s="27"/>
+      <c r="JO14" s="27"/>
+      <c r="JP14" s="27"/>
+      <c r="JQ14" s="27"/>
+      <c r="JR14" s="27"/>
+      <c r="JS14" s="27"/>
+      <c r="JT14" s="27"/>
+      <c r="JU14" s="27"/>
+      <c r="JV14" s="27"/>
+      <c r="JW14" s="27"/>
+      <c r="JX14" s="27"/>
+      <c r="JY14" s="27"/>
+      <c r="JZ14" s="28"/>
+      <c r="KA14" s="31"/>
+      <c r="KB14" s="26"/>
+      <c r="KC14" s="26"/>
+      <c r="KD14" s="26"/>
+      <c r="KE14" s="26"/>
+      <c r="KF14" s="26"/>
+      <c r="KG14" s="26"/>
+      <c r="KH14" s="26"/>
+      <c r="KI14" s="26"/>
+      <c r="KJ14" s="26"/>
+      <c r="KK14" s="26"/>
+      <c r="KL14" s="26"/>
+      <c r="KM14" s="26"/>
+      <c r="KN14" s="26"/>
+      <c r="KO14" s="26"/>
+      <c r="KP14" s="26"/>
+      <c r="KQ14" s="26"/>
+      <c r="KR14" s="26"/>
+      <c r="KS14" s="26"/>
+      <c r="KT14" s="26"/>
+      <c r="KU14" s="26"/>
+      <c r="KV14" s="26"/>
+      <c r="KW14" s="26"/>
+      <c r="KX14" s="26"/>
+      <c r="KY14" s="26"/>
+      <c r="KZ14" s="26"/>
+      <c r="LA14" s="26"/>
+      <c r="LB14" s="26"/>
+      <c r="LC14" s="26"/>
+      <c r="LD14" s="26"/>
+      <c r="LE14" s="26"/>
+      <c r="LF14" s="27"/>
+      <c r="LG14" s="27"/>
+      <c r="LH14" s="27"/>
+      <c r="LI14" s="27"/>
+      <c r="LJ14" s="27"/>
+      <c r="LK14" s="27"/>
+      <c r="LL14" s="27"/>
+      <c r="LM14" s="27"/>
+      <c r="LN14" s="27"/>
+      <c r="LO14" s="27"/>
+      <c r="LP14" s="27"/>
+      <c r="LQ14" s="27"/>
+      <c r="LR14" s="27"/>
+      <c r="LS14" s="27"/>
+      <c r="LT14" s="27"/>
+      <c r="LU14" s="27"/>
+      <c r="LV14" s="27"/>
+      <c r="LW14" s="27"/>
+      <c r="LX14" s="27"/>
+      <c r="LY14" s="27"/>
+      <c r="LZ14" s="27"/>
+      <c r="MA14" s="27"/>
+      <c r="MB14" s="27"/>
+      <c r="MC14" s="27"/>
+      <c r="MD14" s="28"/>
+      <c r="ME14" s="31"/>
+      <c r="MF14" s="26"/>
+      <c r="MG14" s="26"/>
+      <c r="MH14" s="26"/>
+      <c r="MI14" s="26"/>
+      <c r="MJ14" s="26"/>
+      <c r="MK14" s="26"/>
+      <c r="ML14" s="26"/>
+      <c r="MM14" s="26"/>
+      <c r="MN14" s="26"/>
+      <c r="MO14" s="26"/>
+      <c r="MP14" s="26"/>
+      <c r="MQ14" s="26"/>
+      <c r="MR14" s="26"/>
+      <c r="MS14" s="26"/>
+      <c r="MT14" s="26"/>
+      <c r="MU14" s="26"/>
+      <c r="MV14" s="26"/>
+      <c r="MW14" s="26"/>
+      <c r="MX14" s="26"/>
+      <c r="MY14" s="26"/>
+      <c r="MZ14" s="26"/>
+      <c r="NA14" s="26"/>
+      <c r="NB14" s="26"/>
+      <c r="NC14" s="26"/>
+      <c r="ND14" s="26"/>
+      <c r="NE14" s="26"/>
+      <c r="NF14" s="26"/>
+      <c r="NG14" s="26"/>
+      <c r="NH14" s="26"/>
     </row>
     <row r="15" spans="1:372" x14ac:dyDescent="0.15">
-      <c r="BU15" s="36"/>
+      <c r="BU15" s="34"/>
     </row>
     <row r="16" spans="1:372" x14ac:dyDescent="0.15">
-      <c r="BT16" s="38"/>
-      <c r="BU16" s="39"/>
-      <c r="EH16" s="38"/>
-      <c r="EI16" s="39"/>
-      <c r="GV16" s="38"/>
-      <c r="GW16" s="39"/>
-      <c r="JJ16" s="38"/>
-      <c r="JK16" s="39"/>
-      <c r="LX16" s="38"/>
-      <c r="LY16" s="39"/>
+      <c r="BT16" s="36"/>
+      <c r="BU16" s="37"/>
+      <c r="EH16" s="36"/>
+      <c r="EI16" s="37"/>
+      <c r="GV16" s="36"/>
+      <c r="GW16" s="37"/>
+      <c r="JJ16" s="36"/>
+      <c r="JK16" s="37"/>
+      <c r="LX16" s="36"/>
+      <c r="LY16" s="37"/>
     </row>
     <row r="17" spans="2:372" x14ac:dyDescent="0.15">
       <c r="G17" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="36"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
-      <c r="R17" s="36"/>
-      <c r="S17" s="36"/>
-      <c r="T17" s="36"/>
-      <c r="U17" s="36"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="36"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="36"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="36"/>
-      <c r="AG17" s="36"/>
-      <c r="AH17" s="36"/>
-      <c r="AI17" s="36"/>
-      <c r="AJ17" s="36"/>
-      <c r="AK17" s="36"/>
-      <c r="AL17" s="36"/>
-      <c r="AM17" s="36"/>
-      <c r="AN17" s="36"/>
-      <c r="AO17" s="36"/>
-      <c r="AP17" s="36"/>
-      <c r="AQ17" s="36"/>
-      <c r="AR17" s="36"/>
-      <c r="AS17" s="36"/>
-      <c r="AT17" s="36"/>
-      <c r="AU17" s="36"/>
-      <c r="AV17" s="36"/>
-      <c r="AW17" s="36"/>
-      <c r="AX17" s="36"/>
-      <c r="AY17" s="36"/>
-      <c r="AZ17" s="36"/>
-      <c r="BA17" s="36"/>
-      <c r="BB17" s="36"/>
-      <c r="BC17" s="36"/>
-      <c r="BD17" s="36"/>
-      <c r="BE17" s="36"/>
-      <c r="BF17" s="36"/>
-      <c r="BG17" s="36"/>
-      <c r="BH17" s="36"/>
-      <c r="BI17" s="36"/>
-      <c r="BJ17" s="36"/>
-      <c r="BK17" s="36"/>
-      <c r="BL17" s="36"/>
-      <c r="BM17" s="36"/>
-      <c r="BN17" s="36"/>
-      <c r="BO17" s="36"/>
-      <c r="BP17" s="36"/>
-      <c r="BQ17" s="36"/>
-      <c r="BR17" s="36"/>
-      <c r="BS17" s="36"/>
-      <c r="BT17" s="37"/>
-      <c r="BU17" s="40"/>
-      <c r="BV17" s="36"/>
-      <c r="BW17" s="36"/>
-      <c r="BX17" s="36"/>
-      <c r="BY17" s="36"/>
-      <c r="BZ17" s="36"/>
-      <c r="CA17" s="36"/>
-      <c r="CB17" s="36"/>
-      <c r="CC17" s="36"/>
-      <c r="CD17" s="36"/>
-      <c r="CE17" s="36"/>
-      <c r="CF17" s="36"/>
-      <c r="CG17" s="36"/>
-      <c r="CH17" s="36"/>
-      <c r="CI17" s="36"/>
-      <c r="CJ17" s="36"/>
-      <c r="CK17" s="36"/>
-      <c r="CL17" s="36"/>
-      <c r="CM17" s="36"/>
-      <c r="CN17" s="36"/>
-      <c r="CO17" s="36"/>
-      <c r="CP17" s="36"/>
-      <c r="CQ17" s="36"/>
-      <c r="CR17" s="36"/>
-      <c r="CS17" s="36"/>
-      <c r="CT17" s="36"/>
-      <c r="CU17" s="36"/>
-      <c r="CV17" s="36"/>
-      <c r="CW17" s="36"/>
-      <c r="CX17" s="36"/>
-      <c r="CY17" s="36"/>
-      <c r="CZ17" s="36"/>
-      <c r="DA17" s="36"/>
-      <c r="DB17" s="36"/>
-      <c r="DC17" s="36"/>
-      <c r="DD17" s="36"/>
-      <c r="DE17" s="36"/>
-      <c r="DF17" s="36"/>
-      <c r="DG17" s="36"/>
-      <c r="DH17" s="36"/>
-      <c r="DI17" s="36"/>
-      <c r="DJ17" s="36"/>
-      <c r="DK17" s="36"/>
-      <c r="DL17" s="36"/>
-      <c r="DM17" s="36"/>
-      <c r="DN17" s="36"/>
-      <c r="DO17" s="36"/>
-      <c r="DP17" s="36"/>
-      <c r="DQ17" s="36"/>
-      <c r="DR17" s="36"/>
-      <c r="DS17" s="36"/>
-      <c r="DT17" s="36"/>
-      <c r="DU17" s="36"/>
-      <c r="DV17" s="36"/>
-      <c r="DW17" s="36"/>
-      <c r="DX17" s="36"/>
-      <c r="DY17" s="36"/>
-      <c r="DZ17" s="36"/>
-      <c r="EA17" s="36"/>
-      <c r="EB17" s="36"/>
-      <c r="EC17" s="36"/>
-      <c r="ED17" s="36"/>
-      <c r="EE17" s="36"/>
-      <c r="EF17" s="36"/>
-      <c r="EG17" s="36"/>
-      <c r="EH17" s="37"/>
-      <c r="EI17" s="40"/>
-      <c r="EJ17" s="36"/>
-      <c r="EK17" s="36"/>
-      <c r="EL17" s="36"/>
-      <c r="EM17" s="36"/>
-      <c r="EN17" s="36"/>
-      <c r="EO17" s="36"/>
-      <c r="EP17" s="36"/>
-      <c r="EQ17" s="36"/>
-      <c r="ER17" s="36"/>
-      <c r="ES17" s="36"/>
-      <c r="ET17" s="36"/>
-      <c r="EU17" s="36"/>
-      <c r="EV17" s="36"/>
-      <c r="EW17" s="36"/>
-      <c r="EX17" s="36"/>
-      <c r="EY17" s="36"/>
-      <c r="EZ17" s="36"/>
-      <c r="FA17" s="36"/>
-      <c r="FB17" s="36"/>
-      <c r="FC17" s="36"/>
-      <c r="FD17" s="36"/>
-      <c r="FE17" s="36"/>
-      <c r="FF17" s="36"/>
-      <c r="FG17" s="36"/>
-      <c r="FH17" s="36"/>
-      <c r="FI17" s="36"/>
-      <c r="FJ17" s="36"/>
-      <c r="FK17" s="36"/>
-      <c r="FL17" s="36"/>
-      <c r="FM17" s="36"/>
-      <c r="FN17" s="36"/>
-      <c r="FO17" s="36"/>
-      <c r="FP17" s="36"/>
-      <c r="FQ17" s="36"/>
-      <c r="FR17" s="36"/>
-      <c r="FS17" s="36"/>
-      <c r="FT17" s="36"/>
-      <c r="FU17" s="36"/>
-      <c r="FV17" s="36"/>
-      <c r="FW17" s="36"/>
-      <c r="FX17" s="36"/>
-      <c r="FY17" s="36"/>
-      <c r="FZ17" s="36"/>
-      <c r="GA17" s="36"/>
-      <c r="GB17" s="36"/>
-      <c r="GC17" s="36"/>
-      <c r="GD17" s="36"/>
-      <c r="GE17" s="36"/>
-      <c r="GF17" s="36"/>
-      <c r="GG17" s="36"/>
-      <c r="GH17" s="36"/>
-      <c r="GI17" s="36"/>
-      <c r="GJ17" s="36"/>
-      <c r="GK17" s="36"/>
-      <c r="GL17" s="36"/>
-      <c r="GM17" s="36"/>
-      <c r="GN17" s="36"/>
-      <c r="GO17" s="36"/>
-      <c r="GP17" s="36"/>
-      <c r="GQ17" s="36"/>
-      <c r="GR17" s="36"/>
-      <c r="GS17" s="36"/>
-      <c r="GT17" s="36"/>
-      <c r="GU17" s="36"/>
-      <c r="GV17" s="37"/>
-      <c r="GW17" s="40"/>
-      <c r="GX17" s="36"/>
-      <c r="GY17" s="36"/>
-      <c r="GZ17" s="36"/>
-      <c r="HA17" s="36"/>
-      <c r="HB17" s="36"/>
-      <c r="HC17" s="36"/>
-      <c r="HD17" s="36"/>
-      <c r="HE17" s="36"/>
-      <c r="HF17" s="36"/>
-      <c r="HG17" s="36"/>
-      <c r="HH17" s="36"/>
-      <c r="HI17" s="36"/>
-      <c r="HJ17" s="36"/>
-      <c r="HK17" s="36"/>
-      <c r="HL17" s="36"/>
-      <c r="HM17" s="36"/>
-      <c r="HN17" s="36"/>
-      <c r="HO17" s="36"/>
-      <c r="HP17" s="36"/>
-      <c r="HQ17" s="36"/>
-      <c r="HR17" s="36"/>
-      <c r="HS17" s="36"/>
-      <c r="HT17" s="36"/>
-      <c r="HU17" s="36"/>
-      <c r="HV17" s="36"/>
-      <c r="HW17" s="36"/>
-      <c r="HX17" s="36"/>
-      <c r="HY17" s="36"/>
-      <c r="HZ17" s="36"/>
-      <c r="IA17" s="36"/>
-      <c r="IB17" s="36"/>
-      <c r="IC17" s="36"/>
-      <c r="ID17" s="36"/>
-      <c r="IE17" s="36"/>
-      <c r="IF17" s="36"/>
-      <c r="IG17" s="36"/>
-      <c r="IH17" s="36"/>
-      <c r="II17" s="36"/>
-      <c r="IJ17" s="36"/>
-      <c r="IK17" s="36"/>
-      <c r="IL17" s="36"/>
-      <c r="IM17" s="36"/>
-      <c r="IN17" s="36"/>
-      <c r="IO17" s="36"/>
-      <c r="IP17" s="36"/>
-      <c r="IQ17" s="36"/>
-      <c r="IR17" s="36"/>
-      <c r="IS17" s="36"/>
-      <c r="IT17" s="36"/>
-      <c r="IU17" s="36"/>
-      <c r="IV17" s="36"/>
-      <c r="IW17" s="36"/>
-      <c r="IX17" s="36"/>
-      <c r="IY17" s="36"/>
-      <c r="IZ17" s="36"/>
-      <c r="JA17" s="36"/>
-      <c r="JB17" s="36"/>
-      <c r="JC17" s="36"/>
-      <c r="JD17" s="36"/>
-      <c r="JE17" s="36"/>
-      <c r="JF17" s="36"/>
-      <c r="JG17" s="36"/>
-      <c r="JH17" s="36"/>
-      <c r="JI17" s="36"/>
-      <c r="JJ17" s="37"/>
-      <c r="JK17" s="40"/>
-      <c r="JL17" s="36"/>
-      <c r="JM17" s="36"/>
-      <c r="JN17" s="36"/>
-      <c r="JO17" s="36"/>
-      <c r="JP17" s="36"/>
-      <c r="JQ17" s="36"/>
-      <c r="JR17" s="36"/>
-      <c r="JS17" s="36"/>
-      <c r="JT17" s="36"/>
-      <c r="JU17" s="36"/>
-      <c r="JV17" s="36"/>
-      <c r="JW17" s="36"/>
-      <c r="JX17" s="36"/>
-      <c r="JY17" s="36"/>
-      <c r="JZ17" s="36"/>
-      <c r="KA17" s="36"/>
-      <c r="KB17" s="36"/>
-      <c r="KC17" s="36"/>
-      <c r="KD17" s="36"/>
-      <c r="KE17" s="36"/>
-      <c r="KF17" s="36"/>
-      <c r="KG17" s="36"/>
-      <c r="KH17" s="36"/>
-      <c r="KI17" s="36"/>
-      <c r="KJ17" s="36"/>
-      <c r="KK17" s="36"/>
-      <c r="KL17" s="36"/>
-      <c r="KM17" s="36"/>
-      <c r="KN17" s="36"/>
-      <c r="KO17" s="36"/>
-      <c r="KP17" s="36"/>
-      <c r="KQ17" s="36"/>
-      <c r="KR17" s="36"/>
-      <c r="KS17" s="36"/>
-      <c r="KT17" s="36"/>
-      <c r="KU17" s="36"/>
-      <c r="KV17" s="36"/>
-      <c r="KW17" s="36"/>
-      <c r="KX17" s="36"/>
-      <c r="KY17" s="36"/>
-      <c r="KZ17" s="36"/>
-      <c r="LA17" s="36"/>
-      <c r="LB17" s="36"/>
-      <c r="LC17" s="36"/>
-      <c r="LD17" s="36"/>
-      <c r="LE17" s="36"/>
-      <c r="LF17" s="36"/>
-      <c r="LG17" s="36"/>
-      <c r="LH17" s="36"/>
-      <c r="LI17" s="36"/>
-      <c r="LJ17" s="36"/>
-      <c r="LK17" s="36"/>
-      <c r="LL17" s="36"/>
-      <c r="LM17" s="36"/>
-      <c r="LN17" s="36"/>
-      <c r="LO17" s="36"/>
-      <c r="LP17" s="36"/>
-      <c r="LQ17" s="36"/>
-      <c r="LR17" s="36"/>
-      <c r="LS17" s="36"/>
-      <c r="LT17" s="36"/>
-      <c r="LU17" s="36"/>
-      <c r="LV17" s="36"/>
-      <c r="LW17" s="36"/>
-      <c r="LX17" s="37"/>
-      <c r="LY17" s="40"/>
-      <c r="LZ17" s="36"/>
-      <c r="MA17" s="36"/>
-      <c r="MB17" s="36"/>
-      <c r="MC17" s="36"/>
-      <c r="MD17" s="36"/>
-      <c r="ME17" s="36"/>
-      <c r="MF17" s="36"/>
-      <c r="MG17" s="36"/>
-      <c r="MH17" s="36"/>
-      <c r="MI17" s="36"/>
-      <c r="MJ17" s="36"/>
-      <c r="MK17" s="36"/>
-      <c r="ML17" s="36"/>
-      <c r="MM17" s="36"/>
-      <c r="MN17" s="36"/>
-      <c r="MO17" s="36"/>
-      <c r="MP17" s="36"/>
-      <c r="MQ17" s="36"/>
-      <c r="MR17" s="36"/>
-      <c r="MS17" s="36"/>
-      <c r="MT17" s="36"/>
-      <c r="MU17" s="36"/>
-      <c r="MV17" s="36"/>
-      <c r="MW17" s="36"/>
-      <c r="MX17" s="36"/>
-      <c r="MY17" s="36"/>
-      <c r="MZ17" s="36"/>
-      <c r="NA17" s="36"/>
-      <c r="NB17" s="36"/>
-      <c r="NC17" s="36"/>
-      <c r="ND17" s="36"/>
-      <c r="NE17" s="36"/>
-      <c r="NF17" s="36"/>
-      <c r="NG17" s="36"/>
-      <c r="NH17" s="36"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="34"/>
+      <c r="AO17" s="34"/>
+      <c r="AP17" s="34"/>
+      <c r="AQ17" s="34"/>
+      <c r="AR17" s="34"/>
+      <c r="AS17" s="34"/>
+      <c r="AT17" s="34"/>
+      <c r="AU17" s="34"/>
+      <c r="AV17" s="34"/>
+      <c r="AW17" s="34"/>
+      <c r="AX17" s="34"/>
+      <c r="AY17" s="34"/>
+      <c r="AZ17" s="34"/>
+      <c r="BA17" s="34"/>
+      <c r="BB17" s="34"/>
+      <c r="BC17" s="34"/>
+      <c r="BD17" s="34"/>
+      <c r="BE17" s="34"/>
+      <c r="BF17" s="34"/>
+      <c r="BG17" s="34"/>
+      <c r="BH17" s="34"/>
+      <c r="BI17" s="34"/>
+      <c r="BJ17" s="34"/>
+      <c r="BK17" s="34"/>
+      <c r="BL17" s="34"/>
+      <c r="BM17" s="34"/>
+      <c r="BN17" s="34"/>
+      <c r="BO17" s="34"/>
+      <c r="BP17" s="34"/>
+      <c r="BQ17" s="34"/>
+      <c r="BR17" s="34"/>
+      <c r="BS17" s="34"/>
+      <c r="BT17" s="35"/>
+      <c r="BU17" s="38"/>
+      <c r="BV17" s="34"/>
+      <c r="BW17" s="34"/>
+      <c r="BX17" s="34"/>
+      <c r="BY17" s="34"/>
+      <c r="BZ17" s="34"/>
+      <c r="CA17" s="34"/>
+      <c r="CB17" s="34"/>
+      <c r="CC17" s="34"/>
+      <c r="CD17" s="34"/>
+      <c r="CE17" s="34"/>
+      <c r="CF17" s="34"/>
+      <c r="CG17" s="34"/>
+      <c r="CH17" s="34"/>
+      <c r="CI17" s="34"/>
+      <c r="CJ17" s="34"/>
+      <c r="CK17" s="34"/>
+      <c r="CL17" s="34"/>
+      <c r="CM17" s="34"/>
+      <c r="CN17" s="34"/>
+      <c r="CO17" s="34"/>
+      <c r="CP17" s="34"/>
+      <c r="CQ17" s="34"/>
+      <c r="CR17" s="34"/>
+      <c r="CS17" s="34"/>
+      <c r="CT17" s="34"/>
+      <c r="CU17" s="34"/>
+      <c r="CV17" s="34"/>
+      <c r="CW17" s="34"/>
+      <c r="CX17" s="34"/>
+      <c r="CY17" s="34"/>
+      <c r="CZ17" s="34"/>
+      <c r="DA17" s="34"/>
+      <c r="DB17" s="34"/>
+      <c r="DC17" s="34"/>
+      <c r="DD17" s="34"/>
+      <c r="DE17" s="34"/>
+      <c r="DF17" s="34"/>
+      <c r="DG17" s="34"/>
+      <c r="DH17" s="34"/>
+      <c r="DI17" s="34"/>
+      <c r="DJ17" s="34"/>
+      <c r="DK17" s="34"/>
+      <c r="DL17" s="34"/>
+      <c r="DM17" s="34"/>
+      <c r="DN17" s="34"/>
+      <c r="DO17" s="34"/>
+      <c r="DP17" s="34"/>
+      <c r="DQ17" s="34"/>
+      <c r="DR17" s="34"/>
+      <c r="DS17" s="34"/>
+      <c r="DT17" s="34"/>
+      <c r="DU17" s="34"/>
+      <c r="DV17" s="34"/>
+      <c r="DW17" s="34"/>
+      <c r="DX17" s="34"/>
+      <c r="DY17" s="34"/>
+      <c r="DZ17" s="34"/>
+      <c r="EA17" s="34"/>
+      <c r="EB17" s="34"/>
+      <c r="EC17" s="34"/>
+      <c r="ED17" s="34"/>
+      <c r="EE17" s="34"/>
+      <c r="EF17" s="34"/>
+      <c r="EG17" s="34"/>
+      <c r="EH17" s="35"/>
+      <c r="EI17" s="38"/>
+      <c r="EJ17" s="34"/>
+      <c r="EK17" s="34"/>
+      <c r="EL17" s="34"/>
+      <c r="EM17" s="34"/>
+      <c r="EN17" s="34"/>
+      <c r="EO17" s="34"/>
+      <c r="EP17" s="34"/>
+      <c r="EQ17" s="34"/>
+      <c r="ER17" s="34"/>
+      <c r="ES17" s="34"/>
+      <c r="ET17" s="34"/>
+      <c r="EU17" s="34"/>
+      <c r="EV17" s="34"/>
+      <c r="EW17" s="34"/>
+      <c r="EX17" s="34"/>
+      <c r="EY17" s="34"/>
+      <c r="EZ17" s="34"/>
+      <c r="FA17" s="34"/>
+      <c r="FB17" s="34"/>
+      <c r="FC17" s="34"/>
+      <c r="FD17" s="34"/>
+      <c r="FE17" s="34"/>
+      <c r="FF17" s="34"/>
+      <c r="FG17" s="34"/>
+      <c r="FH17" s="34"/>
+      <c r="FI17" s="34"/>
+      <c r="FJ17" s="34"/>
+      <c r="FK17" s="34"/>
+      <c r="FL17" s="34"/>
+      <c r="FM17" s="34"/>
+      <c r="FN17" s="34"/>
+      <c r="FO17" s="34"/>
+      <c r="FP17" s="34"/>
+      <c r="FQ17" s="34"/>
+      <c r="FR17" s="34"/>
+      <c r="FS17" s="34"/>
+      <c r="FT17" s="34"/>
+      <c r="FU17" s="34"/>
+      <c r="FV17" s="34"/>
+      <c r="FW17" s="34"/>
+      <c r="FX17" s="34"/>
+      <c r="FY17" s="34"/>
+      <c r="FZ17" s="34"/>
+      <c r="GA17" s="34"/>
+      <c r="GB17" s="34"/>
+      <c r="GC17" s="34"/>
+      <c r="GD17" s="34"/>
+      <c r="GE17" s="34"/>
+      <c r="GF17" s="34"/>
+      <c r="GG17" s="34"/>
+      <c r="GH17" s="34"/>
+      <c r="GI17" s="34"/>
+      <c r="GJ17" s="34"/>
+      <c r="GK17" s="34"/>
+      <c r="GL17" s="34"/>
+      <c r="GM17" s="34"/>
+      <c r="GN17" s="34"/>
+      <c r="GO17" s="34"/>
+      <c r="GP17" s="34"/>
+      <c r="GQ17" s="34"/>
+      <c r="GR17" s="34"/>
+      <c r="GS17" s="34"/>
+      <c r="GT17" s="34"/>
+      <c r="GU17" s="34"/>
+      <c r="GV17" s="35"/>
+      <c r="GW17" s="38"/>
+      <c r="GX17" s="34"/>
+      <c r="GY17" s="34"/>
+      <c r="GZ17" s="34"/>
+      <c r="HA17" s="34"/>
+      <c r="HB17" s="34"/>
+      <c r="HC17" s="34"/>
+      <c r="HD17" s="34"/>
+      <c r="HE17" s="34"/>
+      <c r="HF17" s="34"/>
+      <c r="HG17" s="34"/>
+      <c r="HH17" s="34"/>
+      <c r="HI17" s="34"/>
+      <c r="HJ17" s="34"/>
+      <c r="HK17" s="34"/>
+      <c r="HL17" s="34"/>
+      <c r="HM17" s="34"/>
+      <c r="HN17" s="34"/>
+      <c r="HO17" s="34"/>
+      <c r="HP17" s="34"/>
+      <c r="HQ17" s="34"/>
+      <c r="HR17" s="34"/>
+      <c r="HS17" s="34"/>
+      <c r="HT17" s="34"/>
+      <c r="HU17" s="34"/>
+      <c r="HV17" s="34"/>
+      <c r="HW17" s="34"/>
+      <c r="HX17" s="34"/>
+      <c r="HY17" s="34"/>
+      <c r="HZ17" s="34"/>
+      <c r="IA17" s="34"/>
+      <c r="IB17" s="34"/>
+      <c r="IC17" s="34"/>
+      <c r="ID17" s="34"/>
+      <c r="IE17" s="34"/>
+      <c r="IF17" s="34"/>
+      <c r="IG17" s="34"/>
+      <c r="IH17" s="34"/>
+      <c r="II17" s="34"/>
+      <c r="IJ17" s="34"/>
+      <c r="IK17" s="34"/>
+      <c r="IL17" s="34"/>
+      <c r="IM17" s="34"/>
+      <c r="IN17" s="34"/>
+      <c r="IO17" s="34"/>
+      <c r="IP17" s="34"/>
+      <c r="IQ17" s="34"/>
+      <c r="IR17" s="34"/>
+      <c r="IS17" s="34"/>
+      <c r="IT17" s="34"/>
+      <c r="IU17" s="34"/>
+      <c r="IV17" s="34"/>
+      <c r="IW17" s="34"/>
+      <c r="IX17" s="34"/>
+      <c r="IY17" s="34"/>
+      <c r="IZ17" s="34"/>
+      <c r="JA17" s="34"/>
+      <c r="JB17" s="34"/>
+      <c r="JC17" s="34"/>
+      <c r="JD17" s="34"/>
+      <c r="JE17" s="34"/>
+      <c r="JF17" s="34"/>
+      <c r="JG17" s="34"/>
+      <c r="JH17" s="34"/>
+      <c r="JI17" s="34"/>
+      <c r="JJ17" s="35"/>
+      <c r="JK17" s="38"/>
+      <c r="JL17" s="34"/>
+      <c r="JM17" s="34"/>
+      <c r="JN17" s="34"/>
+      <c r="JO17" s="34"/>
+      <c r="JP17" s="34"/>
+      <c r="JQ17" s="34"/>
+      <c r="JR17" s="34"/>
+      <c r="JS17" s="34"/>
+      <c r="JT17" s="34"/>
+      <c r="JU17" s="34"/>
+      <c r="JV17" s="34"/>
+      <c r="JW17" s="34"/>
+      <c r="JX17" s="34"/>
+      <c r="JY17" s="34"/>
+      <c r="JZ17" s="34"/>
+      <c r="KA17" s="34"/>
+      <c r="KB17" s="34"/>
+      <c r="KC17" s="34"/>
+      <c r="KD17" s="34"/>
+      <c r="KE17" s="34"/>
+      <c r="KF17" s="34"/>
+      <c r="KG17" s="34"/>
+      <c r="KH17" s="34"/>
+      <c r="KI17" s="34"/>
+      <c r="KJ17" s="34"/>
+      <c r="KK17" s="34"/>
+      <c r="KL17" s="34"/>
+      <c r="KM17" s="34"/>
+      <c r="KN17" s="34"/>
+      <c r="KO17" s="34"/>
+      <c r="KP17" s="34"/>
+      <c r="KQ17" s="34"/>
+      <c r="KR17" s="34"/>
+      <c r="KS17" s="34"/>
+      <c r="KT17" s="34"/>
+      <c r="KU17" s="34"/>
+      <c r="KV17" s="34"/>
+      <c r="KW17" s="34"/>
+      <c r="KX17" s="34"/>
+      <c r="KY17" s="34"/>
+      <c r="KZ17" s="34"/>
+      <c r="LA17" s="34"/>
+      <c r="LB17" s="34"/>
+      <c r="LC17" s="34"/>
+      <c r="LD17" s="34"/>
+      <c r="LE17" s="34"/>
+      <c r="LF17" s="34"/>
+      <c r="LG17" s="34"/>
+      <c r="LH17" s="34"/>
+      <c r="LI17" s="34"/>
+      <c r="LJ17" s="34"/>
+      <c r="LK17" s="34"/>
+      <c r="LL17" s="34"/>
+      <c r="LM17" s="34"/>
+      <c r="LN17" s="34"/>
+      <c r="LO17" s="34"/>
+      <c r="LP17" s="34"/>
+      <c r="LQ17" s="34"/>
+      <c r="LR17" s="34"/>
+      <c r="LS17" s="34"/>
+      <c r="LT17" s="34"/>
+      <c r="LU17" s="34"/>
+      <c r="LV17" s="34"/>
+      <c r="LW17" s="34"/>
+      <c r="LX17" s="35"/>
+      <c r="LY17" s="38"/>
+      <c r="LZ17" s="34"/>
+      <c r="MA17" s="34"/>
+      <c r="MB17" s="34"/>
+      <c r="MC17" s="34"/>
+      <c r="MD17" s="34"/>
+      <c r="ME17" s="34"/>
+      <c r="MF17" s="34"/>
+      <c r="MG17" s="34"/>
+      <c r="MH17" s="34"/>
+      <c r="MI17" s="34"/>
+      <c r="MJ17" s="34"/>
+      <c r="MK17" s="34"/>
+      <c r="ML17" s="34"/>
+      <c r="MM17" s="34"/>
+      <c r="MN17" s="34"/>
+      <c r="MO17" s="34"/>
+      <c r="MP17" s="34"/>
+      <c r="MQ17" s="34"/>
+      <c r="MR17" s="34"/>
+      <c r="MS17" s="34"/>
+      <c r="MT17" s="34"/>
+      <c r="MU17" s="34"/>
+      <c r="MV17" s="34"/>
+      <c r="MW17" s="34"/>
+      <c r="MX17" s="34"/>
+      <c r="MY17" s="34"/>
+      <c r="MZ17" s="34"/>
+      <c r="NA17" s="34"/>
+      <c r="NB17" s="34"/>
+      <c r="NC17" s="34"/>
+      <c r="ND17" s="34"/>
+      <c r="NE17" s="34"/>
+      <c r="NF17" s="34"/>
+      <c r="NG17" s="34"/>
+      <c r="NH17" s="34"/>
     </row>
     <row r="18" spans="2:372" x14ac:dyDescent="0.15">
-      <c r="DD18" s="41"/>
+      <c r="DD18" s="39"/>
     </row>
     <row r="19" spans="2:372" x14ac:dyDescent="0.15">
-      <c r="DC19" s="43"/>
-      <c r="DD19" s="44"/>
-      <c r="GZ19" s="43"/>
-      <c r="HA19" s="44"/>
-      <c r="KW19" s="43"/>
-      <c r="KX19" s="44"/>
+      <c r="DC19" s="41"/>
+      <c r="DD19" s="42"/>
+      <c r="GZ19" s="41"/>
+      <c r="HA19" s="42"/>
+      <c r="KW19" s="41"/>
+      <c r="KX19" s="42"/>
     </row>
     <row r="20" spans="2:372" x14ac:dyDescent="0.15">
       <c r="G20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="41"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="41"/>
-      <c r="U20" s="41"/>
-      <c r="V20" s="41"/>
-      <c r="W20" s="41"/>
-      <c r="X20" s="41"/>
-      <c r="Y20" s="41"/>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="41"/>
-      <c r="AC20" s="41"/>
-      <c r="AD20" s="41"/>
-      <c r="AE20" s="41"/>
-      <c r="AF20" s="41"/>
-      <c r="AG20" s="41"/>
-      <c r="AH20" s="41"/>
-      <c r="AI20" s="41"/>
-      <c r="AJ20" s="41"/>
-      <c r="AK20" s="41"/>
-      <c r="AL20" s="41"/>
-      <c r="AM20" s="41"/>
-      <c r="AN20" s="41"/>
-      <c r="AO20" s="41"/>
-      <c r="AP20" s="41"/>
-      <c r="AQ20" s="41"/>
-      <c r="AR20" s="41"/>
-      <c r="AS20" s="41"/>
-      <c r="AT20" s="41"/>
-      <c r="AU20" s="41"/>
-      <c r="AV20" s="41"/>
-      <c r="AW20" s="41"/>
-      <c r="AX20" s="41"/>
-      <c r="AY20" s="41"/>
-      <c r="AZ20" s="41"/>
-      <c r="BA20" s="41"/>
-      <c r="BB20" s="41"/>
-      <c r="BC20" s="41"/>
-      <c r="BD20" s="41"/>
-      <c r="BE20" s="41"/>
-      <c r="BF20" s="41"/>
-      <c r="BG20" s="41"/>
-      <c r="BH20" s="41"/>
-      <c r="BI20" s="41"/>
-      <c r="BJ20" s="41"/>
-      <c r="BK20" s="41"/>
-      <c r="BL20" s="41"/>
-      <c r="BM20" s="41"/>
-      <c r="BN20" s="41"/>
-      <c r="BO20" s="41"/>
-      <c r="BP20" s="41"/>
-      <c r="BQ20" s="41"/>
-      <c r="BR20" s="41"/>
-      <c r="BS20" s="41"/>
-      <c r="BT20" s="41"/>
-      <c r="BU20" s="41"/>
-      <c r="BV20" s="41"/>
-      <c r="BW20" s="41"/>
-      <c r="BX20" s="41"/>
-      <c r="BY20" s="41"/>
-      <c r="BZ20" s="41"/>
-      <c r="CA20" s="41"/>
-      <c r="CB20" s="41"/>
-      <c r="CC20" s="41"/>
-      <c r="CD20" s="41"/>
-      <c r="CE20" s="41"/>
-      <c r="CF20" s="41"/>
-      <c r="CG20" s="41"/>
-      <c r="CH20" s="41"/>
-      <c r="CI20" s="41"/>
-      <c r="CJ20" s="41"/>
-      <c r="CK20" s="41"/>
-      <c r="CL20" s="41"/>
-      <c r="CM20" s="41"/>
-      <c r="CN20" s="41"/>
-      <c r="CO20" s="41"/>
-      <c r="CP20" s="41"/>
-      <c r="CQ20" s="41"/>
-      <c r="CR20" s="41"/>
-      <c r="CS20" s="41"/>
-      <c r="CT20" s="41"/>
-      <c r="CU20" s="41"/>
-      <c r="CV20" s="41"/>
-      <c r="CW20" s="41"/>
-      <c r="CX20" s="41"/>
-      <c r="CY20" s="41"/>
-      <c r="CZ20" s="41"/>
-      <c r="DA20" s="41"/>
-      <c r="DB20" s="41"/>
-      <c r="DC20" s="42"/>
-      <c r="DD20" s="45"/>
-      <c r="DE20" s="41"/>
-      <c r="DF20" s="41"/>
-      <c r="DG20" s="41"/>
-      <c r="DH20" s="41"/>
-      <c r="DI20" s="41"/>
-      <c r="DJ20" s="41"/>
-      <c r="DK20" s="41"/>
-      <c r="DL20" s="41"/>
-      <c r="DM20" s="41"/>
-      <c r="DN20" s="41"/>
-      <c r="DO20" s="41"/>
-      <c r="DP20" s="41"/>
-      <c r="DQ20" s="41"/>
-      <c r="DR20" s="41"/>
-      <c r="DS20" s="41"/>
-      <c r="DT20" s="41"/>
-      <c r="DU20" s="41"/>
-      <c r="DV20" s="41"/>
-      <c r="DW20" s="41"/>
-      <c r="DX20" s="41"/>
-      <c r="DY20" s="41"/>
-      <c r="DZ20" s="41"/>
-      <c r="EA20" s="41"/>
-      <c r="EB20" s="41"/>
-      <c r="EC20" s="41"/>
-      <c r="ED20" s="41"/>
-      <c r="EE20" s="41"/>
-      <c r="EF20" s="41"/>
-      <c r="EG20" s="41"/>
-      <c r="EH20" s="41"/>
-      <c r="EI20" s="41"/>
-      <c r="EJ20" s="41"/>
-      <c r="EK20" s="41"/>
-      <c r="EL20" s="41"/>
-      <c r="EM20" s="41"/>
-      <c r="EN20" s="41"/>
-      <c r="EO20" s="41"/>
-      <c r="EP20" s="41"/>
-      <c r="EQ20" s="41"/>
-      <c r="ER20" s="41"/>
-      <c r="ES20" s="41"/>
-      <c r="ET20" s="41"/>
-      <c r="EU20" s="41"/>
-      <c r="EV20" s="41"/>
-      <c r="EW20" s="41"/>
-      <c r="EX20" s="41"/>
-      <c r="EY20" s="41"/>
-      <c r="EZ20" s="41"/>
-      <c r="FA20" s="41"/>
-      <c r="FB20" s="41"/>
-      <c r="FC20" s="41"/>
-      <c r="FD20" s="41"/>
-      <c r="FE20" s="41"/>
-      <c r="FF20" s="41"/>
-      <c r="FG20" s="41"/>
-      <c r="FH20" s="41"/>
-      <c r="FI20" s="41"/>
-      <c r="FJ20" s="41"/>
-      <c r="FK20" s="41"/>
-      <c r="FL20" s="41"/>
-      <c r="FM20" s="41"/>
-      <c r="FN20" s="41"/>
-      <c r="FO20" s="41"/>
-      <c r="FP20" s="41"/>
-      <c r="FQ20" s="41"/>
-      <c r="FR20" s="41"/>
-      <c r="FS20" s="41"/>
-      <c r="FT20" s="41"/>
-      <c r="FU20" s="41"/>
-      <c r="FV20" s="41"/>
-      <c r="FW20" s="41"/>
-      <c r="FX20" s="41"/>
-      <c r="FY20" s="41"/>
-      <c r="FZ20" s="41"/>
-      <c r="GA20" s="41"/>
-      <c r="GB20" s="41"/>
-      <c r="GC20" s="41"/>
-      <c r="GD20" s="41"/>
-      <c r="GE20" s="41"/>
-      <c r="GF20" s="41"/>
-      <c r="GG20" s="41"/>
-      <c r="GH20" s="41"/>
-      <c r="GI20" s="41"/>
-      <c r="GJ20" s="41"/>
-      <c r="GK20" s="41"/>
-      <c r="GL20" s="41"/>
-      <c r="GM20" s="41"/>
-      <c r="GN20" s="41"/>
-      <c r="GO20" s="41"/>
-      <c r="GP20" s="41"/>
-      <c r="GQ20" s="41"/>
-      <c r="GR20" s="41"/>
-      <c r="GS20" s="41"/>
-      <c r="GT20" s="41"/>
-      <c r="GU20" s="41"/>
-      <c r="GV20" s="41"/>
-      <c r="GW20" s="41"/>
-      <c r="GX20" s="41"/>
-      <c r="GY20" s="41"/>
-      <c r="GZ20" s="42"/>
-      <c r="HA20" s="45"/>
-      <c r="HB20" s="41"/>
-      <c r="HC20" s="41"/>
-      <c r="HD20" s="41"/>
-      <c r="HE20" s="41"/>
-      <c r="HF20" s="41"/>
-      <c r="HG20" s="41"/>
-      <c r="HH20" s="41"/>
-      <c r="HI20" s="41"/>
-      <c r="HJ20" s="41"/>
-      <c r="HK20" s="41"/>
-      <c r="HL20" s="41"/>
-      <c r="HM20" s="41"/>
-      <c r="HN20" s="41"/>
-      <c r="HO20" s="41"/>
-      <c r="HP20" s="41"/>
-      <c r="HQ20" s="41"/>
-      <c r="HR20" s="41"/>
-      <c r="HS20" s="41"/>
-      <c r="HT20" s="41"/>
-      <c r="HU20" s="41"/>
-      <c r="HV20" s="41"/>
-      <c r="HW20" s="41"/>
-      <c r="HX20" s="41"/>
-      <c r="HY20" s="41"/>
-      <c r="HZ20" s="41"/>
-      <c r="IA20" s="41"/>
-      <c r="IB20" s="41"/>
-      <c r="IC20" s="41"/>
-      <c r="ID20" s="41"/>
-      <c r="IE20" s="41"/>
-      <c r="IF20" s="41"/>
-      <c r="IG20" s="41"/>
-      <c r="IH20" s="41"/>
-      <c r="II20" s="41"/>
-      <c r="IJ20" s="41"/>
-      <c r="IK20" s="41"/>
-      <c r="IL20" s="41"/>
-      <c r="IM20" s="41"/>
-      <c r="IN20" s="41"/>
-      <c r="IO20" s="41"/>
-      <c r="IP20" s="41"/>
-      <c r="IQ20" s="41"/>
-      <c r="IR20" s="41"/>
-      <c r="IS20" s="41"/>
-      <c r="IT20" s="41"/>
-      <c r="IU20" s="41"/>
-      <c r="IV20" s="41"/>
-      <c r="IW20" s="41"/>
-      <c r="IX20" s="41"/>
-      <c r="IY20" s="41"/>
-      <c r="IZ20" s="41"/>
-      <c r="JA20" s="41"/>
-      <c r="JB20" s="41"/>
-      <c r="JC20" s="41"/>
-      <c r="JD20" s="41"/>
-      <c r="JE20" s="41"/>
-      <c r="JF20" s="41"/>
-      <c r="JG20" s="41"/>
-      <c r="JH20" s="41"/>
-      <c r="JI20" s="41"/>
-      <c r="JJ20" s="41"/>
-      <c r="JK20" s="41"/>
-      <c r="JL20" s="41"/>
-      <c r="JM20" s="41"/>
-      <c r="JN20" s="41"/>
-      <c r="JO20" s="41"/>
-      <c r="JP20" s="41"/>
-      <c r="JQ20" s="41"/>
-      <c r="JR20" s="41"/>
-      <c r="JS20" s="41"/>
-      <c r="JT20" s="41"/>
-      <c r="JU20" s="41"/>
-      <c r="JV20" s="41"/>
-      <c r="JW20" s="41"/>
-      <c r="JX20" s="41"/>
-      <c r="JY20" s="41"/>
-      <c r="JZ20" s="41"/>
-      <c r="KA20" s="41"/>
-      <c r="KB20" s="41"/>
-      <c r="KC20" s="41"/>
-      <c r="KD20" s="41"/>
-      <c r="KE20" s="41"/>
-      <c r="KF20" s="41"/>
-      <c r="KG20" s="41"/>
-      <c r="KH20" s="41"/>
-      <c r="KI20" s="41"/>
-      <c r="KJ20" s="41"/>
-      <c r="KK20" s="41"/>
-      <c r="KL20" s="41"/>
-      <c r="KM20" s="41"/>
-      <c r="KN20" s="41"/>
-      <c r="KO20" s="41"/>
-      <c r="KP20" s="41"/>
-      <c r="KQ20" s="41"/>
-      <c r="KR20" s="41"/>
-      <c r="KS20" s="41"/>
-      <c r="KT20" s="41"/>
-      <c r="KU20" s="41"/>
-      <c r="KV20" s="41"/>
-      <c r="KW20" s="42"/>
-      <c r="KX20" s="45"/>
-      <c r="KY20" s="41"/>
-      <c r="KZ20" s="41"/>
-      <c r="LA20" s="41"/>
-      <c r="LB20" s="41"/>
-      <c r="LC20" s="41"/>
-      <c r="LD20" s="41"/>
-      <c r="LE20" s="41"/>
-      <c r="LF20" s="41"/>
-      <c r="LG20" s="41"/>
-      <c r="LH20" s="41"/>
-      <c r="LI20" s="41"/>
-      <c r="LJ20" s="41"/>
-      <c r="LK20" s="41"/>
-      <c r="LL20" s="41"/>
-      <c r="LM20" s="41"/>
-      <c r="LN20" s="41"/>
-      <c r="LO20" s="41"/>
-      <c r="LP20" s="41"/>
-      <c r="LQ20" s="41"/>
-      <c r="LR20" s="41"/>
-      <c r="LS20" s="41"/>
-      <c r="LT20" s="41"/>
-      <c r="LU20" s="41"/>
-      <c r="LV20" s="41"/>
-      <c r="LW20" s="41"/>
-      <c r="LX20" s="41"/>
-      <c r="LY20" s="41"/>
-      <c r="LZ20" s="41"/>
-      <c r="MA20" s="41"/>
-      <c r="MB20" s="41"/>
-      <c r="MC20" s="41"/>
-      <c r="MD20" s="41"/>
-      <c r="ME20" s="41"/>
-      <c r="MF20" s="41"/>
-      <c r="MG20" s="41"/>
-      <c r="MH20" s="41"/>
-      <c r="MI20" s="41"/>
-      <c r="MJ20" s="41"/>
-      <c r="MK20" s="41"/>
-      <c r="ML20" s="41"/>
-      <c r="MM20" s="41"/>
-      <c r="MN20" s="41"/>
-      <c r="MO20" s="41"/>
-      <c r="MP20" s="41"/>
-      <c r="MQ20" s="41"/>
-      <c r="MR20" s="41"/>
-      <c r="MS20" s="41"/>
-      <c r="MT20" s="41"/>
-      <c r="MU20" s="41"/>
-      <c r="MV20" s="41"/>
-      <c r="MW20" s="41"/>
-      <c r="MX20" s="41"/>
-      <c r="MY20" s="41"/>
-      <c r="MZ20" s="41"/>
-      <c r="NA20" s="41"/>
-      <c r="NB20" s="41"/>
-      <c r="NC20" s="41"/>
-      <c r="ND20" s="41"/>
-      <c r="NE20" s="41"/>
-      <c r="NF20" s="41"/>
-      <c r="NG20" s="41"/>
-      <c r="NH20" s="41"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="39"/>
+      <c r="N20" s="39"/>
+      <c r="O20" s="39"/>
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="39"/>
+      <c r="S20" s="39"/>
+      <c r="T20" s="39"/>
+      <c r="U20" s="39"/>
+      <c r="V20" s="39"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="39"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="39"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="39"/>
+      <c r="AC20" s="39"/>
+      <c r="AD20" s="39"/>
+      <c r="AE20" s="39"/>
+      <c r="AF20" s="39"/>
+      <c r="AG20" s="39"/>
+      <c r="AH20" s="39"/>
+      <c r="AI20" s="39"/>
+      <c r="AJ20" s="39"/>
+      <c r="AK20" s="39"/>
+      <c r="AL20" s="39"/>
+      <c r="AM20" s="39"/>
+      <c r="AN20" s="39"/>
+      <c r="AO20" s="39"/>
+      <c r="AP20" s="39"/>
+      <c r="AQ20" s="39"/>
+      <c r="AR20" s="39"/>
+      <c r="AS20" s="39"/>
+      <c r="AT20" s="39"/>
+      <c r="AU20" s="39"/>
+      <c r="AV20" s="39"/>
+      <c r="AW20" s="39"/>
+      <c r="AX20" s="39"/>
+      <c r="AY20" s="39"/>
+      <c r="AZ20" s="39"/>
+      <c r="BA20" s="39"/>
+      <c r="BB20" s="39"/>
+      <c r="BC20" s="39"/>
+      <c r="BD20" s="39"/>
+      <c r="BE20" s="39"/>
+      <c r="BF20" s="39"/>
+      <c r="BG20" s="39"/>
+      <c r="BH20" s="39"/>
+      <c r="BI20" s="39"/>
+      <c r="BJ20" s="39"/>
+      <c r="BK20" s="39"/>
+      <c r="BL20" s="39"/>
+      <c r="BM20" s="39"/>
+      <c r="BN20" s="39"/>
+      <c r="BO20" s="39"/>
+      <c r="BP20" s="39"/>
+      <c r="BQ20" s="39"/>
+      <c r="BR20" s="39"/>
+      <c r="BS20" s="39"/>
+      <c r="BT20" s="39"/>
+      <c r="BU20" s="39"/>
+      <c r="BV20" s="39"/>
+      <c r="BW20" s="39"/>
+      <c r="BX20" s="39"/>
+      <c r="BY20" s="39"/>
+      <c r="BZ20" s="39"/>
+      <c r="CA20" s="39"/>
+      <c r="CB20" s="39"/>
+      <c r="CC20" s="39"/>
+      <c r="CD20" s="39"/>
+      <c r="CE20" s="39"/>
+      <c r="CF20" s="39"/>
+      <c r="CG20" s="39"/>
+      <c r="CH20" s="39"/>
+      <c r="CI20" s="39"/>
+      <c r="CJ20" s="39"/>
+      <c r="CK20" s="39"/>
+      <c r="CL20" s="39"/>
+      <c r="CM20" s="39"/>
+      <c r="CN20" s="39"/>
+      <c r="CO20" s="39"/>
+      <c r="CP20" s="39"/>
+      <c r="CQ20" s="39"/>
+      <c r="CR20" s="39"/>
+      <c r="CS20" s="39"/>
+      <c r="CT20" s="39"/>
+      <c r="CU20" s="39"/>
+      <c r="CV20" s="39"/>
+      <c r="CW20" s="39"/>
+      <c r="CX20" s="39"/>
+      <c r="CY20" s="39"/>
+      <c r="CZ20" s="39"/>
+      <c r="DA20" s="39"/>
+      <c r="DB20" s="39"/>
+      <c r="DC20" s="40"/>
+      <c r="DD20" s="43"/>
+      <c r="DE20" s="39"/>
+      <c r="DF20" s="39"/>
+      <c r="DG20" s="39"/>
+      <c r="DH20" s="39"/>
+      <c r="DI20" s="39"/>
+      <c r="DJ20" s="39"/>
+      <c r="DK20" s="39"/>
+      <c r="DL20" s="39"/>
+      <c r="DM20" s="39"/>
+      <c r="DN20" s="39"/>
+      <c r="DO20" s="39"/>
+      <c r="DP20" s="39"/>
+      <c r="DQ20" s="39"/>
+      <c r="DR20" s="39"/>
+      <c r="DS20" s="39"/>
+      <c r="DT20" s="39"/>
+      <c r="DU20" s="39"/>
+      <c r="DV20" s="39"/>
+      <c r="DW20" s="39"/>
+      <c r="DX20" s="39"/>
+      <c r="DY20" s="39"/>
+      <c r="DZ20" s="39"/>
+      <c r="EA20" s="39"/>
+      <c r="EB20" s="39"/>
+      <c r="EC20" s="39"/>
+      <c r="ED20" s="39"/>
+      <c r="EE20" s="39"/>
+      <c r="EF20" s="39"/>
+      <c r="EG20" s="39"/>
+      <c r="EH20" s="39"/>
+      <c r="EI20" s="39"/>
+      <c r="EJ20" s="39"/>
+      <c r="EK20" s="39"/>
+      <c r="EL20" s="39"/>
+      <c r="EM20" s="39"/>
+      <c r="EN20" s="39"/>
+      <c r="EO20" s="39"/>
+      <c r="EP20" s="39"/>
+      <c r="EQ20" s="39"/>
+      <c r="ER20" s="39"/>
+      <c r="ES20" s="39"/>
+      <c r="ET20" s="39"/>
+      <c r="EU20" s="39"/>
+      <c r="EV20" s="39"/>
+      <c r="EW20" s="39"/>
+      <c r="EX20" s="39"/>
+      <c r="EY20" s="39"/>
+      <c r="EZ20" s="39"/>
+      <c r="FA20" s="39"/>
+      <c r="FB20" s="39"/>
+      <c r="FC20" s="39"/>
+      <c r="FD20" s="39"/>
+      <c r="FE20" s="39"/>
+      <c r="FF20" s="39"/>
+      <c r="FG20" s="39"/>
+      <c r="FH20" s="39"/>
+      <c r="FI20" s="39"/>
+      <c r="FJ20" s="39"/>
+      <c r="FK20" s="39"/>
+      <c r="FL20" s="39"/>
+      <c r="FM20" s="39"/>
+      <c r="FN20" s="39"/>
+      <c r="FO20" s="39"/>
+      <c r="FP20" s="39"/>
+      <c r="FQ20" s="39"/>
+      <c r="FR20" s="39"/>
+      <c r="FS20" s="39"/>
+      <c r="FT20" s="39"/>
+      <c r="FU20" s="39"/>
+      <c r="FV20" s="39"/>
+      <c r="FW20" s="39"/>
+      <c r="FX20" s="39"/>
+      <c r="FY20" s="39"/>
+      <c r="FZ20" s="39"/>
+      <c r="GA20" s="39"/>
+      <c r="GB20" s="39"/>
+      <c r="GC20" s="39"/>
+      <c r="GD20" s="39"/>
+      <c r="GE20" s="39"/>
+      <c r="GF20" s="39"/>
+      <c r="GG20" s="39"/>
+      <c r="GH20" s="39"/>
+      <c r="GI20" s="39"/>
+      <c r="GJ20" s="39"/>
+      <c r="GK20" s="39"/>
+      <c r="GL20" s="39"/>
+      <c r="GM20" s="39"/>
+      <c r="GN20" s="39"/>
+      <c r="GO20" s="39"/>
+      <c r="GP20" s="39"/>
+      <c r="GQ20" s="39"/>
+      <c r="GR20" s="39"/>
+      <c r="GS20" s="39"/>
+      <c r="GT20" s="39"/>
+      <c r="GU20" s="39"/>
+      <c r="GV20" s="39"/>
+      <c r="GW20" s="39"/>
+      <c r="GX20" s="39"/>
+      <c r="GY20" s="39"/>
+      <c r="GZ20" s="40"/>
+      <c r="HA20" s="43"/>
+      <c r="HB20" s="39"/>
+      <c r="HC20" s="39"/>
+      <c r="HD20" s="39"/>
+      <c r="HE20" s="39"/>
+      <c r="HF20" s="39"/>
+      <c r="HG20" s="39"/>
+      <c r="HH20" s="39"/>
+      <c r="HI20" s="39"/>
+      <c r="HJ20" s="39"/>
+      <c r="HK20" s="39"/>
+      <c r="HL20" s="39"/>
+      <c r="HM20" s="39"/>
+      <c r="HN20" s="39"/>
+      <c r="HO20" s="39"/>
+      <c r="HP20" s="39"/>
+      <c r="HQ20" s="39"/>
+      <c r="HR20" s="39"/>
+      <c r="HS20" s="39"/>
+      <c r="HT20" s="39"/>
+      <c r="HU20" s="39"/>
+      <c r="HV20" s="39"/>
+      <c r="HW20" s="39"/>
+      <c r="HX20" s="39"/>
+      <c r="HY20" s="39"/>
+      <c r="HZ20" s="39"/>
+      <c r="IA20" s="39"/>
+      <c r="IB20" s="39"/>
+      <c r="IC20" s="39"/>
+      <c r="ID20" s="39"/>
+      <c r="IE20" s="39"/>
+      <c r="IF20" s="39"/>
+      <c r="IG20" s="39"/>
+      <c r="IH20" s="39"/>
+      <c r="II20" s="39"/>
+      <c r="IJ20" s="39"/>
+      <c r="IK20" s="39"/>
+      <c r="IL20" s="39"/>
+      <c r="IM20" s="39"/>
+      <c r="IN20" s="39"/>
+      <c r="IO20" s="39"/>
+      <c r="IP20" s="39"/>
+      <c r="IQ20" s="39"/>
+      <c r="IR20" s="39"/>
+      <c r="IS20" s="39"/>
+      <c r="IT20" s="39"/>
+      <c r="IU20" s="39"/>
+      <c r="IV20" s="39"/>
+      <c r="IW20" s="39"/>
+      <c r="IX20" s="39"/>
+      <c r="IY20" s="39"/>
+      <c r="IZ20" s="39"/>
+      <c r="JA20" s="39"/>
+      <c r="JB20" s="39"/>
+      <c r="JC20" s="39"/>
+      <c r="JD20" s="39"/>
+      <c r="JE20" s="39"/>
+      <c r="JF20" s="39"/>
+      <c r="JG20" s="39"/>
+      <c r="JH20" s="39"/>
+      <c r="JI20" s="39"/>
+      <c r="JJ20" s="39"/>
+      <c r="JK20" s="39"/>
+      <c r="JL20" s="39"/>
+      <c r="JM20" s="39"/>
+      <c r="JN20" s="39"/>
+      <c r="JO20" s="39"/>
+      <c r="JP20" s="39"/>
+      <c r="JQ20" s="39"/>
+      <c r="JR20" s="39"/>
+      <c r="JS20" s="39"/>
+      <c r="JT20" s="39"/>
+      <c r="JU20" s="39"/>
+      <c r="JV20" s="39"/>
+      <c r="JW20" s="39"/>
+      <c r="JX20" s="39"/>
+      <c r="JY20" s="39"/>
+      <c r="JZ20" s="39"/>
+      <c r="KA20" s="39"/>
+      <c r="KB20" s="39"/>
+      <c r="KC20" s="39"/>
+      <c r="KD20" s="39"/>
+      <c r="KE20" s="39"/>
+      <c r="KF20" s="39"/>
+      <c r="KG20" s="39"/>
+      <c r="KH20" s="39"/>
+      <c r="KI20" s="39"/>
+      <c r="KJ20" s="39"/>
+      <c r="KK20" s="39"/>
+      <c r="KL20" s="39"/>
+      <c r="KM20" s="39"/>
+      <c r="KN20" s="39"/>
+      <c r="KO20" s="39"/>
+      <c r="KP20" s="39"/>
+      <c r="KQ20" s="39"/>
+      <c r="KR20" s="39"/>
+      <c r="KS20" s="39"/>
+      <c r="KT20" s="39"/>
+      <c r="KU20" s="39"/>
+      <c r="KV20" s="39"/>
+      <c r="KW20" s="40"/>
+      <c r="KX20" s="43"/>
+      <c r="KY20" s="39"/>
+      <c r="KZ20" s="39"/>
+      <c r="LA20" s="39"/>
+      <c r="LB20" s="39"/>
+      <c r="LC20" s="39"/>
+      <c r="LD20" s="39"/>
+      <c r="LE20" s="39"/>
+      <c r="LF20" s="39"/>
+      <c r="LG20" s="39"/>
+      <c r="LH20" s="39"/>
+      <c r="LI20" s="39"/>
+      <c r="LJ20" s="39"/>
+      <c r="LK20" s="39"/>
+      <c r="LL20" s="39"/>
+      <c r="LM20" s="39"/>
+      <c r="LN20" s="39"/>
+      <c r="LO20" s="39"/>
+      <c r="LP20" s="39"/>
+      <c r="LQ20" s="39"/>
+      <c r="LR20" s="39"/>
+      <c r="LS20" s="39"/>
+      <c r="LT20" s="39"/>
+      <c r="LU20" s="39"/>
+      <c r="LV20" s="39"/>
+      <c r="LW20" s="39"/>
+      <c r="LX20" s="39"/>
+      <c r="LY20" s="39"/>
+      <c r="LZ20" s="39"/>
+      <c r="MA20" s="39"/>
+      <c r="MB20" s="39"/>
+      <c r="MC20" s="39"/>
+      <c r="MD20" s="39"/>
+      <c r="ME20" s="39"/>
+      <c r="MF20" s="39"/>
+      <c r="MG20" s="39"/>
+      <c r="MH20" s="39"/>
+      <c r="MI20" s="39"/>
+      <c r="MJ20" s="39"/>
+      <c r="MK20" s="39"/>
+      <c r="ML20" s="39"/>
+      <c r="MM20" s="39"/>
+      <c r="MN20" s="39"/>
+      <c r="MO20" s="39"/>
+      <c r="MP20" s="39"/>
+      <c r="MQ20" s="39"/>
+      <c r="MR20" s="39"/>
+      <c r="MS20" s="39"/>
+      <c r="MT20" s="39"/>
+      <c r="MU20" s="39"/>
+      <c r="MV20" s="39"/>
+      <c r="MW20" s="39"/>
+      <c r="MX20" s="39"/>
+      <c r="MY20" s="39"/>
+      <c r="MZ20" s="39"/>
+      <c r="NA20" s="39"/>
+      <c r="NB20" s="39"/>
+      <c r="NC20" s="39"/>
+      <c r="ND20" s="39"/>
+      <c r="NE20" s="39"/>
+      <c r="NF20" s="39"/>
+      <c r="NG20" s="39"/>
+      <c r="NH20" s="39"/>
     </row>
     <row r="22" spans="2:372" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
@@ -4416,14 +4527,74 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.125" customWidth="1"/>
+    <col min="2" max="2" width="2" customWidth="1"/>
+    <col min="3" max="3" width="2.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C7" s="46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Doc/design/软件框图.xlsx
+++ b/Doc/design/软件框图.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="795" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="795" firstSheet="21" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <sheet name="UART Driver模块详细设计" sheetId="23" r:id="rId22"/>
     <sheet name="SystemDebug模块详细设计" sheetId="24" r:id="rId23"/>
     <sheet name="PinMuxCfg模块详细设计" sheetId="25" r:id="rId24"/>
-    <sheet name="BLE Service说 Driver模块详细设计" sheetId="26" r:id="rId25"/>
+    <sheet name="BLE Service Driver模块详细设计" sheetId="26" r:id="rId25"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
@@ -1131,13 +1131,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1755,25 +1755,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="25.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-      <c r="K1" s="45"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
-      <c r="N1" s="45"/>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
@@ -2398,8 +2398,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4529,7 +4529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -4572,7 +4572,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="44" t="s">
         <v>104</v>
       </c>
     </row>

--- a/Doc/design/软件框图.xlsx
+++ b/Doc/design/软件框图.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="795" firstSheet="21" activeTab="24"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="795" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="4" r:id="rId1"/>
@@ -571,15 +571,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>○ SensorBoard相关的配置信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>□Attach命令：插入时，需要执行的命令，用来初始化设备</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>□采集命令：每次采集数据时，需要执行的命令</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -659,6 +651,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>○ SensorBoard配置信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>□Capture命令：每次采集数据时，需要执行的命令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>□长度：整个配置的总长度，以字节为单位.</t>
     </r>
@@ -672,7 +672,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>uint32</t>
+      <t>uint32   → SensorManager不需要知道</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2398,7 +2398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
@@ -4529,8 +4529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4547,7 +4547,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -4558,37 +4558,37 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C7" s="44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
